--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -1,36 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jacky\Dropbox (LU's Team)\Jacky Lee\Papers\1867full\SourceCode\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jacky\Dropbox (LU's Team)\Jacky Lee\Papers\MLSF extended\Results\MLSF\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F251185C-B378-4529-A0F2-CABD9C04BE90}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28BD1403-45A6-4765-BF9A-63D7E07BC00E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="7730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="72">
   <si>
     <t>Cutoff</t>
   </si>
@@ -226,9 +221,6 @@
     <t>Step 1. For the cutoff values (1.000, 0.999, gradually down to 0.4), we found the corresponding PDB codes of the nested training sets. We ensured the number of training samples given a certain cutoff is identical to the value listed in the paper. Additionally, we included three new cutoff values (0.35, 0.30, 0.25), but beware the small number of training samples (43, 9, 1, respectively)</t>
   </si>
   <si>
-    <t>Step 7. From this Table I, we plotted the Rp performance of our five models when trained on nested training sets. The X axis shows the cutoff values as well as the number of training samples. The left subfigure shows cutoff values from 0.3 to 1.0, essentially reproducing the figure in the graphical abstract of the reference paper. The right subfigure is a local room in of the left subfigure, with cutoff values starting from 0.97, in order to better appreciate the performance gap between MLR and RF.</t>
-  </si>
-  <si>
     <r>
       <t>Table 1: Performance of MLR and RF scoring functions</t>
     </r>
@@ -336,6 +328,82 @@
     </r>
   </si>
   <si>
+    <t>Step 5. We added more models, RF::X-Score (using only the four energy terms as features) and RF-Score-v3 (36+6=42 features).  Likewise, 10 instances were built and average performance is reported here. Later, we added MLR::Vina and RF::Vina, and MLR::Cyscore and RF::Cyscore. Note a small detail of our implementation of MLR::Vina. The Vina software uses six features, five of them (gauss1, gauss2, repulsion, hydrophobic, hbonding) are summed over, then normalized by the sixth feature (flexibility, a ligand-only feature), so the model is somewhat quasi-MLR. But in our implementation of MLR::Vina, we only used the five features to give a strict MLR model.</t>
+  </si>
+  <si>
+    <t>XGB-Score</t>
+  </si>
+  <si>
+    <t>nan</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Table 5: Performance of MLR and RF scoring functions trained at different</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ligand similarity</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>levels.</t>
+    </r>
+  </si>
+  <si>
+    <t>MLR::Vina</t>
+  </si>
+  <si>
+    <t>MLR::Cyscore</t>
+  </si>
+  <si>
+    <t>RF::Cyscore</t>
+  </si>
+  <si>
+    <t>RF-Score-v3</t>
+  </si>
+  <si>
+    <t>XGB-Score</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Step 7. From this Table I, we plotted the Rp performance of our five models when trained on nested training sets. The X axis shows the cutoff values as well as the number of training samples. The left subfigure shows cutoff values from 0.3 to 1.0, essentially reproducing the figure in the graphical abstract of the reference paper. The right subfigure is a local room in of the left subfigure, with cutoff values starting from 0.97, in order to better appreciate the performance gap between MLR and RF.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">Table 3: Performance of MLR and RF scoring functions trained with similar samples only. In the training sets, the samples are required to </t>
     </r>
@@ -385,6 +453,7 @@
       </rPr>
       <t>(with the test samples) higher than the specified cutoffs</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -436,25 +505,65 @@
       </rPr>
       <t>(with the test samples) higher than the specified cutoffs</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Step 5. We added more models, RF::X-Score (using only the four energy terms as features) and RF-Score-v3 (36+6=42 features).  Likewise, 10 instances were built and average performance is reported here. Later, we added MLR::Vina and RF::Vina, and MLR::Cyscore and RF::Cyscore. Note a small detail of our implementation of MLR::Vina. The Vina software uses six features, five of them (gauss1, gauss2, repulsion, hydrophobic, hbonding) are summed over, then normalized by the sixth feature (flexibility, a ligand-only feature), so the model is somewhat quasi-MLR. But in our implementation of MLR::Vina, we only used the five features to give a strict MLR model.</t>
+    <t>NAN</t>
   </si>
   <si>
-    <t>XGB-Score</t>
+    <t>NAN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Table 6: Performance of MLR and RF scoring functions trained with similar samples only. In the training sets, the samples are required to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">have
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ligand similarity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (with the test samples) higher than the specified cutoffs</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>nan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000_ "/>
     <numFmt numFmtId="165" formatCode="0.000_);[Red]\(0.000\)"/>
     <numFmt numFmtId="166" formatCode="0_ "/>
+    <numFmt numFmtId="167" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="12">
     <font>
@@ -540,7 +649,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -793,11 +902,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -868,6 +1014,65 @@
     <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -919,9 +1124,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -944,9 +1146,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1267,10 +1466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BA154"/>
+  <dimension ref="A1:BA214"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="AX12" sqref="AX12:BA12"/>
+    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1303,37 +1502,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:53" s="5" customFormat="1" ht="18">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44"/>
-      <c r="P1" s="44"/>
-      <c r="Q1" s="44"/>
-      <c r="R1" s="44"/>
-      <c r="S1" s="44"/>
-      <c r="T1" s="44"/>
-      <c r="U1" s="44"/>
-      <c r="V1" s="44"/>
-      <c r="W1" s="44"/>
-      <c r="X1" s="44"/>
-      <c r="Y1" s="44"/>
-      <c r="Z1" s="44"/>
-      <c r="AA1" s="44"/>
-      <c r="AB1" s="44"/>
-      <c r="AC1" s="44"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="64"/>
+      <c r="V1" s="64"/>
+      <c r="W1" s="64"/>
+      <c r="X1" s="64"/>
+      <c r="Y1" s="64"/>
+      <c r="Z1" s="64"/>
+      <c r="AA1" s="64"/>
+      <c r="AB1" s="64"/>
+      <c r="AC1" s="64"/>
       <c r="AD1" s="24"/>
       <c r="AE1" s="20"/>
       <c r="AF1" s="20"/>
@@ -1407,347 +1606,347 @@
       <c r="AW2" s="20"/>
     </row>
     <row r="4" spans="1:53" ht="33.75" customHeight="1">
-      <c r="B4" s="51" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="51"/>
-      <c r="N4" s="51"/>
-      <c r="O4" s="51"/>
-      <c r="P4" s="51"/>
-      <c r="Q4" s="51"/>
-      <c r="R4" s="51"/>
-      <c r="S4" s="51"/>
-      <c r="T4" s="51"/>
-      <c r="U4" s="51"/>
-      <c r="V4" s="51"/>
-      <c r="W4" s="51"/>
-      <c r="X4" s="51"/>
-      <c r="Y4" s="51"/>
-      <c r="Z4" s="51"/>
-      <c r="AA4" s="51"/>
-      <c r="AB4" s="51"/>
+      <c r="B4" s="71" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71"/>
+      <c r="K4" s="71"/>
+      <c r="L4" s="71"/>
+      <c r="M4" s="71"/>
+      <c r="N4" s="71"/>
+      <c r="O4" s="71"/>
+      <c r="P4" s="71"/>
+      <c r="Q4" s="71"/>
+      <c r="R4" s="71"/>
+      <c r="S4" s="71"/>
+      <c r="T4" s="71"/>
+      <c r="U4" s="71"/>
+      <c r="V4" s="71"/>
+      <c r="W4" s="71"/>
+      <c r="X4" s="71"/>
+      <c r="Y4" s="71"/>
+      <c r="Z4" s="71"/>
+      <c r="AA4" s="71"/>
+      <c r="AB4" s="71"/>
     </row>
     <row r="5" spans="1:53" ht="60" customHeight="1">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="73" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="54"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="54"/>
-      <c r="L5" s="54"/>
-      <c r="M5" s="54"/>
-      <c r="N5" s="54"/>
-      <c r="O5" s="54"/>
-      <c r="P5" s="54"/>
-      <c r="Q5" s="54"/>
-      <c r="R5" s="54"/>
-      <c r="S5" s="54"/>
-      <c r="T5" s="54"/>
-      <c r="U5" s="54"/>
-      <c r="V5" s="54"/>
-      <c r="W5" s="54"/>
-      <c r="X5" s="54"/>
-      <c r="Y5" s="54"/>
-      <c r="Z5" s="54"/>
-      <c r="AA5" s="54"/>
-      <c r="AB5" s="54"/>
-      <c r="AC5" s="54"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="73"/>
+      <c r="J5" s="73"/>
+      <c r="K5" s="73"/>
+      <c r="L5" s="73"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="73"/>
+      <c r="P5" s="73"/>
+      <c r="Q5" s="73"/>
+      <c r="R5" s="73"/>
+      <c r="S5" s="73"/>
+      <c r="T5" s="73"/>
+      <c r="U5" s="73"/>
+      <c r="V5" s="73"/>
+      <c r="W5" s="73"/>
+      <c r="X5" s="73"/>
+      <c r="Y5" s="73"/>
+      <c r="Z5" s="73"/>
+      <c r="AA5" s="73"/>
+      <c r="AB5" s="73"/>
+      <c r="AC5" s="73"/>
     </row>
     <row r="6" spans="1:53" ht="60" customHeight="1">
-      <c r="A6" s="54" t="s">
+      <c r="A6" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="54"/>
-      <c r="I6" s="54"/>
-      <c r="J6" s="54"/>
-      <c r="K6" s="54"/>
-      <c r="L6" s="54"/>
-      <c r="M6" s="54"/>
-      <c r="N6" s="54"/>
-      <c r="O6" s="54"/>
-      <c r="P6" s="54"/>
-      <c r="Q6" s="54"/>
-      <c r="R6" s="54"/>
-      <c r="S6" s="54"/>
-      <c r="T6" s="54"/>
-      <c r="U6" s="54"/>
-      <c r="V6" s="54"/>
-      <c r="W6" s="54"/>
-      <c r="X6" s="54"/>
-      <c r="Y6" s="54"/>
-      <c r="Z6" s="54"/>
-      <c r="AA6" s="54"/>
-      <c r="AB6" s="54"/>
-      <c r="AC6" s="54"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="73"/>
+      <c r="H6" s="73"/>
+      <c r="I6" s="73"/>
+      <c r="J6" s="73"/>
+      <c r="K6" s="73"/>
+      <c r="L6" s="73"/>
+      <c r="M6" s="73"/>
+      <c r="N6" s="73"/>
+      <c r="O6" s="73"/>
+      <c r="P6" s="73"/>
+      <c r="Q6" s="73"/>
+      <c r="R6" s="73"/>
+      <c r="S6" s="73"/>
+      <c r="T6" s="73"/>
+      <c r="U6" s="73"/>
+      <c r="V6" s="73"/>
+      <c r="W6" s="73"/>
+      <c r="X6" s="73"/>
+      <c r="Y6" s="73"/>
+      <c r="Z6" s="73"/>
+      <c r="AA6" s="73"/>
+      <c r="AB6" s="73"/>
+      <c r="AC6" s="73"/>
     </row>
     <row r="7" spans="1:53" ht="60" customHeight="1">
-      <c r="A7" s="54" t="s">
+      <c r="A7" s="73" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
-      <c r="K7" s="54"/>
-      <c r="L7" s="54"/>
-      <c r="M7" s="54"/>
-      <c r="N7" s="54"/>
-      <c r="O7" s="54"/>
-      <c r="P7" s="54"/>
-      <c r="Q7" s="54"/>
-      <c r="R7" s="54"/>
-      <c r="S7" s="54"/>
-      <c r="T7" s="54"/>
-      <c r="U7" s="54"/>
-      <c r="V7" s="54"/>
-      <c r="W7" s="54"/>
-      <c r="X7" s="54"/>
-      <c r="Y7" s="54"/>
-      <c r="Z7" s="54"/>
-      <c r="AA7" s="54"/>
-      <c r="AB7" s="54"/>
-      <c r="AC7" s="54"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="73"/>
+      <c r="L7" s="73"/>
+      <c r="M7" s="73"/>
+      <c r="N7" s="73"/>
+      <c r="O7" s="73"/>
+      <c r="P7" s="73"/>
+      <c r="Q7" s="73"/>
+      <c r="R7" s="73"/>
+      <c r="S7" s="73"/>
+      <c r="T7" s="73"/>
+      <c r="U7" s="73"/>
+      <c r="V7" s="73"/>
+      <c r="W7" s="73"/>
+      <c r="X7" s="73"/>
+      <c r="Y7" s="73"/>
+      <c r="Z7" s="73"/>
+      <c r="AA7" s="73"/>
+      <c r="AB7" s="73"/>
+      <c r="AC7" s="73"/>
     </row>
     <row r="8" spans="1:53" ht="60" customHeight="1">
-      <c r="A8" s="54" t="s">
+      <c r="A8" s="73" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="54"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="54"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="54"/>
-      <c r="K8" s="54"/>
-      <c r="L8" s="54"/>
-      <c r="M8" s="54"/>
-      <c r="N8" s="54"/>
-      <c r="O8" s="54"/>
-      <c r="P8" s="54"/>
-      <c r="Q8" s="54"/>
-      <c r="R8" s="54"/>
-      <c r="S8" s="54"/>
-      <c r="T8" s="54"/>
-      <c r="U8" s="54"/>
-      <c r="V8" s="54"/>
-      <c r="W8" s="54"/>
-      <c r="X8" s="54"/>
-      <c r="Y8" s="54"/>
-      <c r="Z8" s="54"/>
-      <c r="AA8" s="54"/>
-      <c r="AB8" s="54"/>
-      <c r="AC8" s="54"/>
+      <c r="B8" s="73"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="73"/>
+      <c r="G8" s="73"/>
+      <c r="H8" s="73"/>
+      <c r="I8" s="73"/>
+      <c r="J8" s="73"/>
+      <c r="K8" s="73"/>
+      <c r="L8" s="73"/>
+      <c r="M8" s="73"/>
+      <c r="N8" s="73"/>
+      <c r="O8" s="73"/>
+      <c r="P8" s="73"/>
+      <c r="Q8" s="73"/>
+      <c r="R8" s="73"/>
+      <c r="S8" s="73"/>
+      <c r="T8" s="73"/>
+      <c r="U8" s="73"/>
+      <c r="V8" s="73"/>
+      <c r="W8" s="73"/>
+      <c r="X8" s="73"/>
+      <c r="Y8" s="73"/>
+      <c r="Z8" s="73"/>
+      <c r="AA8" s="73"/>
+      <c r="AB8" s="73"/>
+      <c r="AC8" s="73"/>
     </row>
     <row r="9" spans="1:53" ht="60" customHeight="1">
-      <c r="A9" s="54" t="s">
-        <v>58</v>
-      </c>
-      <c r="B9" s="54"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="54"/>
-      <c r="L9" s="54"/>
-      <c r="M9" s="54"/>
-      <c r="N9" s="54"/>
-      <c r="O9" s="54"/>
-      <c r="P9" s="54"/>
-      <c r="Q9" s="54"/>
-      <c r="R9" s="54"/>
-      <c r="S9" s="54"/>
-      <c r="T9" s="54"/>
-      <c r="U9" s="54"/>
-      <c r="V9" s="54"/>
-      <c r="W9" s="54"/>
-      <c r="X9" s="54"/>
-      <c r="Y9" s="54"/>
-      <c r="Z9" s="54"/>
-      <c r="AA9" s="54"/>
-      <c r="AB9" s="54"/>
-      <c r="AC9" s="54"/>
+      <c r="A9" s="73" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="73"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="73"/>
+      <c r="G9" s="73"/>
+      <c r="H9" s="73"/>
+      <c r="I9" s="73"/>
+      <c r="J9" s="73"/>
+      <c r="K9" s="73"/>
+      <c r="L9" s="73"/>
+      <c r="M9" s="73"/>
+      <c r="N9" s="73"/>
+      <c r="O9" s="73"/>
+      <c r="P9" s="73"/>
+      <c r="Q9" s="73"/>
+      <c r="R9" s="73"/>
+      <c r="S9" s="73"/>
+      <c r="T9" s="73"/>
+      <c r="U9" s="73"/>
+      <c r="V9" s="73"/>
+      <c r="W9" s="73"/>
+      <c r="X9" s="73"/>
+      <c r="Y9" s="73"/>
+      <c r="Z9" s="73"/>
+      <c r="AA9" s="73"/>
+      <c r="AB9" s="73"/>
+      <c r="AC9" s="73"/>
     </row>
     <row r="10" spans="1:53" ht="60" customHeight="1">
-      <c r="A10" s="54" t="s">
+      <c r="A10" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="54"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="54"/>
-      <c r="J10" s="54"/>
-      <c r="K10" s="54"/>
-      <c r="L10" s="54"/>
-      <c r="M10" s="54"/>
-      <c r="N10" s="54"/>
-      <c r="O10" s="54"/>
-      <c r="P10" s="54"/>
-      <c r="Q10" s="54"/>
-      <c r="R10" s="54"/>
-      <c r="S10" s="54"/>
-      <c r="T10" s="54"/>
-      <c r="U10" s="54"/>
-      <c r="V10" s="54"/>
-      <c r="W10" s="54"/>
-      <c r="X10" s="54"/>
-      <c r="Y10" s="54"/>
-      <c r="Z10" s="54"/>
-      <c r="AA10" s="54"/>
-      <c r="AB10" s="54"/>
-      <c r="AC10" s="54"/>
+      <c r="B10" s="73"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="73"/>
+      <c r="L10" s="73"/>
+      <c r="M10" s="73"/>
+      <c r="N10" s="73"/>
+      <c r="O10" s="73"/>
+      <c r="P10" s="73"/>
+      <c r="Q10" s="73"/>
+      <c r="R10" s="73"/>
+      <c r="S10" s="73"/>
+      <c r="T10" s="73"/>
+      <c r="U10" s="73"/>
+      <c r="V10" s="73"/>
+      <c r="W10" s="73"/>
+      <c r="X10" s="73"/>
+      <c r="Y10" s="73"/>
+      <c r="Z10" s="73"/>
+      <c r="AA10" s="73"/>
+      <c r="AB10" s="73"/>
+      <c r="AC10" s="73"/>
     </row>
     <row r="11" spans="1:53" ht="60" customHeight="1" thickBot="1">
-      <c r="A11" s="53" t="s">
-        <v>53</v>
-      </c>
-      <c r="B11" s="53"/>
-      <c r="C11" s="53"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="53"/>
-      <c r="O11" s="53"/>
-      <c r="P11" s="53"/>
-      <c r="Q11" s="53"/>
-      <c r="R11" s="53"/>
-      <c r="S11" s="53"/>
-      <c r="T11" s="53"/>
-      <c r="U11" s="53"/>
-      <c r="V11" s="53"/>
-      <c r="W11" s="53"/>
-      <c r="X11" s="53"/>
-      <c r="Y11" s="53"/>
-      <c r="Z11" s="53"/>
-      <c r="AA11" s="53"/>
-      <c r="AB11" s="53"/>
-      <c r="AC11" s="53"/>
+      <c r="A11" s="72" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" s="72"/>
+      <c r="C11" s="72"/>
+      <c r="D11" s="72"/>
+      <c r="E11" s="72"/>
+      <c r="F11" s="72"/>
+      <c r="G11" s="72"/>
+      <c r="H11" s="72"/>
+      <c r="I11" s="72"/>
+      <c r="J11" s="72"/>
+      <c r="K11" s="72"/>
+      <c r="L11" s="72"/>
+      <c r="M11" s="72"/>
+      <c r="N11" s="72"/>
+      <c r="O11" s="72"/>
+      <c r="P11" s="72"/>
+      <c r="Q11" s="72"/>
+      <c r="R11" s="72"/>
+      <c r="S11" s="72"/>
+      <c r="T11" s="72"/>
+      <c r="U11" s="72"/>
+      <c r="V11" s="72"/>
+      <c r="W11" s="72"/>
+      <c r="X11" s="72"/>
+      <c r="Y11" s="72"/>
+      <c r="Z11" s="72"/>
+      <c r="AA11" s="72"/>
+      <c r="AB11" s="72"/>
+      <c r="AC11" s="72"/>
     </row>
     <row r="12" spans="1:53" s="3" customFormat="1" ht="21" customHeight="1" thickBot="1">
       <c r="A12" s="11"/>
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="26" t="s">
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="26" t="s">
+      <c r="G12" s="48"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="K12" s="27"/>
-      <c r="L12" s="27"/>
-      <c r="M12" s="30"/>
-      <c r="N12" s="26" t="s">
+      <c r="K12" s="48"/>
+      <c r="L12" s="48"/>
+      <c r="M12" s="51"/>
+      <c r="N12" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="O12" s="27"/>
-      <c r="P12" s="27"/>
-      <c r="Q12" s="30"/>
-      <c r="R12" s="26" t="s">
+      <c r="O12" s="48"/>
+      <c r="P12" s="48"/>
+      <c r="Q12" s="51"/>
+      <c r="R12" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="S12" s="27"/>
-      <c r="T12" s="27"/>
-      <c r="U12" s="30"/>
-      <c r="V12" s="26" t="s">
+      <c r="S12" s="48"/>
+      <c r="T12" s="48"/>
+      <c r="U12" s="51"/>
+      <c r="V12" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="W12" s="27"/>
-      <c r="X12" s="27"/>
-      <c r="Y12" s="30"/>
-      <c r="Z12" s="26" t="s">
+      <c r="W12" s="48"/>
+      <c r="X12" s="48"/>
+      <c r="Y12" s="51"/>
+      <c r="Z12" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="AA12" s="27"/>
-      <c r="AB12" s="27"/>
-      <c r="AC12" s="30"/>
-      <c r="AD12" s="26" t="s">
+      <c r="AA12" s="48"/>
+      <c r="AB12" s="48"/>
+      <c r="AC12" s="51"/>
+      <c r="AD12" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="AE12" s="27"/>
-      <c r="AF12" s="27"/>
-      <c r="AG12" s="30"/>
-      <c r="AH12" s="26" t="s">
+      <c r="AE12" s="48"/>
+      <c r="AF12" s="48"/>
+      <c r="AG12" s="51"/>
+      <c r="AH12" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="AI12" s="27"/>
-      <c r="AJ12" s="27"/>
-      <c r="AK12" s="30"/>
-      <c r="AL12" s="26" t="s">
+      <c r="AI12" s="48"/>
+      <c r="AJ12" s="48"/>
+      <c r="AK12" s="51"/>
+      <c r="AL12" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="AM12" s="27"/>
-      <c r="AN12" s="27"/>
-      <c r="AO12" s="30"/>
-      <c r="AP12" s="26" t="s">
+      <c r="AM12" s="48"/>
+      <c r="AN12" s="48"/>
+      <c r="AO12" s="51"/>
+      <c r="AP12" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="AQ12" s="27"/>
-      <c r="AR12" s="27"/>
-      <c r="AS12" s="30"/>
-      <c r="AT12" s="26" t="s">
+      <c r="AQ12" s="48"/>
+      <c r="AR12" s="48"/>
+      <c r="AS12" s="51"/>
+      <c r="AT12" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="AU12" s="27"/>
-      <c r="AV12" s="28"/>
-      <c r="AW12" s="29"/>
-      <c r="AX12" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="AY12" s="27"/>
-      <c r="AZ12" s="28"/>
-      <c r="BA12" s="29"/>
+      <c r="AU12" s="48"/>
+      <c r="AV12" s="49"/>
+      <c r="AW12" s="50"/>
+      <c r="AX12" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY12" s="48"/>
+      <c r="AZ12" s="49"/>
+      <c r="BA12" s="50"/>
     </row>
     <row r="13" spans="1:53" s="3" customFormat="1" ht="62" thickBot="1">
       <c r="A13" s="12" t="s">
@@ -6100,12 +6299,12 @@
       <c r="A40" s="4">
         <v>0.35</v>
       </c>
-      <c r="B40" s="55" t="s">
+      <c r="B40" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="C40" s="56"/>
-      <c r="D40" s="56"/>
-      <c r="E40" s="57"/>
+      <c r="C40" s="75"/>
+      <c r="D40" s="75"/>
+      <c r="E40" s="76"/>
       <c r="F40" s="8">
         <v>43</v>
       </c>
@@ -6118,12 +6317,12 @@
       <c r="I40" s="7">
         <v>2.16</v>
       </c>
-      <c r="J40" s="55" t="s">
+      <c r="J40" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="K40" s="56"/>
-      <c r="L40" s="56"/>
-      <c r="M40" s="57"/>
+      <c r="K40" s="75"/>
+      <c r="L40" s="75"/>
+      <c r="M40" s="76"/>
       <c r="N40" s="8">
         <v>43</v>
       </c>
@@ -6249,10 +6448,10 @@
       <c r="A41" s="4">
         <v>0.3</v>
       </c>
-      <c r="B41" s="58"/>
-      <c r="C41" s="59"/>
-      <c r="D41" s="59"/>
-      <c r="E41" s="60"/>
+      <c r="B41" s="77"/>
+      <c r="C41" s="78"/>
+      <c r="D41" s="78"/>
+      <c r="E41" s="79"/>
       <c r="F41" s="8">
         <v>9</v>
       </c>
@@ -6265,10 +6464,10 @@
       <c r="I41" s="7">
         <v>2.3921688892767601</v>
       </c>
-      <c r="J41" s="58"/>
-      <c r="K41" s="59"/>
-      <c r="L41" s="59"/>
-      <c r="M41" s="60"/>
+      <c r="J41" s="77"/>
+      <c r="K41" s="78"/>
+      <c r="L41" s="78"/>
+      <c r="M41" s="79"/>
       <c r="N41" s="8">
         <v>9</v>
       </c>
@@ -6394,10 +6593,10 @@
       <c r="A42" s="4">
         <v>0.25</v>
       </c>
-      <c r="B42" s="61"/>
-      <c r="C42" s="62"/>
-      <c r="D42" s="62"/>
-      <c r="E42" s="63"/>
+      <c r="B42" s="80"/>
+      <c r="C42" s="81"/>
+      <c r="D42" s="81"/>
+      <c r="E42" s="82"/>
       <c r="F42" s="8">
         <v>1</v>
       </c>
@@ -6410,10 +6609,10 @@
       <c r="I42" s="7">
         <v>2.5663065348413099</v>
       </c>
-      <c r="J42" s="61"/>
-      <c r="K42" s="62"/>
-      <c r="L42" s="62"/>
-      <c r="M42" s="63"/>
+      <c r="J42" s="80"/>
+      <c r="K42" s="81"/>
+      <c r="L42" s="81"/>
+      <c r="M42" s="82"/>
       <c r="N42" s="8">
         <v>1</v>
       </c>
@@ -6526,10 +6725,10 @@
         <v>1</v>
       </c>
       <c r="AY42" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AZ42" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="BA42" s="7">
         <v>2.5489955660485801</v>
@@ -6599,118 +6798,118 @@
     </row>
     <row r="45" spans="1:53" ht="34.5" customHeight="1">
       <c r="A45" s="4"/>
-      <c r="B45" s="52" t="s">
-        <v>55</v>
-      </c>
-      <c r="C45" s="52"/>
-      <c r="D45" s="52"/>
-      <c r="E45" s="52"/>
-      <c r="F45" s="52"/>
-      <c r="G45" s="52"/>
-      <c r="H45" s="52"/>
-      <c r="I45" s="52"/>
-      <c r="J45" s="52"/>
-      <c r="K45" s="52"/>
-      <c r="L45" s="52"/>
-      <c r="M45" s="52"/>
-      <c r="N45" s="52"/>
-      <c r="O45" s="52"/>
-      <c r="P45" s="52"/>
-      <c r="Q45" s="52"/>
-      <c r="R45" s="52"/>
-      <c r="S45" s="52"/>
-      <c r="T45" s="52"/>
-      <c r="U45" s="52"/>
-      <c r="V45" s="52"/>
-      <c r="W45" s="52"/>
-      <c r="X45" s="52"/>
-      <c r="Y45" s="52"/>
-      <c r="Z45" s="52"/>
-      <c r="AA45" s="52"/>
-      <c r="AB45" s="52"/>
+      <c r="B45" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="C45" s="46"/>
+      <c r="D45" s="46"/>
+      <c r="E45" s="46"/>
+      <c r="F45" s="46"/>
+      <c r="G45" s="46"/>
+      <c r="H45" s="46"/>
+      <c r="I45" s="46"/>
+      <c r="J45" s="46"/>
+      <c r="K45" s="46"/>
+      <c r="L45" s="46"/>
+      <c r="M45" s="46"/>
+      <c r="N45" s="46"/>
+      <c r="O45" s="46"/>
+      <c r="P45" s="46"/>
+      <c r="Q45" s="46"/>
+      <c r="R45" s="46"/>
+      <c r="S45" s="46"/>
+      <c r="T45" s="46"/>
+      <c r="U45" s="46"/>
+      <c r="V45" s="46"/>
+      <c r="W45" s="46"/>
+      <c r="X45" s="46"/>
+      <c r="Y45" s="46"/>
+      <c r="Z45" s="46"/>
+      <c r="AA45" s="46"/>
+      <c r="AB45" s="46"/>
       <c r="AC45" s="7"/>
     </row>
     <row r="46" spans="1:53" ht="15" thickBot="1"/>
     <row r="47" spans="1:53" s="3" customFormat="1" ht="21.5" thickBot="1">
       <c r="A47" s="11"/>
-      <c r="B47" s="26" t="s">
+      <c r="B47" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="C47" s="27"/>
-      <c r="D47" s="27"/>
-      <c r="E47" s="30"/>
-      <c r="F47" s="26" t="s">
+      <c r="C47" s="48"/>
+      <c r="D47" s="48"/>
+      <c r="E47" s="51"/>
+      <c r="F47" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="G47" s="27"/>
-      <c r="H47" s="27"/>
-      <c r="I47" s="30"/>
-      <c r="J47" s="26" t="s">
+      <c r="G47" s="48"/>
+      <c r="H47" s="48"/>
+      <c r="I47" s="51"/>
+      <c r="J47" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="K47" s="27"/>
-      <c r="L47" s="27"/>
-      <c r="M47" s="30"/>
-      <c r="N47" s="26" t="s">
+      <c r="K47" s="48"/>
+      <c r="L47" s="48"/>
+      <c r="M47" s="51"/>
+      <c r="N47" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="O47" s="27"/>
-      <c r="P47" s="27"/>
-      <c r="Q47" s="30"/>
-      <c r="R47" s="26" t="s">
+      <c r="O47" s="48"/>
+      <c r="P47" s="48"/>
+      <c r="Q47" s="51"/>
+      <c r="R47" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="S47" s="27"/>
-      <c r="T47" s="27"/>
-      <c r="U47" s="30"/>
-      <c r="V47" s="26" t="s">
+      <c r="S47" s="48"/>
+      <c r="T47" s="48"/>
+      <c r="U47" s="51"/>
+      <c r="V47" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="W47" s="27"/>
-      <c r="X47" s="27"/>
-      <c r="Y47" s="30"/>
-      <c r="Z47" s="26" t="s">
+      <c r="W47" s="48"/>
+      <c r="X47" s="48"/>
+      <c r="Y47" s="51"/>
+      <c r="Z47" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="AA47" s="27"/>
-      <c r="AB47" s="27"/>
-      <c r="AC47" s="30"/>
-      <c r="AD47" s="26" t="s">
+      <c r="AA47" s="48"/>
+      <c r="AB47" s="48"/>
+      <c r="AC47" s="51"/>
+      <c r="AD47" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="AE47" s="27"/>
-      <c r="AF47" s="27"/>
-      <c r="AG47" s="30"/>
-      <c r="AH47" s="26" t="s">
+      <c r="AE47" s="48"/>
+      <c r="AF47" s="48"/>
+      <c r="AG47" s="51"/>
+      <c r="AH47" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="AI47" s="27"/>
-      <c r="AJ47" s="27"/>
-      <c r="AK47" s="30"/>
-      <c r="AL47" s="26" t="s">
+      <c r="AI47" s="48"/>
+      <c r="AJ47" s="48"/>
+      <c r="AK47" s="51"/>
+      <c r="AL47" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="AM47" s="27"/>
-      <c r="AN47" s="27"/>
-      <c r="AO47" s="30"/>
-      <c r="AP47" s="26" t="s">
+      <c r="AM47" s="48"/>
+      <c r="AN47" s="48"/>
+      <c r="AO47" s="51"/>
+      <c r="AP47" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="AQ47" s="27"/>
-      <c r="AR47" s="27"/>
-      <c r="AS47" s="30"/>
-      <c r="AT47" s="26" t="s">
+      <c r="AQ47" s="48"/>
+      <c r="AR47" s="48"/>
+      <c r="AS47" s="51"/>
+      <c r="AT47" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="AU47" s="27"/>
-      <c r="AV47" s="28"/>
-      <c r="AW47" s="29"/>
-      <c r="AX47" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="AY47" s="27"/>
-      <c r="AZ47" s="28"/>
-      <c r="BA47" s="29"/>
+      <c r="AU47" s="48"/>
+      <c r="AV47" s="49"/>
+      <c r="AW47" s="50"/>
+      <c r="AX47" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY47" s="48"/>
+      <c r="AZ47" s="49"/>
+      <c r="BA47" s="50"/>
     </row>
     <row r="48" spans="1:53" s="3" customFormat="1" ht="62" thickBot="1">
       <c r="A48" s="12" t="s">
@@ -11385,12 +11584,12 @@
       <c r="A77" s="4">
         <v>0.25</v>
       </c>
-      <c r="B77" s="45" t="s">
+      <c r="B77" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="C77" s="46"/>
-      <c r="D77" s="46"/>
-      <c r="E77" s="47"/>
+      <c r="C77" s="66"/>
+      <c r="D77" s="66"/>
+      <c r="E77" s="67"/>
       <c r="F77" s="8">
         <v>56</v>
       </c>
@@ -11403,12 +11602,12 @@
       <c r="I77" s="7">
         <v>2.1880000000000002</v>
       </c>
-      <c r="J77" s="45" t="s">
+      <c r="J77" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="K77" s="46"/>
-      <c r="L77" s="46"/>
-      <c r="M77" s="47"/>
+      <c r="K77" s="66"/>
+      <c r="L77" s="66"/>
+      <c r="M77" s="67"/>
       <c r="N77" s="8">
         <v>56</v>
       </c>
@@ -11534,10 +11733,10 @@
       <c r="A78" s="4">
         <v>0.2</v>
       </c>
-      <c r="B78" s="48"/>
-      <c r="C78" s="49"/>
-      <c r="D78" s="49"/>
-      <c r="E78" s="50"/>
+      <c r="B78" s="68"/>
+      <c r="C78" s="69"/>
+      <c r="D78" s="69"/>
+      <c r="E78" s="70"/>
       <c r="F78" s="8">
         <v>14</v>
       </c>
@@ -11550,10 +11749,10 @@
       <c r="I78" s="7">
         <v>2.3969999999999998</v>
       </c>
-      <c r="J78" s="48"/>
-      <c r="K78" s="49"/>
-      <c r="L78" s="49"/>
-      <c r="M78" s="50"/>
+      <c r="J78" s="68"/>
+      <c r="K78" s="69"/>
+      <c r="L78" s="69"/>
+      <c r="M78" s="70"/>
       <c r="N78" s="8">
         <v>14</v>
       </c>
@@ -11742,28 +11941,28 @@
       <c r="B81" s="8"/>
       <c r="C81" s="7"/>
       <c r="D81" s="7"/>
-      <c r="E81" s="43" t="s">
-        <v>56</v>
-      </c>
-      <c r="F81" s="44"/>
-      <c r="G81" s="44"/>
-      <c r="H81" s="44"/>
-      <c r="I81" s="44"/>
-      <c r="J81" s="44"/>
-      <c r="K81" s="44"/>
-      <c r="L81" s="44"/>
-      <c r="M81" s="44"/>
-      <c r="N81" s="44"/>
-      <c r="O81" s="44"/>
-      <c r="P81" s="44"/>
-      <c r="Q81" s="44"/>
-      <c r="R81" s="44"/>
-      <c r="S81" s="44"/>
-      <c r="T81" s="44"/>
-      <c r="U81" s="44"/>
-      <c r="V81" s="44"/>
-      <c r="W81" s="44"/>
-      <c r="X81" s="44"/>
+      <c r="E81" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="F81" s="64"/>
+      <c r="G81" s="64"/>
+      <c r="H81" s="64"/>
+      <c r="I81" s="64"/>
+      <c r="J81" s="64"/>
+      <c r="K81" s="64"/>
+      <c r="L81" s="64"/>
+      <c r="M81" s="64"/>
+      <c r="N81" s="64"/>
+      <c r="O81" s="64"/>
+      <c r="P81" s="64"/>
+      <c r="Q81" s="64"/>
+      <c r="R81" s="64"/>
+      <c r="S81" s="64"/>
+      <c r="T81" s="64"/>
+      <c r="U81" s="64"/>
+      <c r="V81" s="64"/>
+      <c r="W81" s="64"/>
+      <c r="X81" s="64"/>
       <c r="Y81" s="7"/>
       <c r="Z81" s="8"/>
       <c r="AA81" s="7"/>
@@ -11772,78 +11971,78 @@
     </row>
     <row r="82" spans="1:49" s="3" customFormat="1" ht="21.5" thickBot="1">
       <c r="A82" s="11"/>
-      <c r="B82" s="26" t="s">
+      <c r="B82" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="C82" s="27"/>
-      <c r="D82" s="27"/>
-      <c r="E82" s="30"/>
-      <c r="F82" s="26" t="s">
+      <c r="C82" s="48"/>
+      <c r="D82" s="48"/>
+      <c r="E82" s="51"/>
+      <c r="F82" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="G82" s="27"/>
-      <c r="H82" s="27"/>
-      <c r="I82" s="30"/>
-      <c r="J82" s="26" t="s">
+      <c r="G82" s="48"/>
+      <c r="H82" s="48"/>
+      <c r="I82" s="51"/>
+      <c r="J82" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="K82" s="27"/>
-      <c r="L82" s="27"/>
-      <c r="M82" s="30"/>
-      <c r="N82" s="26" t="s">
+      <c r="K82" s="48"/>
+      <c r="L82" s="48"/>
+      <c r="M82" s="51"/>
+      <c r="N82" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="O82" s="27"/>
-      <c r="P82" s="27"/>
-      <c r="Q82" s="30"/>
-      <c r="R82" s="26" t="s">
+      <c r="O82" s="48"/>
+      <c r="P82" s="48"/>
+      <c r="Q82" s="51"/>
+      <c r="R82" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="S82" s="27"/>
-      <c r="T82" s="27"/>
-      <c r="U82" s="30"/>
-      <c r="V82" s="26" t="s">
+      <c r="S82" s="48"/>
+      <c r="T82" s="48"/>
+      <c r="U82" s="51"/>
+      <c r="V82" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="W82" s="27"/>
-      <c r="X82" s="27"/>
-      <c r="Y82" s="30"/>
-      <c r="Z82" s="26" t="s">
+      <c r="W82" s="48"/>
+      <c r="X82" s="48"/>
+      <c r="Y82" s="51"/>
+      <c r="Z82" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="AA82" s="27"/>
-      <c r="AB82" s="27"/>
-      <c r="AC82" s="30"/>
-      <c r="AD82" s="26" t="s">
+      <c r="AA82" s="48"/>
+      <c r="AB82" s="48"/>
+      <c r="AC82" s="51"/>
+      <c r="AD82" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="AE82" s="27"/>
-      <c r="AF82" s="27"/>
-      <c r="AG82" s="30"/>
-      <c r="AH82" s="26" t="s">
+      <c r="AE82" s="48"/>
+      <c r="AF82" s="48"/>
+      <c r="AG82" s="51"/>
+      <c r="AH82" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="AI82" s="27"/>
-      <c r="AJ82" s="27"/>
-      <c r="AK82" s="30"/>
-      <c r="AL82" s="26" t="s">
+      <c r="AI82" s="48"/>
+      <c r="AJ82" s="48"/>
+      <c r="AK82" s="51"/>
+      <c r="AL82" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="AM82" s="27"/>
-      <c r="AN82" s="27"/>
-      <c r="AO82" s="30"/>
-      <c r="AP82" s="26" t="s">
+      <c r="AM82" s="48"/>
+      <c r="AN82" s="48"/>
+      <c r="AO82" s="51"/>
+      <c r="AP82" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="AQ82" s="27"/>
-      <c r="AR82" s="27"/>
-      <c r="AS82" s="30"/>
-      <c r="AT82" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="AU82" s="27"/>
-      <c r="AV82" s="28"/>
-      <c r="AW82" s="29"/>
+      <c r="AQ82" s="48"/>
+      <c r="AR82" s="48"/>
+      <c r="AS82" s="51"/>
+      <c r="AT82" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU82" s="48"/>
+      <c r="AV82" s="49"/>
+      <c r="AW82" s="50"/>
     </row>
     <row r="83" spans="1:49" s="3" customFormat="1" ht="62" thickBot="1">
       <c r="A83" s="12" t="s">
@@ -11998,12 +12197,12 @@
       <c r="A84" s="13">
         <v>0</v>
       </c>
-      <c r="B84" s="31" t="s">
+      <c r="B84" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="C84" s="32"/>
-      <c r="D84" s="32"/>
-      <c r="E84" s="33"/>
+      <c r="C84" s="53"/>
+      <c r="D84" s="53"/>
+      <c r="E84" s="54"/>
       <c r="F84" s="6">
         <v>1105</v>
       </c>
@@ -12016,12 +12215,12 @@
       <c r="I84" s="16">
         <v>1.5727020592546499</v>
       </c>
-      <c r="J84" s="31" t="s">
+      <c r="J84" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="K84" s="32"/>
-      <c r="L84" s="32"/>
-      <c r="M84" s="33"/>
+      <c r="K84" s="53"/>
+      <c r="L84" s="53"/>
+      <c r="M84" s="54"/>
       <c r="N84" s="6">
         <v>1105</v>
       </c>
@@ -12135,10 +12334,10 @@
       <c r="A85" s="13">
         <v>0.05</v>
       </c>
-      <c r="B85" s="34"/>
-      <c r="C85" s="35"/>
-      <c r="D85" s="35"/>
-      <c r="E85" s="36"/>
+      <c r="B85" s="55"/>
+      <c r="C85" s="56"/>
+      <c r="D85" s="56"/>
+      <c r="E85" s="57"/>
       <c r="F85" s="6">
         <v>1105</v>
       </c>
@@ -12151,10 +12350,10 @@
       <c r="I85" s="16">
         <v>1.57213486456604</v>
       </c>
-      <c r="J85" s="34"/>
-      <c r="K85" s="35"/>
-      <c r="L85" s="35"/>
-      <c r="M85" s="36"/>
+      <c r="J85" s="55"/>
+      <c r="K85" s="56"/>
+      <c r="L85" s="56"/>
+      <c r="M85" s="57"/>
       <c r="N85" s="6">
         <v>1105</v>
       </c>
@@ -12228,10 +12427,10 @@
       <c r="A86" s="13">
         <v>0.1</v>
       </c>
-      <c r="B86" s="34"/>
-      <c r="C86" s="35"/>
-      <c r="D86" s="35"/>
-      <c r="E86" s="36"/>
+      <c r="B86" s="55"/>
+      <c r="C86" s="56"/>
+      <c r="D86" s="56"/>
+      <c r="E86" s="57"/>
       <c r="F86" s="6">
         <v>1105</v>
       </c>
@@ -12244,10 +12443,10 @@
       <c r="I86" s="16">
         <v>1.5709638899046401</v>
       </c>
-      <c r="J86" s="34"/>
-      <c r="K86" s="35"/>
-      <c r="L86" s="35"/>
-      <c r="M86" s="36"/>
+      <c r="J86" s="55"/>
+      <c r="K86" s="56"/>
+      <c r="L86" s="56"/>
+      <c r="M86" s="57"/>
       <c r="N86" s="6">
         <v>1105</v>
       </c>
@@ -12321,10 +12520,10 @@
       <c r="A87" s="13">
         <v>0.15</v>
       </c>
-      <c r="B87" s="34"/>
-      <c r="C87" s="35"/>
-      <c r="D87" s="35"/>
-      <c r="E87" s="36"/>
+      <c r="B87" s="55"/>
+      <c r="C87" s="56"/>
+      <c r="D87" s="56"/>
+      <c r="E87" s="57"/>
       <c r="F87" s="6">
         <v>1105</v>
       </c>
@@ -12337,10 +12536,10 @@
       <c r="I87" s="16">
         <v>1.5741375898580501</v>
       </c>
-      <c r="J87" s="34"/>
-      <c r="K87" s="35"/>
-      <c r="L87" s="35"/>
-      <c r="M87" s="36"/>
+      <c r="J87" s="55"/>
+      <c r="K87" s="56"/>
+      <c r="L87" s="56"/>
+      <c r="M87" s="57"/>
       <c r="N87" s="6">
         <v>1105</v>
       </c>
@@ -12414,10 +12613,10 @@
       <c r="A88" s="13">
         <v>0.2</v>
       </c>
-      <c r="B88" s="34"/>
-      <c r="C88" s="35"/>
-      <c r="D88" s="35"/>
-      <c r="E88" s="36"/>
+      <c r="B88" s="55"/>
+      <c r="C88" s="56"/>
+      <c r="D88" s="56"/>
+      <c r="E88" s="57"/>
       <c r="F88" s="6">
         <v>1105</v>
       </c>
@@ -12430,10 +12629,10 @@
       <c r="I88" s="16">
         <v>1.57130544627976</v>
       </c>
-      <c r="J88" s="34"/>
-      <c r="K88" s="35"/>
-      <c r="L88" s="35"/>
-      <c r="M88" s="36"/>
+      <c r="J88" s="55"/>
+      <c r="K88" s="56"/>
+      <c r="L88" s="56"/>
+      <c r="M88" s="57"/>
       <c r="N88" s="6">
         <v>1105</v>
       </c>
@@ -12507,10 +12706,10 @@
       <c r="A89" s="13">
         <v>0.25</v>
       </c>
-      <c r="B89" s="34"/>
-      <c r="C89" s="35"/>
-      <c r="D89" s="35"/>
-      <c r="E89" s="36"/>
+      <c r="B89" s="55"/>
+      <c r="C89" s="56"/>
+      <c r="D89" s="56"/>
+      <c r="E89" s="57"/>
       <c r="F89" s="6">
         <v>1104</v>
       </c>
@@ -12523,10 +12722,10 @@
       <c r="I89" s="16">
         <v>1.5743041772847399</v>
       </c>
-      <c r="J89" s="34"/>
-      <c r="K89" s="35"/>
-      <c r="L89" s="35"/>
-      <c r="M89" s="36"/>
+      <c r="J89" s="55"/>
+      <c r="K89" s="56"/>
+      <c r="L89" s="56"/>
+      <c r="M89" s="57"/>
       <c r="N89" s="6">
         <v>1104</v>
       </c>
@@ -12600,10 +12799,10 @@
       <c r="A90" s="4">
         <v>0.3</v>
       </c>
-      <c r="B90" s="34"/>
-      <c r="C90" s="35"/>
-      <c r="D90" s="35"/>
-      <c r="E90" s="36"/>
+      <c r="B90" s="55"/>
+      <c r="C90" s="56"/>
+      <c r="D90" s="56"/>
+      <c r="E90" s="57"/>
       <c r="F90" s="8">
         <v>1096</v>
       </c>
@@ -12616,10 +12815,10 @@
       <c r="I90" s="7">
         <v>1.5680000000000001</v>
       </c>
-      <c r="J90" s="34"/>
-      <c r="K90" s="35"/>
-      <c r="L90" s="35"/>
-      <c r="M90" s="36"/>
+      <c r="J90" s="55"/>
+      <c r="K90" s="56"/>
+      <c r="L90" s="56"/>
+      <c r="M90" s="57"/>
       <c r="N90" s="8">
         <v>1096</v>
       </c>
@@ -12733,10 +12932,10 @@
       <c r="A91" s="4">
         <v>0.35</v>
       </c>
-      <c r="B91" s="40"/>
-      <c r="C91" s="41"/>
-      <c r="D91" s="41"/>
-      <c r="E91" s="42"/>
+      <c r="B91" s="61"/>
+      <c r="C91" s="62"/>
+      <c r="D91" s="62"/>
+      <c r="E91" s="63"/>
       <c r="F91" s="8">
         <v>1062</v>
       </c>
@@ -12749,10 +12948,10 @@
       <c r="I91" s="7">
         <v>1.5649999999999999</v>
       </c>
-      <c r="J91" s="34"/>
-      <c r="K91" s="35"/>
-      <c r="L91" s="35"/>
-      <c r="M91" s="36"/>
+      <c r="J91" s="55"/>
+      <c r="K91" s="56"/>
+      <c r="L91" s="56"/>
+      <c r="M91" s="57"/>
       <c r="N91" s="8">
         <v>1062</v>
       </c>
@@ -12890,10 +13089,10 @@
       <c r="I92" s="7">
         <v>1.5640000000000001</v>
       </c>
-      <c r="J92" s="34"/>
-      <c r="K92" s="35"/>
-      <c r="L92" s="35"/>
-      <c r="M92" s="36"/>
+      <c r="J92" s="55"/>
+      <c r="K92" s="56"/>
+      <c r="L92" s="56"/>
+      <c r="M92" s="57"/>
       <c r="N92" s="8">
         <v>989</v>
       </c>
@@ -13031,10 +13230,10 @@
       <c r="I93" s="7">
         <v>1.591</v>
       </c>
-      <c r="J93" s="34"/>
-      <c r="K93" s="35"/>
-      <c r="L93" s="35"/>
-      <c r="M93" s="36"/>
+      <c r="J93" s="55"/>
+      <c r="K93" s="56"/>
+      <c r="L93" s="56"/>
+      <c r="M93" s="57"/>
       <c r="N93" s="8">
         <v>883</v>
       </c>
@@ -13172,10 +13371,10 @@
       <c r="I94" s="7">
         <v>1.591</v>
       </c>
-      <c r="J94" s="34"/>
-      <c r="K94" s="35"/>
-      <c r="L94" s="35"/>
-      <c r="M94" s="36"/>
+      <c r="J94" s="55"/>
+      <c r="K94" s="56"/>
+      <c r="L94" s="56"/>
+      <c r="M94" s="57"/>
       <c r="N94" s="8">
         <v>811</v>
       </c>
@@ -13313,10 +13512,10 @@
       <c r="I95" s="7">
         <v>1.6040000000000001</v>
       </c>
-      <c r="J95" s="34"/>
-      <c r="K95" s="35"/>
-      <c r="L95" s="35"/>
-      <c r="M95" s="36"/>
+      <c r="J95" s="55"/>
+      <c r="K95" s="56"/>
+      <c r="L95" s="56"/>
+      <c r="M95" s="57"/>
       <c r="N95" s="8">
         <v>775</v>
       </c>
@@ -13454,10 +13653,10 @@
       <c r="I96" s="7">
         <v>1.6040000000000001</v>
       </c>
-      <c r="J96" s="34"/>
-      <c r="K96" s="35"/>
-      <c r="L96" s="35"/>
-      <c r="M96" s="36"/>
+      <c r="J96" s="55"/>
+      <c r="K96" s="56"/>
+      <c r="L96" s="56"/>
+      <c r="M96" s="57"/>
       <c r="N96" s="8">
         <v>734</v>
       </c>
@@ -13595,10 +13794,10 @@
       <c r="I97" s="7">
         <v>1.605</v>
       </c>
-      <c r="J97" s="34"/>
-      <c r="K97" s="35"/>
-      <c r="L97" s="35"/>
-      <c r="M97" s="36"/>
+      <c r="J97" s="55"/>
+      <c r="K97" s="56"/>
+      <c r="L97" s="56"/>
+      <c r="M97" s="57"/>
       <c r="N97" s="8">
         <v>705</v>
       </c>
@@ -13736,10 +13935,10 @@
       <c r="I98" s="7">
         <v>1.6020000000000001</v>
       </c>
-      <c r="J98" s="34"/>
-      <c r="K98" s="35"/>
-      <c r="L98" s="35"/>
-      <c r="M98" s="36"/>
+      <c r="J98" s="55"/>
+      <c r="K98" s="56"/>
+      <c r="L98" s="56"/>
+      <c r="M98" s="57"/>
       <c r="N98" s="8">
         <v>689</v>
       </c>
@@ -13877,10 +14076,10 @@
       <c r="I99" s="7">
         <v>1.6180000000000001</v>
       </c>
-      <c r="J99" s="34"/>
-      <c r="K99" s="35"/>
-      <c r="L99" s="35"/>
-      <c r="M99" s="36"/>
+      <c r="J99" s="55"/>
+      <c r="K99" s="56"/>
+      <c r="L99" s="56"/>
+      <c r="M99" s="57"/>
       <c r="N99" s="8">
         <v>662</v>
       </c>
@@ -14018,10 +14217,10 @@
       <c r="I100" s="7">
         <v>1.5860000000000001</v>
       </c>
-      <c r="J100" s="34"/>
-      <c r="K100" s="35"/>
-      <c r="L100" s="35"/>
-      <c r="M100" s="36"/>
+      <c r="J100" s="55"/>
+      <c r="K100" s="56"/>
+      <c r="L100" s="56"/>
+      <c r="M100" s="57"/>
       <c r="N100" s="8">
         <v>643</v>
       </c>
@@ -14159,10 +14358,10 @@
       <c r="I101" s="7">
         <v>1.5740000000000001</v>
       </c>
-      <c r="J101" s="34"/>
-      <c r="K101" s="35"/>
-      <c r="L101" s="35"/>
-      <c r="M101" s="36"/>
+      <c r="J101" s="55"/>
+      <c r="K101" s="56"/>
+      <c r="L101" s="56"/>
+      <c r="M101" s="57"/>
       <c r="N101" s="8">
         <v>629</v>
       </c>
@@ -14300,10 +14499,10 @@
       <c r="I102" s="7">
         <v>1.5529999999999999</v>
       </c>
-      <c r="J102" s="34"/>
-      <c r="K102" s="35"/>
-      <c r="L102" s="35"/>
-      <c r="M102" s="36"/>
+      <c r="J102" s="55"/>
+      <c r="K102" s="56"/>
+      <c r="L102" s="56"/>
+      <c r="M102" s="57"/>
       <c r="N102" s="8">
         <v>595</v>
       </c>
@@ -14441,10 +14640,10 @@
       <c r="I103" s="7">
         <v>1.5609999999999999</v>
       </c>
-      <c r="J103" s="34"/>
-      <c r="K103" s="35"/>
-      <c r="L103" s="35"/>
-      <c r="M103" s="36"/>
+      <c r="J103" s="55"/>
+      <c r="K103" s="56"/>
+      <c r="L103" s="56"/>
+      <c r="M103" s="57"/>
       <c r="N103" s="8">
         <v>565</v>
       </c>
@@ -14582,10 +14781,10 @@
       <c r="I104" s="7">
         <v>1.5569999999999999</v>
       </c>
-      <c r="J104" s="34"/>
-      <c r="K104" s="35"/>
-      <c r="L104" s="35"/>
-      <c r="M104" s="36"/>
+      <c r="J104" s="55"/>
+      <c r="K104" s="56"/>
+      <c r="L104" s="56"/>
+      <c r="M104" s="57"/>
       <c r="N104" s="8">
         <v>557</v>
       </c>
@@ -14723,10 +14922,10 @@
       <c r="I105" s="7">
         <v>1.5609999999999999</v>
       </c>
-      <c r="J105" s="34"/>
-      <c r="K105" s="35"/>
-      <c r="L105" s="35"/>
-      <c r="M105" s="36"/>
+      <c r="J105" s="55"/>
+      <c r="K105" s="56"/>
+      <c r="L105" s="56"/>
+      <c r="M105" s="57"/>
       <c r="N105" s="8">
         <v>542</v>
       </c>
@@ -14864,10 +15063,10 @@
       <c r="I106" s="7">
         <v>1.5609999999999999</v>
       </c>
-      <c r="J106" s="34"/>
-      <c r="K106" s="35"/>
-      <c r="L106" s="35"/>
-      <c r="M106" s="36"/>
+      <c r="J106" s="55"/>
+      <c r="K106" s="56"/>
+      <c r="L106" s="56"/>
+      <c r="M106" s="57"/>
       <c r="N106" s="8">
         <v>538</v>
       </c>
@@ -15005,10 +15204,10 @@
       <c r="I107" s="7">
         <v>1.5649999999999999</v>
       </c>
-      <c r="J107" s="34"/>
-      <c r="K107" s="35"/>
-      <c r="L107" s="35"/>
-      <c r="M107" s="36"/>
+      <c r="J107" s="55"/>
+      <c r="K107" s="56"/>
+      <c r="L107" s="56"/>
+      <c r="M107" s="57"/>
       <c r="N107" s="8">
         <v>523</v>
       </c>
@@ -15146,10 +15345,10 @@
       <c r="I108" s="7">
         <v>1.5640000000000001</v>
       </c>
-      <c r="J108" s="34"/>
-      <c r="K108" s="35"/>
-      <c r="L108" s="35"/>
-      <c r="M108" s="36"/>
+      <c r="J108" s="55"/>
+      <c r="K108" s="56"/>
+      <c r="L108" s="56"/>
+      <c r="M108" s="57"/>
       <c r="N108" s="8">
         <v>500</v>
       </c>
@@ -15287,10 +15486,10 @@
       <c r="I109" s="7">
         <v>1.587</v>
       </c>
-      <c r="J109" s="34"/>
-      <c r="K109" s="35"/>
-      <c r="L109" s="35"/>
-      <c r="M109" s="36"/>
+      <c r="J109" s="55"/>
+      <c r="K109" s="56"/>
+      <c r="L109" s="56"/>
+      <c r="M109" s="57"/>
       <c r="N109" s="8">
         <v>460</v>
       </c>
@@ -15428,10 +15627,10 @@
       <c r="I110" s="7">
         <v>1.609</v>
       </c>
-      <c r="J110" s="34"/>
-      <c r="K110" s="35"/>
-      <c r="L110" s="35"/>
-      <c r="M110" s="36"/>
+      <c r="J110" s="55"/>
+      <c r="K110" s="56"/>
+      <c r="L110" s="56"/>
+      <c r="M110" s="57"/>
       <c r="N110" s="8">
         <v>420</v>
       </c>
@@ -15569,10 +15768,10 @@
       <c r="I111" s="7">
         <v>1.6539999999999999</v>
       </c>
-      <c r="J111" s="34"/>
-      <c r="K111" s="35"/>
-      <c r="L111" s="35"/>
-      <c r="M111" s="36"/>
+      <c r="J111" s="55"/>
+      <c r="K111" s="56"/>
+      <c r="L111" s="56"/>
+      <c r="M111" s="57"/>
       <c r="N111" s="8">
         <v>395</v>
       </c>
@@ -15710,10 +15909,10 @@
       <c r="I112" s="7">
         <v>1.653</v>
       </c>
-      <c r="J112" s="34"/>
-      <c r="K112" s="35"/>
-      <c r="L112" s="35"/>
-      <c r="M112" s="36"/>
+      <c r="J112" s="55"/>
+      <c r="K112" s="56"/>
+      <c r="L112" s="56"/>
+      <c r="M112" s="57"/>
       <c r="N112" s="8">
         <v>326</v>
       </c>
@@ -15851,10 +16050,10 @@
       <c r="I113" s="7">
         <v>1.66</v>
       </c>
-      <c r="J113" s="34"/>
-      <c r="K113" s="35"/>
-      <c r="L113" s="35"/>
-      <c r="M113" s="36"/>
+      <c r="J113" s="55"/>
+      <c r="K113" s="56"/>
+      <c r="L113" s="56"/>
+      <c r="M113" s="57"/>
       <c r="N113" s="8">
         <v>312</v>
       </c>
@@ -15992,10 +16191,10 @@
       <c r="I114" s="7">
         <v>1.6819999999999999</v>
       </c>
-      <c r="J114" s="34"/>
-      <c r="K114" s="35"/>
-      <c r="L114" s="35"/>
-      <c r="M114" s="36"/>
+      <c r="J114" s="55"/>
+      <c r="K114" s="56"/>
+      <c r="L114" s="56"/>
+      <c r="M114" s="57"/>
       <c r="N114" s="8">
         <v>295</v>
       </c>
@@ -16133,10 +16332,10 @@
       <c r="I115" s="7">
         <v>1.75</v>
       </c>
-      <c r="J115" s="34"/>
-      <c r="K115" s="35"/>
-      <c r="L115" s="35"/>
-      <c r="M115" s="36"/>
+      <c r="J115" s="55"/>
+      <c r="K115" s="56"/>
+      <c r="L115" s="56"/>
+      <c r="M115" s="57"/>
       <c r="N115" s="8">
         <v>238</v>
       </c>
@@ -16274,10 +16473,10 @@
       <c r="I116" s="7">
         <v>1.863</v>
       </c>
-      <c r="J116" s="37"/>
-      <c r="K116" s="38"/>
-      <c r="L116" s="38"/>
-      <c r="M116" s="39"/>
+      <c r="J116" s="58"/>
+      <c r="K116" s="59"/>
+      <c r="L116" s="59"/>
+      <c r="M116" s="60"/>
       <c r="N116" s="8">
         <v>141</v>
       </c>
@@ -16392,104 +16591,104 @@
       <c r="B119" s="8"/>
       <c r="C119" s="7"/>
       <c r="D119" s="7"/>
-      <c r="E119" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="F119" s="44"/>
-      <c r="G119" s="44"/>
-      <c r="H119" s="44"/>
-      <c r="I119" s="44"/>
-      <c r="J119" s="44"/>
-      <c r="K119" s="44"/>
-      <c r="L119" s="44"/>
-      <c r="M119" s="44"/>
-      <c r="N119" s="44"/>
-      <c r="O119" s="44"/>
-      <c r="P119" s="44"/>
-      <c r="Q119" s="44"/>
-      <c r="R119" s="44"/>
-      <c r="S119" s="44"/>
-      <c r="T119" s="44"/>
-      <c r="U119" s="44"/>
-      <c r="V119" s="44"/>
-      <c r="W119" s="44"/>
-      <c r="X119" s="44"/>
+      <c r="E119" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="F119" s="64"/>
+      <c r="G119" s="64"/>
+      <c r="H119" s="64"/>
+      <c r="I119" s="64"/>
+      <c r="J119" s="64"/>
+      <c r="K119" s="64"/>
+      <c r="L119" s="64"/>
+      <c r="M119" s="64"/>
+      <c r="N119" s="64"/>
+      <c r="O119" s="64"/>
+      <c r="P119" s="64"/>
+      <c r="Q119" s="64"/>
+      <c r="R119" s="64"/>
+      <c r="S119" s="64"/>
+      <c r="T119" s="64"/>
+      <c r="U119" s="64"/>
+      <c r="V119" s="64"/>
+      <c r="W119" s="64"/>
+      <c r="X119" s="64"/>
       <c r="Y119" s="7"/>
     </row>
     <row r="120" spans="1:49" ht="21" thickBot="1">
       <c r="A120" s="11"/>
-      <c r="B120" s="26" t="s">
+      <c r="B120" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="C120" s="27"/>
-      <c r="D120" s="27"/>
-      <c r="E120" s="30"/>
-      <c r="F120" s="26" t="s">
+      <c r="C120" s="48"/>
+      <c r="D120" s="48"/>
+      <c r="E120" s="51"/>
+      <c r="F120" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="G120" s="27"/>
-      <c r="H120" s="27"/>
-      <c r="I120" s="30"/>
-      <c r="J120" s="26" t="s">
+      <c r="G120" s="48"/>
+      <c r="H120" s="48"/>
+      <c r="I120" s="51"/>
+      <c r="J120" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="K120" s="27"/>
-      <c r="L120" s="27"/>
-      <c r="M120" s="30"/>
-      <c r="N120" s="26" t="s">
+      <c r="K120" s="48"/>
+      <c r="L120" s="48"/>
+      <c r="M120" s="51"/>
+      <c r="N120" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="O120" s="27"/>
-      <c r="P120" s="27"/>
-      <c r="Q120" s="30"/>
-      <c r="R120" s="26" t="s">
+      <c r="O120" s="48"/>
+      <c r="P120" s="48"/>
+      <c r="Q120" s="51"/>
+      <c r="R120" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="S120" s="27"/>
-      <c r="T120" s="27"/>
-      <c r="U120" s="30"/>
-      <c r="V120" s="26" t="s">
+      <c r="S120" s="48"/>
+      <c r="T120" s="48"/>
+      <c r="U120" s="51"/>
+      <c r="V120" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="W120" s="27"/>
-      <c r="X120" s="27"/>
-      <c r="Y120" s="30"/>
-      <c r="Z120" s="26" t="s">
+      <c r="W120" s="48"/>
+      <c r="X120" s="48"/>
+      <c r="Y120" s="51"/>
+      <c r="Z120" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="AA120" s="27"/>
-      <c r="AB120" s="27"/>
-      <c r="AC120" s="30"/>
-      <c r="AD120" s="26" t="s">
+      <c r="AA120" s="48"/>
+      <c r="AB120" s="48"/>
+      <c r="AC120" s="51"/>
+      <c r="AD120" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="AE120" s="27"/>
-      <c r="AF120" s="27"/>
-      <c r="AG120" s="30"/>
-      <c r="AH120" s="26" t="s">
+      <c r="AE120" s="48"/>
+      <c r="AF120" s="48"/>
+      <c r="AG120" s="51"/>
+      <c r="AH120" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="AI120" s="27"/>
-      <c r="AJ120" s="27"/>
-      <c r="AK120" s="30"/>
-      <c r="AL120" s="26" t="s">
+      <c r="AI120" s="48"/>
+      <c r="AJ120" s="48"/>
+      <c r="AK120" s="51"/>
+      <c r="AL120" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="AM120" s="27"/>
-      <c r="AN120" s="27"/>
-      <c r="AO120" s="30"/>
-      <c r="AP120" s="26" t="s">
+      <c r="AM120" s="48"/>
+      <c r="AN120" s="48"/>
+      <c r="AO120" s="51"/>
+      <c r="AP120" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="AQ120" s="27"/>
-      <c r="AR120" s="27"/>
-      <c r="AS120" s="30"/>
-      <c r="AT120" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="AU120" s="27"/>
-      <c r="AV120" s="28"/>
-      <c r="AW120" s="29"/>
+      <c r="AQ120" s="48"/>
+      <c r="AR120" s="48"/>
+      <c r="AS120" s="51"/>
+      <c r="AT120" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU120" s="48"/>
+      <c r="AV120" s="49"/>
+      <c r="AW120" s="50"/>
     </row>
     <row r="121" spans="1:49" ht="62" thickBot="1">
       <c r="A121" s="12" t="s">
@@ -16644,12 +16843,12 @@
       <c r="A122" s="13">
         <v>0</v>
       </c>
-      <c r="B122" s="31" t="s">
+      <c r="B122" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="C122" s="32"/>
-      <c r="D122" s="32"/>
-      <c r="E122" s="33"/>
+      <c r="C122" s="53"/>
+      <c r="D122" s="53"/>
+      <c r="E122" s="54"/>
       <c r="F122" s="6">
         <v>1105</v>
       </c>
@@ -16662,12 +16861,12 @@
       <c r="I122" s="16">
         <v>1.5730743724251799</v>
       </c>
-      <c r="J122" s="34" t="s">
+      <c r="J122" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="K122" s="35"/>
-      <c r="L122" s="35"/>
-      <c r="M122" s="36"/>
+      <c r="K122" s="56"/>
+      <c r="L122" s="56"/>
+      <c r="M122" s="57"/>
       <c r="N122" s="6">
         <v>1105</v>
       </c>
@@ -16781,10 +16980,10 @@
       <c r="A123" s="13">
         <v>0.05</v>
       </c>
-      <c r="B123" s="34"/>
-      <c r="C123" s="35"/>
-      <c r="D123" s="35"/>
-      <c r="E123" s="36"/>
+      <c r="B123" s="55"/>
+      <c r="C123" s="56"/>
+      <c r="D123" s="56"/>
+      <c r="E123" s="57"/>
       <c r="F123" s="6">
         <v>1105</v>
       </c>
@@ -16797,10 +16996,10 @@
       <c r="I123" s="16">
         <v>1.57249960976326</v>
       </c>
-      <c r="J123" s="34"/>
-      <c r="K123" s="35"/>
-      <c r="L123" s="35"/>
-      <c r="M123" s="36"/>
+      <c r="J123" s="55"/>
+      <c r="K123" s="56"/>
+      <c r="L123" s="56"/>
+      <c r="M123" s="57"/>
       <c r="N123" s="6">
         <v>1105</v>
       </c>
@@ -16854,10 +17053,10 @@
       <c r="A124" s="13">
         <v>0.1</v>
       </c>
-      <c r="B124" s="34"/>
-      <c r="C124" s="35"/>
-      <c r="D124" s="35"/>
-      <c r="E124" s="36"/>
+      <c r="B124" s="55"/>
+      <c r="C124" s="56"/>
+      <c r="D124" s="56"/>
+      <c r="E124" s="57"/>
       <c r="F124" s="6">
         <v>1105</v>
       </c>
@@ -16870,10 +17069,10 @@
       <c r="I124" s="16">
         <v>1.57578395786682</v>
       </c>
-      <c r="J124" s="34"/>
-      <c r="K124" s="35"/>
-      <c r="L124" s="35"/>
-      <c r="M124" s="36"/>
+      <c r="J124" s="55"/>
+      <c r="K124" s="56"/>
+      <c r="L124" s="56"/>
+      <c r="M124" s="57"/>
       <c r="N124" s="6">
         <v>1105</v>
       </c>
@@ -16927,10 +17126,10 @@
       <c r="A125" s="13">
         <v>0.15</v>
       </c>
-      <c r="B125" s="34"/>
-      <c r="C125" s="35"/>
-      <c r="D125" s="35"/>
-      <c r="E125" s="36"/>
+      <c r="B125" s="55"/>
+      <c r="C125" s="56"/>
+      <c r="D125" s="56"/>
+      <c r="E125" s="57"/>
       <c r="F125" s="6">
         <v>1104</v>
       </c>
@@ -16943,10 +17142,10 @@
       <c r="I125" s="16">
         <v>1.57294049075188</v>
       </c>
-      <c r="J125" s="34"/>
-      <c r="K125" s="35"/>
-      <c r="L125" s="35"/>
-      <c r="M125" s="36"/>
+      <c r="J125" s="55"/>
+      <c r="K125" s="56"/>
+      <c r="L125" s="56"/>
+      <c r="M125" s="57"/>
       <c r="N125" s="6">
         <v>1104</v>
       </c>
@@ -17000,10 +17199,10 @@
       <c r="A126" s="13">
         <v>0.2</v>
       </c>
-      <c r="B126" s="34"/>
-      <c r="C126" s="35"/>
-      <c r="D126" s="35"/>
-      <c r="E126" s="36"/>
+      <c r="B126" s="55"/>
+      <c r="C126" s="56"/>
+      <c r="D126" s="56"/>
+      <c r="E126" s="57"/>
       <c r="F126" s="6">
         <v>1091</v>
       </c>
@@ -17016,10 +17215,10 @@
       <c r="I126" s="16">
         <v>1.57046299679325</v>
       </c>
-      <c r="J126" s="34"/>
-      <c r="K126" s="35"/>
-      <c r="L126" s="35"/>
-      <c r="M126" s="36"/>
+      <c r="J126" s="55"/>
+      <c r="K126" s="56"/>
+      <c r="L126" s="56"/>
+      <c r="M126" s="57"/>
       <c r="N126" s="6">
         <v>1091</v>
       </c>
@@ -17073,10 +17272,10 @@
       <c r="A127" s="13">
         <v>0.25</v>
       </c>
-      <c r="B127" s="34"/>
-      <c r="C127" s="35"/>
-      <c r="D127" s="35"/>
-      <c r="E127" s="36"/>
+      <c r="B127" s="55"/>
+      <c r="C127" s="56"/>
+      <c r="D127" s="56"/>
+      <c r="E127" s="57"/>
       <c r="F127" s="6">
         <v>1049</v>
       </c>
@@ -17089,10 +17288,10 @@
       <c r="I127" s="16">
         <v>1.5608206489198899</v>
       </c>
-      <c r="J127" s="34"/>
-      <c r="K127" s="35"/>
-      <c r="L127" s="35"/>
-      <c r="M127" s="36"/>
+      <c r="J127" s="55"/>
+      <c r="K127" s="56"/>
+      <c r="L127" s="56"/>
+      <c r="M127" s="57"/>
       <c r="N127" s="6">
         <v>1049</v>
       </c>
@@ -17146,10 +17345,10 @@
       <c r="A128" s="4">
         <v>0.3</v>
       </c>
-      <c r="B128" s="34"/>
-      <c r="C128" s="35"/>
-      <c r="D128" s="35"/>
-      <c r="E128" s="36"/>
+      <c r="B128" s="55"/>
+      <c r="C128" s="56"/>
+      <c r="D128" s="56"/>
+      <c r="E128" s="57"/>
       <c r="F128" s="8">
         <v>924</v>
       </c>
@@ -17162,10 +17361,10 @@
       <c r="I128" s="7">
         <v>1.5708516085112501</v>
       </c>
-      <c r="J128" s="34"/>
-      <c r="K128" s="35"/>
-      <c r="L128" s="35"/>
-      <c r="M128" s="36"/>
+      <c r="J128" s="55"/>
+      <c r="K128" s="56"/>
+      <c r="L128" s="56"/>
+      <c r="M128" s="57"/>
       <c r="N128" s="8">
         <v>924</v>
       </c>
@@ -17279,10 +17478,10 @@
       <c r="A129" s="4">
         <v>0.35</v>
       </c>
-      <c r="B129" s="34"/>
-      <c r="C129" s="35"/>
-      <c r="D129" s="35"/>
-      <c r="E129" s="36"/>
+      <c r="B129" s="55"/>
+      <c r="C129" s="56"/>
+      <c r="D129" s="56"/>
+      <c r="E129" s="57"/>
       <c r="F129" s="8">
         <v>755</v>
       </c>
@@ -17295,10 +17494,10 @@
       <c r="I129" s="7">
         <v>1.59597829857714</v>
       </c>
-      <c r="J129" s="34"/>
-      <c r="K129" s="35"/>
-      <c r="L129" s="35"/>
-      <c r="M129" s="36"/>
+      <c r="J129" s="55"/>
+      <c r="K129" s="56"/>
+      <c r="L129" s="56"/>
+      <c r="M129" s="57"/>
       <c r="N129" s="8">
         <v>755</v>
       </c>
@@ -17412,10 +17611,10 @@
       <c r="A130" s="4">
         <v>0.4</v>
       </c>
-      <c r="B130" s="34"/>
-      <c r="C130" s="35"/>
-      <c r="D130" s="35"/>
-      <c r="E130" s="36"/>
+      <c r="B130" s="55"/>
+      <c r="C130" s="56"/>
+      <c r="D130" s="56"/>
+      <c r="E130" s="57"/>
       <c r="F130" s="8">
         <v>654</v>
       </c>
@@ -17428,10 +17627,10 @@
       <c r="I130" s="7">
         <v>1.5707534916711099</v>
       </c>
-      <c r="J130" s="34"/>
-      <c r="K130" s="35"/>
-      <c r="L130" s="35"/>
-      <c r="M130" s="36"/>
+      <c r="J130" s="55"/>
+      <c r="K130" s="56"/>
+      <c r="L130" s="56"/>
+      <c r="M130" s="57"/>
       <c r="N130" s="8">
         <v>654</v>
       </c>
@@ -17545,10 +17744,10 @@
       <c r="A131" s="4">
         <v>0.45</v>
       </c>
-      <c r="B131" s="34"/>
-      <c r="C131" s="35"/>
-      <c r="D131" s="35"/>
-      <c r="E131" s="36"/>
+      <c r="B131" s="55"/>
+      <c r="C131" s="56"/>
+      <c r="D131" s="56"/>
+      <c r="E131" s="57"/>
       <c r="F131" s="8">
         <v>597</v>
       </c>
@@ -17561,10 +17760,10 @@
       <c r="I131" s="7">
         <v>1.56936840138245</v>
       </c>
-      <c r="J131" s="34"/>
-      <c r="K131" s="35"/>
-      <c r="L131" s="35"/>
-      <c r="M131" s="36"/>
+      <c r="J131" s="55"/>
+      <c r="K131" s="56"/>
+      <c r="L131" s="56"/>
+      <c r="M131" s="57"/>
       <c r="N131" s="8">
         <v>597</v>
       </c>
@@ -17678,10 +17877,10 @@
       <c r="A132" s="4">
         <v>0.5</v>
       </c>
-      <c r="B132" s="34"/>
-      <c r="C132" s="35"/>
-      <c r="D132" s="35"/>
-      <c r="E132" s="36"/>
+      <c r="B132" s="55"/>
+      <c r="C132" s="56"/>
+      <c r="D132" s="56"/>
+      <c r="E132" s="57"/>
       <c r="F132" s="8">
         <v>583</v>
       </c>
@@ -17694,10 +17893,10 @@
       <c r="I132" s="7">
         <v>1.56756979968004</v>
       </c>
-      <c r="J132" s="34"/>
-      <c r="K132" s="35"/>
-      <c r="L132" s="35"/>
-      <c r="M132" s="36"/>
+      <c r="J132" s="55"/>
+      <c r="K132" s="56"/>
+      <c r="L132" s="56"/>
+      <c r="M132" s="57"/>
       <c r="N132" s="8">
         <v>583</v>
       </c>
@@ -17811,10 +18010,10 @@
       <c r="A133" s="4">
         <v>0.55000000000000004</v>
       </c>
-      <c r="B133" s="34"/>
-      <c r="C133" s="35"/>
-      <c r="D133" s="35"/>
-      <c r="E133" s="36"/>
+      <c r="B133" s="55"/>
+      <c r="C133" s="56"/>
+      <c r="D133" s="56"/>
+      <c r="E133" s="57"/>
       <c r="F133" s="8">
         <v>570</v>
       </c>
@@ -17827,10 +18026,10 @@
       <c r="I133" s="7">
         <v>1.5649281226949601</v>
       </c>
-      <c r="J133" s="34"/>
-      <c r="K133" s="35"/>
-      <c r="L133" s="35"/>
-      <c r="M133" s="36"/>
+      <c r="J133" s="55"/>
+      <c r="K133" s="56"/>
+      <c r="L133" s="56"/>
+      <c r="M133" s="57"/>
       <c r="N133" s="8">
         <v>570</v>
       </c>
@@ -17944,10 +18143,10 @@
       <c r="A134" s="4">
         <v>0.6</v>
       </c>
-      <c r="B134" s="34"/>
-      <c r="C134" s="35"/>
-      <c r="D134" s="35"/>
-      <c r="E134" s="36"/>
+      <c r="B134" s="55"/>
+      <c r="C134" s="56"/>
+      <c r="D134" s="56"/>
+      <c r="E134" s="57"/>
       <c r="F134" s="8">
         <v>563</v>
       </c>
@@ -17960,10 +18159,10 @@
       <c r="I134" s="7">
         <v>1.5602609749077001</v>
       </c>
-      <c r="J134" s="34"/>
-      <c r="K134" s="35"/>
-      <c r="L134" s="35"/>
-      <c r="M134" s="36"/>
+      <c r="J134" s="55"/>
+      <c r="K134" s="56"/>
+      <c r="L134" s="56"/>
+      <c r="M134" s="57"/>
       <c r="N134" s="8">
         <v>563</v>
       </c>
@@ -18077,10 +18276,10 @@
       <c r="A135" s="4">
         <v>0.65</v>
       </c>
-      <c r="B135" s="34"/>
-      <c r="C135" s="35"/>
-      <c r="D135" s="35"/>
-      <c r="E135" s="36"/>
+      <c r="B135" s="55"/>
+      <c r="C135" s="56"/>
+      <c r="D135" s="56"/>
+      <c r="E135" s="57"/>
       <c r="F135" s="8">
         <v>560</v>
       </c>
@@ -18093,10 +18292,10 @@
       <c r="I135" s="7">
         <v>1.56195885191592</v>
       </c>
-      <c r="J135" s="34"/>
-      <c r="K135" s="35"/>
-      <c r="L135" s="35"/>
-      <c r="M135" s="36"/>
+      <c r="J135" s="55"/>
+      <c r="K135" s="56"/>
+      <c r="L135" s="56"/>
+      <c r="M135" s="57"/>
       <c r="N135" s="8">
         <v>560</v>
       </c>
@@ -18210,10 +18409,10 @@
       <c r="A136" s="4">
         <v>0.7</v>
       </c>
-      <c r="B136" s="34"/>
-      <c r="C136" s="35"/>
-      <c r="D136" s="35"/>
-      <c r="E136" s="36"/>
+      <c r="B136" s="55"/>
+      <c r="C136" s="56"/>
+      <c r="D136" s="56"/>
+      <c r="E136" s="57"/>
       <c r="F136" s="8">
         <v>553</v>
       </c>
@@ -18226,10 +18425,10 @@
       <c r="I136" s="7">
         <v>1.5613933895898799</v>
       </c>
-      <c r="J136" s="34"/>
-      <c r="K136" s="35"/>
-      <c r="L136" s="35"/>
-      <c r="M136" s="36"/>
+      <c r="J136" s="55"/>
+      <c r="K136" s="56"/>
+      <c r="L136" s="56"/>
+      <c r="M136" s="57"/>
       <c r="N136" s="8">
         <v>553</v>
       </c>
@@ -18343,10 +18542,10 @@
       <c r="A137" s="4">
         <v>0.75</v>
       </c>
-      <c r="B137" s="34"/>
-      <c r="C137" s="35"/>
-      <c r="D137" s="35"/>
-      <c r="E137" s="36"/>
+      <c r="B137" s="55"/>
+      <c r="C137" s="56"/>
+      <c r="D137" s="56"/>
+      <c r="E137" s="57"/>
       <c r="F137" s="8">
         <v>552</v>
       </c>
@@ -18359,10 +18558,10 @@
       <c r="I137" s="7">
         <v>1.5634924421001799</v>
       </c>
-      <c r="J137" s="34"/>
-      <c r="K137" s="35"/>
-      <c r="L137" s="35"/>
-      <c r="M137" s="36"/>
+      <c r="J137" s="55"/>
+      <c r="K137" s="56"/>
+      <c r="L137" s="56"/>
+      <c r="M137" s="57"/>
       <c r="N137" s="8">
         <v>552</v>
       </c>
@@ -18476,10 +18675,10 @@
       <c r="A138" s="4">
         <v>0.8</v>
       </c>
-      <c r="B138" s="34"/>
-      <c r="C138" s="35"/>
-      <c r="D138" s="35"/>
-      <c r="E138" s="36"/>
+      <c r="B138" s="55"/>
+      <c r="C138" s="56"/>
+      <c r="D138" s="56"/>
+      <c r="E138" s="57"/>
       <c r="F138" s="8">
         <v>551</v>
       </c>
@@ -18492,10 +18691,10 @@
       <c r="I138" s="7">
         <v>1.5638902450135399</v>
       </c>
-      <c r="J138" s="34"/>
-      <c r="K138" s="35"/>
-      <c r="L138" s="35"/>
-      <c r="M138" s="36"/>
+      <c r="J138" s="55"/>
+      <c r="K138" s="56"/>
+      <c r="L138" s="56"/>
+      <c r="M138" s="57"/>
       <c r="N138" s="8">
         <v>551</v>
       </c>
@@ -18609,10 +18808,10 @@
       <c r="A139" s="4">
         <v>0.85</v>
       </c>
-      <c r="B139" s="34"/>
-      <c r="C139" s="35"/>
-      <c r="D139" s="35"/>
-      <c r="E139" s="36"/>
+      <c r="B139" s="55"/>
+      <c r="C139" s="56"/>
+      <c r="D139" s="56"/>
+      <c r="E139" s="57"/>
       <c r="F139" s="8">
         <v>547</v>
       </c>
@@ -18625,10 +18824,10 @@
       <c r="I139" s="7">
         <v>1.56398380567295</v>
       </c>
-      <c r="J139" s="34"/>
-      <c r="K139" s="35"/>
-      <c r="L139" s="35"/>
-      <c r="M139" s="36"/>
+      <c r="J139" s="55"/>
+      <c r="K139" s="56"/>
+      <c r="L139" s="56"/>
+      <c r="M139" s="57"/>
       <c r="N139" s="8">
         <v>547</v>
       </c>
@@ -18742,10 +18941,10 @@
       <c r="A140" s="4">
         <v>0.9</v>
       </c>
-      <c r="B140" s="34"/>
-      <c r="C140" s="35"/>
-      <c r="D140" s="35"/>
-      <c r="E140" s="36"/>
+      <c r="B140" s="55"/>
+      <c r="C140" s="56"/>
+      <c r="D140" s="56"/>
+      <c r="E140" s="57"/>
       <c r="F140" s="8">
         <v>540</v>
       </c>
@@ -18758,10 +18957,10 @@
       <c r="I140" s="7">
         <v>1.5635426939766</v>
       </c>
-      <c r="J140" s="34"/>
-      <c r="K140" s="35"/>
-      <c r="L140" s="35"/>
-      <c r="M140" s="36"/>
+      <c r="J140" s="55"/>
+      <c r="K140" s="56"/>
+      <c r="L140" s="56"/>
+      <c r="M140" s="57"/>
       <c r="N140" s="8">
         <v>540</v>
       </c>
@@ -18875,10 +19074,10 @@
       <c r="A141" s="4">
         <v>0.95</v>
       </c>
-      <c r="B141" s="34"/>
-      <c r="C141" s="35"/>
-      <c r="D141" s="35"/>
-      <c r="E141" s="36"/>
+      <c r="B141" s="55"/>
+      <c r="C141" s="56"/>
+      <c r="D141" s="56"/>
+      <c r="E141" s="57"/>
       <c r="F141" s="8">
         <v>521</v>
       </c>
@@ -18891,10 +19090,10 @@
       <c r="I141" s="7">
         <v>1.5663206197961499</v>
       </c>
-      <c r="J141" s="34"/>
-      <c r="K141" s="35"/>
-      <c r="L141" s="35"/>
-      <c r="M141" s="36"/>
+      <c r="J141" s="55"/>
+      <c r="K141" s="56"/>
+      <c r="L141" s="56"/>
+      <c r="M141" s="57"/>
       <c r="N141" s="8">
         <v>521</v>
       </c>
@@ -19008,10 +19207,10 @@
       <c r="A142" s="4">
         <v>0.95499999999999996</v>
       </c>
-      <c r="B142" s="34"/>
-      <c r="C142" s="35"/>
-      <c r="D142" s="35"/>
-      <c r="E142" s="36"/>
+      <c r="B142" s="55"/>
+      <c r="C142" s="56"/>
+      <c r="D142" s="56"/>
+      <c r="E142" s="57"/>
       <c r="F142" s="8">
         <v>521</v>
       </c>
@@ -19024,10 +19223,10 @@
       <c r="I142" s="7">
         <v>1.5653615436041399</v>
       </c>
-      <c r="J142" s="34"/>
-      <c r="K142" s="35"/>
-      <c r="L142" s="35"/>
-      <c r="M142" s="36"/>
+      <c r="J142" s="55"/>
+      <c r="K142" s="56"/>
+      <c r="L142" s="56"/>
+      <c r="M142" s="57"/>
       <c r="N142" s="8">
         <v>521</v>
       </c>
@@ -19141,10 +19340,10 @@
       <c r="A143" s="4">
         <v>0.96</v>
       </c>
-      <c r="B143" s="34"/>
-      <c r="C143" s="35"/>
-      <c r="D143" s="35"/>
-      <c r="E143" s="36"/>
+      <c r="B143" s="55"/>
+      <c r="C143" s="56"/>
+      <c r="D143" s="56"/>
+      <c r="E143" s="57"/>
       <c r="F143" s="8">
         <v>499</v>
       </c>
@@ -19157,10 +19356,10 @@
       <c r="I143" s="7">
         <v>1.5686375061104001</v>
       </c>
-      <c r="J143" s="34"/>
-      <c r="K143" s="35"/>
-      <c r="L143" s="35"/>
-      <c r="M143" s="36"/>
+      <c r="J143" s="55"/>
+      <c r="K143" s="56"/>
+      <c r="L143" s="56"/>
+      <c r="M143" s="57"/>
       <c r="N143" s="8">
         <v>499</v>
       </c>
@@ -19274,10 +19473,10 @@
       <c r="A144" s="4">
         <v>0.96499999999999997</v>
       </c>
-      <c r="B144" s="34"/>
-      <c r="C144" s="35"/>
-      <c r="D144" s="35"/>
-      <c r="E144" s="36"/>
+      <c r="B144" s="55"/>
+      <c r="C144" s="56"/>
+      <c r="D144" s="56"/>
+      <c r="E144" s="57"/>
       <c r="F144" s="8">
         <v>499</v>
       </c>
@@ -19290,10 +19489,10 @@
       <c r="I144" s="7">
         <v>1.57019333922864</v>
       </c>
-      <c r="J144" s="34"/>
-      <c r="K144" s="35"/>
-      <c r="L144" s="35"/>
-      <c r="M144" s="36"/>
+      <c r="J144" s="55"/>
+      <c r="K144" s="56"/>
+      <c r="L144" s="56"/>
+      <c r="M144" s="57"/>
       <c r="N144" s="8">
         <v>499</v>
       </c>
@@ -19403,14 +19602,14 @@
         <v>1.4525522077373501</v>
       </c>
     </row>
-    <row r="145" spans="1:49" ht="18">
+    <row r="145" spans="1:53" ht="18">
       <c r="A145" s="4">
         <v>0.97</v>
       </c>
-      <c r="B145" s="34"/>
-      <c r="C145" s="35"/>
-      <c r="D145" s="35"/>
-      <c r="E145" s="36"/>
+      <c r="B145" s="55"/>
+      <c r="C145" s="56"/>
+      <c r="D145" s="56"/>
+      <c r="E145" s="57"/>
       <c r="F145" s="8">
         <v>467</v>
       </c>
@@ -19423,10 +19622,10 @@
       <c r="I145" s="7">
         <v>1.56927062190208</v>
       </c>
-      <c r="J145" s="34"/>
-      <c r="K145" s="35"/>
-      <c r="L145" s="35"/>
-      <c r="M145" s="36"/>
+      <c r="J145" s="55"/>
+      <c r="K145" s="56"/>
+      <c r="L145" s="56"/>
+      <c r="M145" s="57"/>
       <c r="N145" s="8">
         <v>467</v>
       </c>
@@ -19536,14 +19735,14 @@
         <v>1.45680614963947</v>
       </c>
     </row>
-    <row r="146" spans="1:49" ht="18">
+    <row r="146" spans="1:53" ht="18">
       <c r="A146" s="4">
         <v>0.97499999999999998</v>
       </c>
-      <c r="B146" s="34"/>
-      <c r="C146" s="35"/>
-      <c r="D146" s="35"/>
-      <c r="E146" s="36"/>
+      <c r="B146" s="55"/>
+      <c r="C146" s="56"/>
+      <c r="D146" s="56"/>
+      <c r="E146" s="57"/>
       <c r="F146" s="8">
         <v>465</v>
       </c>
@@ -19556,10 +19755,10 @@
       <c r="I146" s="7">
         <v>1.57091071687145</v>
       </c>
-      <c r="J146" s="34"/>
-      <c r="K146" s="35"/>
-      <c r="L146" s="35"/>
-      <c r="M146" s="36"/>
+      <c r="J146" s="55"/>
+      <c r="K146" s="56"/>
+      <c r="L146" s="56"/>
+      <c r="M146" s="57"/>
       <c r="N146" s="8">
         <v>465</v>
       </c>
@@ -19669,14 +19868,14 @@
         <v>1.46160566613265</v>
       </c>
     </row>
-    <row r="147" spans="1:49" ht="18">
+    <row r="147" spans="1:53" ht="18">
       <c r="A147" s="4">
         <v>0.98</v>
       </c>
-      <c r="B147" s="34"/>
-      <c r="C147" s="35"/>
-      <c r="D147" s="35"/>
-      <c r="E147" s="36"/>
+      <c r="B147" s="55"/>
+      <c r="C147" s="56"/>
+      <c r="D147" s="56"/>
+      <c r="E147" s="57"/>
       <c r="F147" s="8">
         <v>435</v>
       </c>
@@ -19689,10 +19888,10 @@
       <c r="I147" s="7">
         <v>1.57761140827152</v>
       </c>
-      <c r="J147" s="34"/>
-      <c r="K147" s="35"/>
-      <c r="L147" s="35"/>
-      <c r="M147" s="36"/>
+      <c r="J147" s="55"/>
+      <c r="K147" s="56"/>
+      <c r="L147" s="56"/>
+      <c r="M147" s="57"/>
       <c r="N147" s="8">
         <v>435</v>
       </c>
@@ -19802,14 +20001,14 @@
         <v>1.46192837073044</v>
       </c>
     </row>
-    <row r="148" spans="1:49" ht="18">
+    <row r="148" spans="1:53" ht="18">
       <c r="A148" s="4">
         <v>0.98499999999999999</v>
       </c>
-      <c r="B148" s="34"/>
-      <c r="C148" s="35"/>
-      <c r="D148" s="35"/>
-      <c r="E148" s="36"/>
+      <c r="B148" s="55"/>
+      <c r="C148" s="56"/>
+      <c r="D148" s="56"/>
+      <c r="E148" s="57"/>
       <c r="F148" s="8">
         <v>427</v>
       </c>
@@ -19822,10 +20021,10 @@
       <c r="I148" s="7">
         <v>1.5778654645185199</v>
       </c>
-      <c r="J148" s="34"/>
-      <c r="K148" s="35"/>
-      <c r="L148" s="35"/>
-      <c r="M148" s="36"/>
+      <c r="J148" s="55"/>
+      <c r="K148" s="56"/>
+      <c r="L148" s="56"/>
+      <c r="M148" s="57"/>
       <c r="N148" s="8">
         <v>427</v>
       </c>
@@ -19935,14 +20134,14 @@
         <v>1.48092414419707</v>
       </c>
     </row>
-    <row r="149" spans="1:49" ht="18">
+    <row r="149" spans="1:53" ht="18">
       <c r="A149" s="4">
         <v>0.99</v>
       </c>
-      <c r="B149" s="34"/>
-      <c r="C149" s="35"/>
-      <c r="D149" s="35"/>
-      <c r="E149" s="36"/>
+      <c r="B149" s="55"/>
+      <c r="C149" s="56"/>
+      <c r="D149" s="56"/>
+      <c r="E149" s="57"/>
       <c r="F149" s="8">
         <v>413</v>
       </c>
@@ -19955,10 +20154,10 @@
       <c r="I149" s="7">
         <v>1.59615749443567</v>
       </c>
-      <c r="J149" s="34"/>
-      <c r="K149" s="35"/>
-      <c r="L149" s="35"/>
-      <c r="M149" s="36"/>
+      <c r="J149" s="55"/>
+      <c r="K149" s="56"/>
+      <c r="L149" s="56"/>
+      <c r="M149" s="57"/>
       <c r="N149" s="8">
         <v>413</v>
       </c>
@@ -20068,14 +20267,14 @@
         <v>1.5018610644433701</v>
       </c>
     </row>
-    <row r="150" spans="1:49" ht="18">
+    <row r="150" spans="1:53" ht="18">
       <c r="A150" s="4">
         <v>0.995</v>
       </c>
-      <c r="B150" s="34"/>
-      <c r="C150" s="35"/>
-      <c r="D150" s="35"/>
-      <c r="E150" s="36"/>
+      <c r="B150" s="55"/>
+      <c r="C150" s="56"/>
+      <c r="D150" s="56"/>
+      <c r="E150" s="57"/>
       <c r="F150" s="8">
         <v>379</v>
       </c>
@@ -20088,10 +20287,10 @@
       <c r="I150" s="7">
         <v>1.6232692907670201</v>
       </c>
-      <c r="J150" s="34"/>
-      <c r="K150" s="35"/>
-      <c r="L150" s="35"/>
-      <c r="M150" s="36"/>
+      <c r="J150" s="55"/>
+      <c r="K150" s="56"/>
+      <c r="L150" s="56"/>
+      <c r="M150" s="57"/>
       <c r="N150" s="8">
         <v>379</v>
       </c>
@@ -20201,14 +20400,14 @@
         <v>1.5211837419930301</v>
       </c>
     </row>
-    <row r="151" spans="1:49" ht="18">
+    <row r="151" spans="1:53" ht="18">
       <c r="A151" s="4">
         <v>0.996</v>
       </c>
-      <c r="B151" s="34"/>
-      <c r="C151" s="35"/>
-      <c r="D151" s="35"/>
-      <c r="E151" s="36"/>
+      <c r="B151" s="55"/>
+      <c r="C151" s="56"/>
+      <c r="D151" s="56"/>
+      <c r="E151" s="57"/>
       <c r="F151" s="8">
         <v>359</v>
       </c>
@@ -20221,10 +20420,10 @@
       <c r="I151" s="7">
         <v>1.64232128999635</v>
       </c>
-      <c r="J151" s="34"/>
-      <c r="K151" s="35"/>
-      <c r="L151" s="35"/>
-      <c r="M151" s="36"/>
+      <c r="J151" s="55"/>
+      <c r="K151" s="56"/>
+      <c r="L151" s="56"/>
+      <c r="M151" s="57"/>
       <c r="N151" s="8">
         <v>359</v>
       </c>
@@ -20334,14 +20533,14 @@
         <v>1.5418877444803201</v>
       </c>
     </row>
-    <row r="152" spans="1:49" ht="18">
+    <row r="152" spans="1:53" ht="18">
       <c r="A152" s="4">
         <v>0.997</v>
       </c>
-      <c r="B152" s="34"/>
-      <c r="C152" s="35"/>
-      <c r="D152" s="35"/>
-      <c r="E152" s="36"/>
+      <c r="B152" s="55"/>
+      <c r="C152" s="56"/>
+      <c r="D152" s="56"/>
+      <c r="E152" s="57"/>
       <c r="F152" s="8">
         <v>324</v>
       </c>
@@ -20354,10 +20553,10 @@
       <c r="I152" s="7">
         <v>1.64400779268928</v>
       </c>
-      <c r="J152" s="34"/>
-      <c r="K152" s="35"/>
-      <c r="L152" s="35"/>
-      <c r="M152" s="36"/>
+      <c r="J152" s="55"/>
+      <c r="K152" s="56"/>
+      <c r="L152" s="56"/>
+      <c r="M152" s="57"/>
       <c r="N152" s="8">
         <v>324</v>
       </c>
@@ -20467,14 +20666,14 @@
         <v>1.5303687455970501</v>
       </c>
     </row>
-    <row r="153" spans="1:49" ht="18">
+    <row r="153" spans="1:53" ht="18">
       <c r="A153" s="4">
         <v>0.998</v>
       </c>
-      <c r="B153" s="34"/>
-      <c r="C153" s="35"/>
-      <c r="D153" s="35"/>
-      <c r="E153" s="36"/>
+      <c r="B153" s="55"/>
+      <c r="C153" s="56"/>
+      <c r="D153" s="56"/>
+      <c r="E153" s="57"/>
       <c r="F153" s="8">
         <v>320</v>
       </c>
@@ -20487,10 +20686,10 @@
       <c r="I153" s="7">
         <v>1.65206640444665</v>
       </c>
-      <c r="J153" s="34"/>
-      <c r="K153" s="35"/>
-      <c r="L153" s="35"/>
-      <c r="M153" s="36"/>
+      <c r="J153" s="55"/>
+      <c r="K153" s="56"/>
+      <c r="L153" s="56"/>
+      <c r="M153" s="57"/>
       <c r="N153" s="8">
         <v>320</v>
       </c>
@@ -20600,14 +20799,14 @@
         <v>1.5283081173417099</v>
       </c>
     </row>
-    <row r="154" spans="1:49" ht="18.5" thickBot="1">
+    <row r="154" spans="1:53" ht="18.5" thickBot="1">
       <c r="A154" s="4">
         <v>0.999</v>
       </c>
-      <c r="B154" s="37"/>
-      <c r="C154" s="38"/>
-      <c r="D154" s="38"/>
-      <c r="E154" s="39"/>
+      <c r="B154" s="58"/>
+      <c r="C154" s="59"/>
+      <c r="D154" s="59"/>
+      <c r="E154" s="60"/>
       <c r="F154" s="8">
         <v>319</v>
       </c>
@@ -20620,10 +20819,10 @@
       <c r="I154" s="7">
         <v>1.6535692597499401</v>
       </c>
-      <c r="J154" s="37"/>
-      <c r="K154" s="38"/>
-      <c r="L154" s="38"/>
-      <c r="M154" s="39"/>
+      <c r="J154" s="58"/>
+      <c r="K154" s="59"/>
+      <c r="L154" s="59"/>
+      <c r="M154" s="60"/>
       <c r="N154" s="8">
         <v>319</v>
       </c>
@@ -20733,8 +20932,6126 @@
         <v>1.5309988878716601</v>
       </c>
     </row>
+    <row r="157" spans="1:53" ht="34.5" customHeight="1">
+      <c r="A157" s="4"/>
+      <c r="B157" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="C157" s="46"/>
+      <c r="D157" s="46"/>
+      <c r="E157" s="46"/>
+      <c r="F157" s="46"/>
+      <c r="G157" s="46"/>
+      <c r="H157" s="46"/>
+      <c r="I157" s="46"/>
+      <c r="J157" s="46"/>
+      <c r="K157" s="46"/>
+      <c r="L157" s="46"/>
+      <c r="M157" s="46"/>
+      <c r="N157" s="46"/>
+      <c r="O157" s="46"/>
+      <c r="P157" s="46"/>
+      <c r="Q157" s="46"/>
+      <c r="R157" s="46"/>
+      <c r="S157" s="46"/>
+      <c r="T157" s="46"/>
+      <c r="U157" s="46"/>
+      <c r="V157" s="46"/>
+      <c r="W157" s="46"/>
+      <c r="X157" s="46"/>
+      <c r="Y157" s="46"/>
+      <c r="Z157" s="46"/>
+      <c r="AA157" s="46"/>
+      <c r="AB157" s="46"/>
+      <c r="AC157" s="7"/>
+    </row>
+    <row r="158" spans="1:53" s="32" customFormat="1" ht="21" customHeight="1">
+      <c r="A158" s="29"/>
+      <c r="B158" s="30"/>
+      <c r="C158" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="D158" s="42"/>
+      <c r="E158" s="42"/>
+      <c r="F158" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="G158" s="44"/>
+      <c r="H158" s="44"/>
+      <c r="I158" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="J158" s="42"/>
+      <c r="K158" s="42"/>
+      <c r="L158" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="M158" s="42"/>
+      <c r="N158" s="42"/>
+      <c r="O158" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="P158" s="42"/>
+      <c r="Q158" s="42"/>
+      <c r="R158" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="S158" s="44"/>
+      <c r="T158" s="44"/>
+      <c r="U158" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="V158" s="42"/>
+      <c r="W158" s="42"/>
+      <c r="X158" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y158" s="42"/>
+      <c r="Z158" s="42"/>
+      <c r="AA158" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB158" s="42"/>
+      <c r="AC158" s="45"/>
+      <c r="AD158" s="30"/>
+      <c r="AE158" s="31"/>
+      <c r="AF158" s="31"/>
+      <c r="AG158" s="31"/>
+      <c r="AH158" s="30"/>
+      <c r="AI158" s="31"/>
+      <c r="AJ158" s="31"/>
+      <c r="AK158" s="31"/>
+      <c r="AL158" s="30"/>
+      <c r="AM158" s="31"/>
+      <c r="AN158" s="31"/>
+      <c r="AO158" s="31"/>
+      <c r="AP158" s="30"/>
+      <c r="AQ158" s="31"/>
+      <c r="AR158" s="31"/>
+      <c r="AS158" s="31"/>
+      <c r="AT158" s="30"/>
+      <c r="AU158" s="31"/>
+      <c r="AV158" s="31"/>
+      <c r="AW158" s="31"/>
+    </row>
+    <row r="159" spans="1:53" s="3" customFormat="1" ht="61.5">
+      <c r="A159" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B159" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="C159" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="D159" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="E159" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="F159" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="G159" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="H159" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="I159" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="J159" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="K159" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="L159" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="M159" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="N159" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="O159" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="P159" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q159" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="R159" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="S159" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="T159" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="U159" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="V159" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="W159" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="X159" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y159" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z159" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA159" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB159" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC159" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD159" s="27"/>
+      <c r="AE159" s="28"/>
+      <c r="AF159" s="28"/>
+      <c r="AG159" s="28"/>
+      <c r="AH159" s="27"/>
+      <c r="AI159" s="28"/>
+      <c r="AJ159" s="28"/>
+      <c r="AK159" s="28"/>
+      <c r="AL159" s="27"/>
+      <c r="AM159" s="28"/>
+      <c r="AN159" s="28"/>
+      <c r="AO159" s="28"/>
+      <c r="AP159" s="27"/>
+      <c r="AQ159" s="28"/>
+      <c r="AR159" s="28"/>
+      <c r="AS159" s="28"/>
+      <c r="AT159" s="27"/>
+      <c r="AU159" s="28"/>
+      <c r="AV159" s="28"/>
+      <c r="AW159" s="28"/>
+      <c r="AX159" s="27"/>
+      <c r="AY159" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="AZ159" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="BA159" s="28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="160" spans="1:53" ht="18">
+      <c r="A160" s="4">
+        <v>1</v>
+      </c>
+      <c r="B160" s="38">
+        <v>1105</v>
+      </c>
+      <c r="C160" s="16">
+        <v>0.64294051872862135</v>
+      </c>
+      <c r="D160" s="16">
+        <v>0.70669314448654519</v>
+      </c>
+      <c r="E160" s="16">
+        <v>1.872183678651119</v>
+      </c>
+      <c r="F160" s="7">
+        <v>0.70780895102129693</v>
+      </c>
+      <c r="G160" s="7">
+        <v>0.69565149147356353</v>
+      </c>
+      <c r="H160" s="7">
+        <v>1.6978062048183076</v>
+      </c>
+      <c r="I160" s="7">
+        <v>0.59608584926842312</v>
+      </c>
+      <c r="J160" s="7">
+        <v>0.64811852179572715</v>
+      </c>
+      <c r="K160" s="7">
+        <v>1.9411320172181719</v>
+      </c>
+      <c r="L160" s="7">
+        <v>0.73734670660213231</v>
+      </c>
+      <c r="M160" s="7">
+        <v>0.7421140241640074</v>
+      </c>
+      <c r="N160" s="7">
+        <v>1.6662564471770935</v>
+      </c>
+      <c r="O160" s="7">
+        <v>0.65710103739923398</v>
+      </c>
+      <c r="P160" s="7">
+        <v>0.68681706852318503</v>
+      </c>
+      <c r="Q160" s="7">
+        <v>1.8640698755234406</v>
+      </c>
+      <c r="R160" s="7">
+        <v>0.68607591450916072</v>
+      </c>
+      <c r="S160" s="7">
+        <v>0.70280152178011279</v>
+      </c>
+      <c r="T160" s="7">
+        <v>1.7390788663281538</v>
+      </c>
+      <c r="U160" s="7">
+        <v>0.77001102671355748</v>
+      </c>
+      <c r="V160" s="7">
+        <v>0.75578782896780505</v>
+      </c>
+      <c r="W160" s="7">
+        <v>1.5694971787491192</v>
+      </c>
+      <c r="X160" s="7">
+        <v>0.80191581495190734</v>
+      </c>
+      <c r="Y160" s="7">
+        <v>0.7955350446489684</v>
+      </c>
+      <c r="Z160" s="7">
+        <v>1.5016856813414909</v>
+      </c>
+      <c r="AA160" s="7">
+        <v>0.80340979959645653</v>
+      </c>
+      <c r="AB160" s="7">
+        <v>0.80207492263582159</v>
+      </c>
+      <c r="AC160" s="7">
+        <v>1.44951524456792</v>
+      </c>
+      <c r="AD160" s="26"/>
+      <c r="AE160" s="7"/>
+      <c r="AF160" s="7"/>
+      <c r="AG160" s="7"/>
+      <c r="AH160" s="26"/>
+      <c r="AI160" s="7"/>
+      <c r="AJ160" s="7"/>
+      <c r="AK160" s="7"/>
+      <c r="AL160" s="26"/>
+      <c r="AM160" s="7"/>
+      <c r="AN160" s="7"/>
+      <c r="AO160" s="7"/>
+      <c r="AP160" s="26"/>
+      <c r="AQ160" s="7"/>
+      <c r="AR160" s="7"/>
+      <c r="AS160" s="7"/>
+      <c r="AT160" s="26"/>
+      <c r="AU160" s="7"/>
+      <c r="AV160" s="7"/>
+      <c r="AW160" s="7"/>
+      <c r="AX160" s="26"/>
+      <c r="AY160" s="7"/>
+      <c r="AZ160" s="7"/>
+      <c r="BA160" s="7"/>
+    </row>
+    <row r="161" spans="1:53" ht="18">
+      <c r="A161" s="4">
+        <v>0.999</v>
+      </c>
+      <c r="B161" s="38">
+        <v>951</v>
+      </c>
+      <c r="C161" s="7">
+        <v>0.6434467552135954</v>
+      </c>
+      <c r="D161" s="7">
+        <v>0.7048691612921224</v>
+      </c>
+      <c r="E161" s="7">
+        <v>1.8751924858937721</v>
+      </c>
+      <c r="F161" s="7">
+        <v>0.5858046413268887</v>
+      </c>
+      <c r="G161" s="7">
+        <v>0.58536289911794182</v>
+      </c>
+      <c r="H161" s="7">
+        <v>1.9268446058099804</v>
+      </c>
+      <c r="I161" s="7">
+        <v>0.59540571446320745</v>
+      </c>
+      <c r="J161" s="7">
+        <v>0.64375034908787687</v>
+      </c>
+      <c r="K161" s="7">
+        <v>1.9405610985946065</v>
+      </c>
+      <c r="L161" s="7">
+        <v>0.63243584350113957</v>
+      </c>
+      <c r="M161" s="7">
+        <v>0.66107940326576875</v>
+      </c>
+      <c r="N161" s="7">
+        <v>1.866675573954802</v>
+      </c>
+      <c r="O161" s="7">
+        <v>0.65512775140129531</v>
+      </c>
+      <c r="P161" s="7">
+        <v>0.68629269358530298</v>
+      </c>
+      <c r="Q161" s="7">
+        <v>1.8677120806767324</v>
+      </c>
+      <c r="R161" s="7">
+        <v>0.61649943648510919</v>
+      </c>
+      <c r="S161" s="7">
+        <v>0.65275883538569135</v>
+      </c>
+      <c r="T161" s="7">
+        <v>1.8754259172276462</v>
+      </c>
+      <c r="U161" s="7">
+        <v>0.65713544306457006</v>
+      </c>
+      <c r="V161" s="7">
+        <v>0.6593420066737431</v>
+      </c>
+      <c r="W161" s="7">
+        <v>1.8299914111394007</v>
+      </c>
+      <c r="X161" s="7">
+        <v>0.69752467220596315</v>
+      </c>
+      <c r="Y161" s="7">
+        <v>0.7039253673259932</v>
+      </c>
+      <c r="Z161" s="7">
+        <v>1.7602787343455191</v>
+      </c>
+      <c r="AA161" s="7">
+        <v>0.69258470802974992</v>
+      </c>
+      <c r="AB161" s="7">
+        <v>0.70346475897006344</v>
+      </c>
+      <c r="AC161" s="7">
+        <v>1.748630574332195</v>
+      </c>
+      <c r="AD161" s="26"/>
+      <c r="AE161" s="7"/>
+      <c r="AF161" s="7"/>
+      <c r="AG161" s="7"/>
+      <c r="AH161" s="26"/>
+      <c r="AI161" s="7"/>
+      <c r="AJ161" s="7"/>
+      <c r="AK161" s="7"/>
+      <c r="AL161" s="26"/>
+      <c r="AM161" s="7"/>
+      <c r="AN161" s="7"/>
+      <c r="AO161" s="7"/>
+      <c r="AP161" s="26"/>
+      <c r="AQ161" s="7"/>
+      <c r="AR161" s="7"/>
+      <c r="AS161" s="7"/>
+      <c r="AT161" s="26"/>
+      <c r="AU161" s="7"/>
+      <c r="AV161" s="7"/>
+      <c r="AW161" s="7"/>
+      <c r="AX161" s="26"/>
+      <c r="AY161" s="7"/>
+      <c r="AZ161" s="7"/>
+      <c r="BA161" s="7"/>
+    </row>
+    <row r="162" spans="1:53" ht="18">
+      <c r="A162" s="4">
+        <v>0.998</v>
+      </c>
+      <c r="B162" s="38">
+        <v>800</v>
+      </c>
+      <c r="C162" s="7">
+        <v>0.64369499943235731</v>
+      </c>
+      <c r="D162" s="7">
+        <v>0.70705324764604771</v>
+      </c>
+      <c r="E162" s="7">
+        <v>1.8770139227398548</v>
+      </c>
+      <c r="F162" s="7">
+        <v>0.58565937318673489</v>
+      </c>
+      <c r="G162" s="7">
+        <v>0.58607290925759858</v>
+      </c>
+      <c r="H162" s="7">
+        <v>1.9305474636294009</v>
+      </c>
+      <c r="I162" s="7">
+        <v>0.59870530502520314</v>
+      </c>
+      <c r="J162" s="7">
+        <v>0.65092894488101127</v>
+      </c>
+      <c r="K162" s="7">
+        <v>1.9373096237014509</v>
+      </c>
+      <c r="L162" s="7">
+        <v>0.62432734281015756</v>
+      </c>
+      <c r="M162" s="7">
+        <v>0.64262528971112176</v>
+      </c>
+      <c r="N162" s="7">
+        <v>1.8768684581989281</v>
+      </c>
+      <c r="O162" s="7">
+        <v>0.65687452515868494</v>
+      </c>
+      <c r="P162" s="7">
+        <v>0.68270056341669449</v>
+      </c>
+      <c r="Q162" s="7">
+        <v>1.8669296768563481</v>
+      </c>
+      <c r="R162" s="7">
+        <v>0.60706195158050369</v>
+      </c>
+      <c r="S162" s="7">
+        <v>0.64543255683613177</v>
+      </c>
+      <c r="T162" s="7">
+        <v>1.8950238201040812</v>
+      </c>
+      <c r="U162" s="7">
+        <v>0.61877858183903678</v>
+      </c>
+      <c r="V162" s="7">
+        <v>0.62399039627819874</v>
+      </c>
+      <c r="W162" s="7">
+        <v>1.8910065155597984</v>
+      </c>
+      <c r="X162" s="7">
+        <v>0.66618850560546805</v>
+      </c>
+      <c r="Y162" s="7">
+        <v>0.66539117329897346</v>
+      </c>
+      <c r="Z162" s="7">
+        <v>1.8111218512996494</v>
+      </c>
+      <c r="AA162" s="7">
+        <v>0.65290345953218332</v>
+      </c>
+      <c r="AB162" s="7">
+        <v>0.64939120895711877</v>
+      </c>
+      <c r="AC162" s="7">
+        <v>1.818986507347822</v>
+      </c>
+      <c r="AD162" s="26"/>
+      <c r="AE162" s="7"/>
+      <c r="AF162" s="7"/>
+      <c r="AG162" s="7"/>
+      <c r="AH162" s="26"/>
+      <c r="AI162" s="7"/>
+      <c r="AJ162" s="7"/>
+      <c r="AK162" s="7"/>
+      <c r="AL162" s="26"/>
+      <c r="AM162" s="7"/>
+      <c r="AN162" s="7"/>
+      <c r="AO162" s="7"/>
+      <c r="AP162" s="26"/>
+      <c r="AQ162" s="7"/>
+      <c r="AR162" s="7"/>
+      <c r="AS162" s="7"/>
+      <c r="AT162" s="26"/>
+      <c r="AU162" s="7"/>
+      <c r="AV162" s="7"/>
+      <c r="AW162" s="7"/>
+      <c r="AX162" s="26"/>
+      <c r="AY162" s="7"/>
+      <c r="AZ162" s="7"/>
+      <c r="BA162" s="7"/>
+    </row>
+    <row r="163" spans="1:53" ht="18">
+      <c r="A163" s="4">
+        <v>0.997</v>
+      </c>
+      <c r="B163" s="38">
+        <v>570</v>
+      </c>
+      <c r="C163" s="7">
+        <v>0.6406842318433924</v>
+      </c>
+      <c r="D163" s="7">
+        <v>0.70274576648193376</v>
+      </c>
+      <c r="E163" s="7">
+        <v>1.8903502598816959</v>
+      </c>
+      <c r="F163" s="7">
+        <v>0.56754354522195816</v>
+      </c>
+      <c r="G163" s="7">
+        <v>0.57384736653146662</v>
+      </c>
+      <c r="H163" s="7">
+        <v>1.9620800317575153</v>
+      </c>
+      <c r="I163" s="7">
+        <v>0.59751197627059593</v>
+      </c>
+      <c r="J163" s="7">
+        <v>0.64789436769419428</v>
+      </c>
+      <c r="K163" s="7">
+        <v>1.9457647395039719</v>
+      </c>
+      <c r="L163" s="7">
+        <v>0.60042402487102708</v>
+      </c>
+      <c r="M163" s="7">
+        <v>0.63518329261817164</v>
+      </c>
+      <c r="N163" s="7">
+        <v>1.9144715527793998</v>
+      </c>
+      <c r="O163" s="7">
+        <v>0.65216103208956899</v>
+      </c>
+      <c r="P163" s="7">
+        <v>0.67388734204559486</v>
+      </c>
+      <c r="Q163" s="7">
+        <v>1.8797712863274083</v>
+      </c>
+      <c r="R163" s="7">
+        <v>0.60825011322184042</v>
+      </c>
+      <c r="S163" s="7">
+        <v>0.6512031088145831</v>
+      </c>
+      <c r="T163" s="7">
+        <v>1.8987321689223595</v>
+      </c>
+      <c r="U163" s="7">
+        <v>0.62700670928325031</v>
+      </c>
+      <c r="V163" s="7">
+        <v>0.6366962114204312</v>
+      </c>
+      <c r="W163" s="7">
+        <v>1.881843329115392</v>
+      </c>
+      <c r="X163" s="7">
+        <v>0.66580993355255447</v>
+      </c>
+      <c r="Y163" s="7">
+        <v>0.67971097889430088</v>
+      </c>
+      <c r="Z163" s="7">
+        <v>1.8114555232231591</v>
+      </c>
+      <c r="AA163" s="7">
+        <v>0.65590885810011712</v>
+      </c>
+      <c r="AB163" s="7">
+        <v>0.66715737814375919</v>
+      </c>
+      <c r="AC163" s="7">
+        <v>1.8125907488102146</v>
+      </c>
+      <c r="AD163" s="26"/>
+      <c r="AE163" s="7"/>
+      <c r="AF163" s="7"/>
+      <c r="AG163" s="7"/>
+      <c r="AH163" s="26"/>
+      <c r="AI163" s="7"/>
+      <c r="AJ163" s="7"/>
+      <c r="AK163" s="7"/>
+      <c r="AL163" s="26"/>
+      <c r="AM163" s="7"/>
+      <c r="AN163" s="7"/>
+      <c r="AO163" s="7"/>
+      <c r="AP163" s="26"/>
+      <c r="AQ163" s="7"/>
+      <c r="AR163" s="7"/>
+      <c r="AS163" s="7"/>
+      <c r="AT163" s="26"/>
+      <c r="AU163" s="7"/>
+      <c r="AV163" s="7"/>
+      <c r="AW163" s="7"/>
+      <c r="AX163" s="26"/>
+      <c r="AY163" s="7"/>
+      <c r="AZ163" s="7"/>
+      <c r="BA163" s="7"/>
+    </row>
+    <row r="164" spans="1:53" ht="18">
+      <c r="A164" s="4">
+        <v>0.996</v>
+      </c>
+      <c r="B164" s="38">
+        <v>407</v>
+      </c>
+      <c r="C164" s="7">
+        <v>0.63642587202700762</v>
+      </c>
+      <c r="D164" s="7">
+        <v>0.69636425296320315</v>
+      </c>
+      <c r="E164" s="7">
+        <v>1.9004971624355922</v>
+      </c>
+      <c r="F164" s="7">
+        <v>0.59328625957937786</v>
+      </c>
+      <c r="G164" s="7">
+        <v>0.61386753231532687</v>
+      </c>
+      <c r="H164" s="7">
+        <v>1.9293534809708237</v>
+      </c>
+      <c r="I164" s="7">
+        <v>0.5888650449509597</v>
+      </c>
+      <c r="J164" s="7">
+        <v>0.64362330145632207</v>
+      </c>
+      <c r="K164" s="7">
+        <v>1.9672755024159145</v>
+      </c>
+      <c r="L164" s="7">
+        <v>0.57686867219433902</v>
+      </c>
+      <c r="M164" s="7">
+        <v>0.61164986330720095</v>
+      </c>
+      <c r="N164" s="7">
+        <v>1.9572253299659592</v>
+      </c>
+      <c r="O164" s="7">
+        <v>0.64021836597184145</v>
+      </c>
+      <c r="P164" s="7">
+        <v>0.65488198742970527</v>
+      </c>
+      <c r="Q164" s="7">
+        <v>1.9003322471219648</v>
+      </c>
+      <c r="R164" s="7">
+        <v>0.62171537945863775</v>
+      </c>
+      <c r="S164" s="7">
+        <v>0.65272371521238259</v>
+      </c>
+      <c r="T164" s="7">
+        <v>1.8907560433298254</v>
+      </c>
+      <c r="U164" s="7">
+        <v>0.60672524281604867</v>
+      </c>
+      <c r="V164" s="7">
+        <v>0.61452971751851959</v>
+      </c>
+      <c r="W164" s="7">
+        <v>1.9188986620256963</v>
+      </c>
+      <c r="X164" s="7">
+        <v>0.63633130247142644</v>
+      </c>
+      <c r="Y164" s="7">
+        <v>0.65018082045188819</v>
+      </c>
+      <c r="Z164" s="7">
+        <v>1.8658744478312079</v>
+      </c>
+      <c r="AA164" s="7">
+        <v>0.62578743581334739</v>
+      </c>
+      <c r="AB164" s="7">
+        <v>0.63494683836377486</v>
+      </c>
+      <c r="AC164" s="7">
+        <v>1.8633464629505141</v>
+      </c>
+      <c r="AD164" s="26"/>
+      <c r="AE164" s="7"/>
+      <c r="AF164" s="7"/>
+      <c r="AG164" s="7"/>
+      <c r="AH164" s="26"/>
+      <c r="AI164" s="7"/>
+      <c r="AJ164" s="7"/>
+      <c r="AK164" s="7"/>
+      <c r="AL164" s="26"/>
+      <c r="AM164" s="7"/>
+      <c r="AN164" s="7"/>
+      <c r="AO164" s="7"/>
+      <c r="AP164" s="26"/>
+      <c r="AQ164" s="7"/>
+      <c r="AR164" s="7"/>
+      <c r="AS164" s="7"/>
+      <c r="AT164" s="26"/>
+      <c r="AU164" s="7"/>
+      <c r="AV164" s="7"/>
+      <c r="AW164" s="7"/>
+      <c r="AX164" s="26"/>
+      <c r="AY164" s="7"/>
+      <c r="AZ164" s="7"/>
+      <c r="BA164" s="7"/>
+    </row>
+    <row r="165" spans="1:53" ht="18">
+      <c r="A165" s="4">
+        <v>0.995</v>
+      </c>
+      <c r="B165" s="38">
+        <v>302</v>
+      </c>
+      <c r="C165" s="7">
+        <v>0.61887829470163502</v>
+      </c>
+      <c r="D165" s="7">
+        <v>0.67359602263566032</v>
+      </c>
+      <c r="E165" s="7">
+        <v>1.9258038826259143</v>
+      </c>
+      <c r="F165" s="7">
+        <v>0.60110043741178665</v>
+      </c>
+      <c r="G165" s="7">
+        <v>0.60992242012834819</v>
+      </c>
+      <c r="H165" s="7">
+        <v>1.9083061892781685</v>
+      </c>
+      <c r="I165" s="7">
+        <v>0.57416615049875985</v>
+      </c>
+      <c r="J165" s="7">
+        <v>0.6268619155175108</v>
+      </c>
+      <c r="K165" s="7">
+        <v>1.9943236945200371</v>
+      </c>
+      <c r="L165" s="7">
+        <v>0.52647640751323954</v>
+      </c>
+      <c r="M165" s="7">
+        <v>0.52078345508985013</v>
+      </c>
+      <c r="N165" s="7">
+        <v>2.0232431803940987</v>
+      </c>
+      <c r="O165" s="7">
+        <v>0.62502051293028671</v>
+      </c>
+      <c r="P165" s="7">
+        <v>0.63198428180885813</v>
+      </c>
+      <c r="Q165" s="7">
+        <v>1.9177356870216804</v>
+      </c>
+      <c r="R165" s="7">
+        <v>0.61139145076647761</v>
+      </c>
+      <c r="S165" s="7">
+        <v>0.62271474095091928</v>
+      </c>
+      <c r="T165" s="7">
+        <v>1.8997866484989547</v>
+      </c>
+      <c r="U165" s="7">
+        <v>0.58807949287811412</v>
+      </c>
+      <c r="V165" s="7">
+        <v>0.59998648612018424</v>
+      </c>
+      <c r="W165" s="7">
+        <v>1.9399908364049439</v>
+      </c>
+      <c r="X165" s="7">
+        <v>0.60721786205666639</v>
+      </c>
+      <c r="Y165" s="7">
+        <v>0.61885572983398773</v>
+      </c>
+      <c r="Z165" s="7">
+        <v>1.9119629219894805</v>
+      </c>
+      <c r="AA165" s="7">
+        <v>0.55355132068117874</v>
+      </c>
+      <c r="AB165" s="7">
+        <v>0.5533778081924231</v>
+      </c>
+      <c r="AC165" s="7">
+        <v>1.9791101831095232</v>
+      </c>
+      <c r="AD165" s="26"/>
+      <c r="AE165" s="7"/>
+      <c r="AF165" s="7"/>
+      <c r="AG165" s="7"/>
+      <c r="AH165" s="26"/>
+      <c r="AI165" s="7"/>
+      <c r="AJ165" s="7"/>
+      <c r="AK165" s="7"/>
+      <c r="AL165" s="26"/>
+      <c r="AM165" s="7"/>
+      <c r="AN165" s="7"/>
+      <c r="AO165" s="7"/>
+      <c r="AP165" s="26"/>
+      <c r="AQ165" s="7"/>
+      <c r="AR165" s="7"/>
+      <c r="AS165" s="7"/>
+      <c r="AT165" s="26"/>
+      <c r="AU165" s="7"/>
+      <c r="AV165" s="7"/>
+      <c r="AW165" s="7"/>
+      <c r="AX165" s="26"/>
+      <c r="AY165" s="7"/>
+      <c r="AZ165" s="7"/>
+      <c r="BA165" s="7"/>
+    </row>
+    <row r="166" spans="1:53" ht="18">
+      <c r="A166" s="4">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="B166" s="38">
+        <v>246</v>
+      </c>
+      <c r="C166" s="7">
+        <v>0.63217335508568173</v>
+      </c>
+      <c r="D166" s="7">
+        <v>0.68454882322861199</v>
+      </c>
+      <c r="E166" s="7">
+        <v>1.908804262436373</v>
+      </c>
+      <c r="F166" s="7">
+        <v>0.59846028365254555</v>
+      </c>
+      <c r="G166" s="7">
+        <v>0.60120080252726082</v>
+      </c>
+      <c r="H166" s="7">
+        <v>1.9109273801436655</v>
+      </c>
+      <c r="I166" s="7">
+        <v>0.58027246708671887</v>
+      </c>
+      <c r="J166" s="7">
+        <v>0.63493308161386108</v>
+      </c>
+      <c r="K166" s="7">
+        <v>1.9890398663014561</v>
+      </c>
+      <c r="L166" s="7">
+        <v>0.55311208010941293</v>
+      </c>
+      <c r="M166" s="7">
+        <v>0.56030853972093853</v>
+      </c>
+      <c r="N166" s="7">
+        <v>1.9894816030709808</v>
+      </c>
+      <c r="O166" s="7">
+        <v>0.62809649226490094</v>
+      </c>
+      <c r="P166" s="7">
+        <v>0.63490233123170159</v>
+      </c>
+      <c r="Q166" s="7">
+        <v>1.9109682525990113</v>
+      </c>
+      <c r="R166" s="7">
+        <v>0.62507633265197726</v>
+      </c>
+      <c r="S166" s="7">
+        <v>0.64334128808309399</v>
+      </c>
+      <c r="T166" s="7">
+        <v>1.8670508905367247</v>
+      </c>
+      <c r="U166" s="7">
+        <v>0.56164117492909604</v>
+      </c>
+      <c r="V166" s="7">
+        <v>0.57942354372584504</v>
+      </c>
+      <c r="W166" s="7">
+        <v>1.9811529156781194</v>
+      </c>
+      <c r="X166" s="7">
+        <v>0.5822641151122262</v>
+      </c>
+      <c r="Y166" s="7">
+        <v>0.59104524605282971</v>
+      </c>
+      <c r="Z166" s="7">
+        <v>1.9536150050693046</v>
+      </c>
+      <c r="AA166" s="7">
+        <v>0.50658664660215347</v>
+      </c>
+      <c r="AB166" s="7">
+        <v>0.51657825940744639</v>
+      </c>
+      <c r="AC166" s="7">
+        <v>2.0486842615463883</v>
+      </c>
+      <c r="AD166" s="26"/>
+      <c r="AE166" s="7"/>
+      <c r="AF166" s="7"/>
+      <c r="AG166" s="7"/>
+      <c r="AH166" s="26"/>
+      <c r="AI166" s="7"/>
+      <c r="AJ166" s="7"/>
+      <c r="AK166" s="7"/>
+      <c r="AL166" s="26"/>
+      <c r="AM166" s="7"/>
+      <c r="AN166" s="7"/>
+      <c r="AO166" s="7"/>
+      <c r="AP166" s="26"/>
+      <c r="AQ166" s="7"/>
+      <c r="AR166" s="7"/>
+      <c r="AS166" s="7"/>
+      <c r="AT166" s="26"/>
+      <c r="AU166" s="7"/>
+      <c r="AV166" s="7"/>
+      <c r="AW166" s="7"/>
+      <c r="AX166" s="26"/>
+      <c r="AY166" s="7"/>
+      <c r="AZ166" s="7"/>
+      <c r="BA166" s="7"/>
+    </row>
+    <row r="167" spans="1:53" ht="18">
+      <c r="A167" s="4">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="B167" s="38">
+        <v>187</v>
+      </c>
+      <c r="C167" s="7">
+        <v>0.64415389278690649</v>
+      </c>
+      <c r="D167" s="7">
+        <v>0.70582080469790831</v>
+      </c>
+      <c r="E167" s="7">
+        <v>1.9132585076764823</v>
+      </c>
+      <c r="F167" s="7">
+        <v>0.58697362108804874</v>
+      </c>
+      <c r="G167" s="7">
+        <v>0.58276869977247558</v>
+      </c>
+      <c r="H167" s="7">
+        <v>1.9345611317195626</v>
+      </c>
+      <c r="I167" s="7">
+        <v>0.59046737028741636</v>
+      </c>
+      <c r="J167" s="7">
+        <v>0.63853492242946719</v>
+      </c>
+      <c r="K167" s="7">
+        <v>1.9967982823163826</v>
+      </c>
+      <c r="L167" s="7">
+        <v>0.56685432999994156</v>
+      </c>
+      <c r="M167" s="7">
+        <v>0.5681626728568876</v>
+      </c>
+      <c r="N167" s="7">
+        <v>1.9672431907923467</v>
+      </c>
+      <c r="O167" s="7">
+        <v>0.61325814458431704</v>
+      </c>
+      <c r="P167" s="7">
+        <v>0.61656134671457896</v>
+      </c>
+      <c r="Q167" s="7">
+        <v>1.9538558825324643</v>
+      </c>
+      <c r="R167" s="7">
+        <v>0.62751368106281735</v>
+      </c>
+      <c r="S167" s="7">
+        <v>0.62923584502024343</v>
+      </c>
+      <c r="T167" s="7">
+        <v>1.8989690823367844</v>
+      </c>
+      <c r="U167" s="7">
+        <v>0.53479848023110665</v>
+      </c>
+      <c r="V167" s="7">
+        <v>0.54854627577866055</v>
+      </c>
+      <c r="W167" s="7">
+        <v>2.0257390922785006</v>
+      </c>
+      <c r="X167" s="7">
+        <v>0.54639023098725359</v>
+      </c>
+      <c r="Y167" s="7">
+        <v>0.55962458648405899</v>
+      </c>
+      <c r="Z167" s="7">
+        <v>2.0038274819184121</v>
+      </c>
+      <c r="AA167" s="7">
+        <v>0.38226925497690428</v>
+      </c>
+      <c r="AB167" s="7">
+        <v>0.4863638240399209</v>
+      </c>
+      <c r="AC167" s="7">
+        <v>2.2501494094805223</v>
+      </c>
+      <c r="AD167" s="26"/>
+      <c r="AE167" s="7"/>
+      <c r="AF167" s="7"/>
+      <c r="AG167" s="7"/>
+      <c r="AH167" s="26"/>
+      <c r="AI167" s="7"/>
+      <c r="AJ167" s="7"/>
+      <c r="AK167" s="7"/>
+      <c r="AL167" s="26"/>
+      <c r="AM167" s="7"/>
+      <c r="AN167" s="7"/>
+      <c r="AO167" s="7"/>
+      <c r="AP167" s="26"/>
+      <c r="AQ167" s="7"/>
+      <c r="AR167" s="7"/>
+      <c r="AS167" s="7"/>
+      <c r="AT167" s="26"/>
+      <c r="AU167" s="7"/>
+      <c r="AV167" s="7"/>
+      <c r="AW167" s="7"/>
+      <c r="AX167" s="26"/>
+      <c r="AY167" s="7"/>
+      <c r="AZ167" s="7"/>
+      <c r="BA167" s="7"/>
+    </row>
+    <row r="168" spans="1:53" ht="18">
+      <c r="A168" s="4">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="B168" s="38">
+        <v>150</v>
+      </c>
+      <c r="C168" s="7">
+        <v>0.63393267421676913</v>
+      </c>
+      <c r="D168" s="7">
+        <v>0.70158129806277891</v>
+      </c>
+      <c r="E168" s="7">
+        <v>1.9776002805667559</v>
+      </c>
+      <c r="F168" s="7">
+        <v>0.54260601167053402</v>
+      </c>
+      <c r="G168" s="7">
+        <v>0.5509311297592655</v>
+      </c>
+      <c r="H168" s="7">
+        <v>2.0171333305444161</v>
+      </c>
+      <c r="I168" s="7">
+        <v>0.57800769139388186</v>
+      </c>
+      <c r="J168" s="7">
+        <v>0.63336966744721301</v>
+      </c>
+      <c r="K168" s="7">
+        <v>2.0872752538581421</v>
+      </c>
+      <c r="L168" s="16">
+        <v>0.56080126371294103</v>
+      </c>
+      <c r="M168" s="16">
+        <v>0.55887201134172837</v>
+      </c>
+      <c r="N168" s="16">
+        <v>1.9965673015489422</v>
+      </c>
+      <c r="O168" s="16">
+        <v>0.59622561593722156</v>
+      </c>
+      <c r="P168" s="16">
+        <v>0.59486452443912863</v>
+      </c>
+      <c r="Q168" s="16">
+        <v>2.0449698941755838</v>
+      </c>
+      <c r="R168" s="16">
+        <v>0.58069116961459999</v>
+      </c>
+      <c r="S168" s="16">
+        <v>0.56842931103903582</v>
+      </c>
+      <c r="T168" s="16">
+        <v>2.0136214403606929</v>
+      </c>
+      <c r="U168" s="16">
+        <v>0.49422757938559753</v>
+      </c>
+      <c r="V168" s="16">
+        <v>0.54273307787547709</v>
+      </c>
+      <c r="W168" s="16">
+        <v>2.1027723187965188</v>
+      </c>
+      <c r="X168" s="16">
+        <v>0.48311689591578605</v>
+      </c>
+      <c r="Y168" s="16">
+        <v>0.52618136098976032</v>
+      </c>
+      <c r="Z168" s="16">
+        <v>2.1019882380312609</v>
+      </c>
+      <c r="AA168" s="16">
+        <v>0.36196341616856265</v>
+      </c>
+      <c r="AB168" s="16">
+        <v>0.48613619028988053</v>
+      </c>
+      <c r="AC168" s="16">
+        <v>2.2794231552407038</v>
+      </c>
+      <c r="AD168" s="26"/>
+      <c r="AE168" s="7"/>
+      <c r="AF168" s="7"/>
+      <c r="AG168" s="7"/>
+      <c r="AH168" s="26"/>
+      <c r="AI168" s="7"/>
+      <c r="AJ168" s="7"/>
+      <c r="AK168" s="7"/>
+      <c r="AL168" s="26"/>
+      <c r="AM168" s="7"/>
+      <c r="AN168" s="7"/>
+      <c r="AO168" s="7"/>
+      <c r="AP168" s="26"/>
+      <c r="AQ168" s="7"/>
+      <c r="AR168" s="7"/>
+      <c r="AS168" s="7"/>
+      <c r="AT168" s="26"/>
+      <c r="AU168" s="7"/>
+      <c r="AV168" s="7"/>
+      <c r="AW168" s="7"/>
+      <c r="AX168" s="26"/>
+      <c r="AY168" s="7"/>
+      <c r="AZ168" s="7"/>
+      <c r="BA168" s="7"/>
+    </row>
+    <row r="169" spans="1:53" ht="18">
+      <c r="A169" s="4">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="B169" s="38">
+        <v>131</v>
+      </c>
+      <c r="C169" s="7">
+        <v>0.63618947345031529</v>
+      </c>
+      <c r="D169" s="7">
+        <v>0.70566705278710962</v>
+      </c>
+      <c r="E169" s="7">
+        <v>1.9948180143085312</v>
+      </c>
+      <c r="F169" s="7">
+        <v>0.56157717137654561</v>
+      </c>
+      <c r="G169" s="7">
+        <v>0.5613589889599272</v>
+      </c>
+      <c r="H169" s="7">
+        <v>2.004213219629253</v>
+      </c>
+      <c r="I169" s="7">
+        <v>0.57051846322412281</v>
+      </c>
+      <c r="J169" s="7">
+        <v>0.61637037065695555</v>
+      </c>
+      <c r="K169" s="7">
+        <v>2.1146495347210039</v>
+      </c>
+      <c r="L169" s="7">
+        <v>0.55446192853279852</v>
+      </c>
+      <c r="M169" s="7">
+        <v>0.54964778683644588</v>
+      </c>
+      <c r="N169" s="7">
+        <v>2.0188120761464532</v>
+      </c>
+      <c r="O169" s="7">
+        <v>0.60118803591762504</v>
+      </c>
+      <c r="P169" s="7">
+        <v>0.59756974884860292</v>
+      </c>
+      <c r="Q169" s="7">
+        <v>2.047094432081725</v>
+      </c>
+      <c r="R169" s="7">
+        <v>0.58339423440455918</v>
+      </c>
+      <c r="S169" s="7">
+        <v>0.57453042962570455</v>
+      </c>
+      <c r="T169" s="7">
+        <v>2.0323942083879967</v>
+      </c>
+      <c r="U169" s="7">
+        <v>0.50950490258270387</v>
+      </c>
+      <c r="V169" s="7">
+        <v>0.53775661405527209</v>
+      </c>
+      <c r="W169" s="7">
+        <v>2.1167825087304992</v>
+      </c>
+      <c r="X169" s="7">
+        <v>0.51484409767033934</v>
+      </c>
+      <c r="Y169" s="7">
+        <v>0.53658559094939384</v>
+      </c>
+      <c r="Z169" s="7">
+        <v>2.0876163820431382</v>
+      </c>
+      <c r="AA169" s="7">
+        <v>0.42533753480185277</v>
+      </c>
+      <c r="AB169" s="7">
+        <v>0.4728768682687729</v>
+      </c>
+      <c r="AC169" s="7">
+        <v>2.2066733607580704</v>
+      </c>
+      <c r="AD169" s="26"/>
+      <c r="AE169" s="7"/>
+      <c r="AF169" s="7"/>
+      <c r="AG169" s="7"/>
+      <c r="AH169" s="26"/>
+      <c r="AI169" s="7"/>
+      <c r="AJ169" s="7"/>
+      <c r="AK169" s="7"/>
+      <c r="AL169" s="26"/>
+      <c r="AM169" s="7"/>
+      <c r="AN169" s="7"/>
+      <c r="AO169" s="7"/>
+      <c r="AP169" s="26"/>
+      <c r="AQ169" s="7"/>
+      <c r="AR169" s="7"/>
+      <c r="AS169" s="7"/>
+      <c r="AT169" s="26"/>
+      <c r="AU169" s="7"/>
+      <c r="AV169" s="7"/>
+      <c r="AW169" s="7"/>
+      <c r="AX169" s="26"/>
+      <c r="AY169" s="7"/>
+      <c r="AZ169" s="7"/>
+      <c r="BA169" s="7"/>
+    </row>
+    <row r="170" spans="1:53" ht="18">
+      <c r="A170" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="B170" s="38">
+        <v>107</v>
+      </c>
+      <c r="C170" s="7">
+        <v>0.63069566099641283</v>
+      </c>
+      <c r="D170" s="7">
+        <v>0.6787839357942429</v>
+      </c>
+      <c r="E170" s="7">
+        <v>1.953964052842537</v>
+      </c>
+      <c r="F170" s="7">
+        <v>0.53287160270041234</v>
+      </c>
+      <c r="G170" s="7">
+        <v>0.53902830420169423</v>
+      </c>
+      <c r="H170" s="7">
+        <v>2.0615293814425741</v>
+      </c>
+      <c r="I170" s="7">
+        <v>0.55144656195155395</v>
+      </c>
+      <c r="J170" s="7">
+        <v>0.60270263500753107</v>
+      </c>
+      <c r="K170" s="7">
+        <v>2.0533397580248662</v>
+      </c>
+      <c r="L170" s="7">
+        <v>0.52671334008469395</v>
+      </c>
+      <c r="M170" s="7">
+        <v>0.52531201531728089</v>
+      </c>
+      <c r="N170" s="7">
+        <v>2.0218223028285065</v>
+      </c>
+      <c r="O170" s="7">
+        <v>0.585461581808011</v>
+      </c>
+      <c r="P170" s="7">
+        <v>0.58679173990161193</v>
+      </c>
+      <c r="Q170" s="7">
+        <v>1.997617335607194</v>
+      </c>
+      <c r="R170" s="7">
+        <v>0.5782770987852881</v>
+      </c>
+      <c r="S170" s="7">
+        <v>0.5710891381737957</v>
+      </c>
+      <c r="T170" s="7">
+        <v>2.0520489530427737</v>
+      </c>
+      <c r="U170" s="7">
+        <v>0.46078301154969881</v>
+      </c>
+      <c r="V170" s="7">
+        <v>0.51467432521940837</v>
+      </c>
+      <c r="W170" s="7">
+        <v>2.1475939294690587</v>
+      </c>
+      <c r="X170" s="7">
+        <v>0.50594827937804787</v>
+      </c>
+      <c r="Y170" s="7">
+        <v>0.49946591450172251</v>
+      </c>
+      <c r="Z170" s="7">
+        <v>2.0795899327389904</v>
+      </c>
+      <c r="AA170" s="7">
+        <v>0.3991440417941759</v>
+      </c>
+      <c r="AB170" s="7">
+        <v>0.42904794396619461</v>
+      </c>
+      <c r="AC170" s="7">
+        <v>2.2065406632165461</v>
+      </c>
+      <c r="AD170" s="26"/>
+      <c r="AE170" s="7"/>
+      <c r="AF170" s="7"/>
+      <c r="AG170" s="7"/>
+      <c r="AH170" s="26"/>
+      <c r="AI170" s="7"/>
+      <c r="AJ170" s="7"/>
+      <c r="AK170" s="7"/>
+      <c r="AL170" s="26"/>
+      <c r="AM170" s="7"/>
+      <c r="AN170" s="7"/>
+      <c r="AO170" s="7"/>
+      <c r="AP170" s="26"/>
+      <c r="AQ170" s="7"/>
+      <c r="AR170" s="7"/>
+      <c r="AS170" s="7"/>
+      <c r="AT170" s="26"/>
+      <c r="AU170" s="7"/>
+      <c r="AV170" s="7"/>
+      <c r="AW170" s="7"/>
+      <c r="AX170" s="26"/>
+      <c r="AY170" s="7"/>
+      <c r="AZ170" s="7"/>
+      <c r="BA170" s="7"/>
+    </row>
+    <row r="171" spans="1:53" ht="18">
+      <c r="A171" s="4">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="B171" s="38">
+        <v>91</v>
+      </c>
+      <c r="C171" s="7">
+        <v>0.64454772413895256</v>
+      </c>
+      <c r="D171" s="7">
+        <v>0.69603409096527735</v>
+      </c>
+      <c r="E171" s="7">
+        <v>1.9637193592489894</v>
+      </c>
+      <c r="F171" s="16">
+        <v>0.55079652863393724</v>
+      </c>
+      <c r="G171" s="16">
+        <v>0.56924435801038586</v>
+      </c>
+      <c r="H171" s="16">
+        <v>2.1370864639453186</v>
+      </c>
+      <c r="I171" s="16">
+        <v>0.58317422727050972</v>
+      </c>
+      <c r="J171" s="16">
+        <v>0.63805262696190923</v>
+      </c>
+      <c r="K171" s="16">
+        <v>2.0081707994174525</v>
+      </c>
+      <c r="L171" s="7">
+        <v>0.5644498489941705</v>
+      </c>
+      <c r="M171" s="7">
+        <v>0.59627540052585259</v>
+      </c>
+      <c r="N171" s="7">
+        <v>2.0704481947269575</v>
+      </c>
+      <c r="O171" s="7">
+        <v>0.5935024284446524</v>
+      </c>
+      <c r="P171" s="7">
+        <v>0.58613465278809318</v>
+      </c>
+      <c r="Q171" s="7">
+        <v>2.00076091999146</v>
+      </c>
+      <c r="R171" s="7">
+        <v>0.61640886673469097</v>
+      </c>
+      <c r="S171" s="7">
+        <v>0.60510480630861552</v>
+      </c>
+      <c r="T171" s="7">
+        <v>2.0693039566046374</v>
+      </c>
+      <c r="U171" s="7">
+        <v>0.56693166139319273</v>
+      </c>
+      <c r="V171" s="7">
+        <v>0.60368535248371002</v>
+      </c>
+      <c r="W171" s="7">
+        <v>2.0797850366878099</v>
+      </c>
+      <c r="X171" s="7">
+        <v>0.5750487811273931</v>
+      </c>
+      <c r="Y171" s="7">
+        <v>0.61050659646732508</v>
+      </c>
+      <c r="Z171" s="7">
+        <v>2.0915905978587142</v>
+      </c>
+      <c r="AA171" s="7">
+        <v>0.54191496445415066</v>
+      </c>
+      <c r="AB171" s="7">
+        <v>0.53903542534282589</v>
+      </c>
+      <c r="AC171" s="7">
+        <v>2.1287453190239654</v>
+      </c>
+      <c r="AD171" s="26"/>
+      <c r="AE171" s="7"/>
+      <c r="AF171" s="7"/>
+      <c r="AG171" s="7"/>
+      <c r="AH171" s="26"/>
+      <c r="AI171" s="7"/>
+      <c r="AJ171" s="7"/>
+      <c r="AK171" s="7"/>
+      <c r="AL171" s="26"/>
+      <c r="AM171" s="7"/>
+      <c r="AN171" s="7"/>
+      <c r="AO171" s="7"/>
+      <c r="AP171" s="26"/>
+      <c r="AQ171" s="7"/>
+      <c r="AR171" s="7"/>
+      <c r="AS171" s="7"/>
+      <c r="AT171" s="26"/>
+      <c r="AU171" s="7"/>
+      <c r="AV171" s="7"/>
+      <c r="AW171" s="7"/>
+      <c r="AX171" s="26"/>
+      <c r="AY171" s="7"/>
+      <c r="AZ171" s="7"/>
+      <c r="BA171" s="7"/>
+    </row>
+    <row r="172" spans="1:53" ht="18">
+      <c r="A172" s="4">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="B172" s="39">
+        <v>83</v>
+      </c>
+      <c r="C172" s="16">
+        <v>0.64275016240675864</v>
+      </c>
+      <c r="D172" s="16">
+        <v>0.69525642998486892</v>
+      </c>
+      <c r="E172" s="16">
+        <v>1.9620326707400868</v>
+      </c>
+      <c r="F172" s="7">
+        <v>0.55632894846810299</v>
+      </c>
+      <c r="G172" s="7">
+        <v>0.57610726613094365</v>
+      </c>
+      <c r="H172" s="7">
+        <v>2.0954811514884319</v>
+      </c>
+      <c r="I172" s="7">
+        <v>0.58164236659923141</v>
+      </c>
+      <c r="J172" s="7">
+        <v>0.63773055716981519</v>
+      </c>
+      <c r="K172" s="7">
+        <v>2.0164262012749714</v>
+      </c>
+      <c r="L172" s="7">
+        <v>0.55822132679740544</v>
+      </c>
+      <c r="M172" s="7">
+        <v>0.587794040515903</v>
+      </c>
+      <c r="N172" s="7">
+        <v>2.063058958205926</v>
+      </c>
+      <c r="O172" s="7">
+        <v>0.58300390480604913</v>
+      </c>
+      <c r="P172" s="7">
+        <v>0.57414362218695825</v>
+      </c>
+      <c r="Q172" s="7">
+        <v>2.035298133384654</v>
+      </c>
+      <c r="R172" s="7">
+        <v>0.61844051495562469</v>
+      </c>
+      <c r="S172" s="7">
+        <v>0.60959395749364698</v>
+      </c>
+      <c r="T172" s="7">
+        <v>2.0482270498060182</v>
+      </c>
+      <c r="U172" s="7">
+        <v>0.56613841675178422</v>
+      </c>
+      <c r="V172" s="7">
+        <v>0.61040892354293852</v>
+      </c>
+      <c r="W172" s="7">
+        <v>2.0702729766959838</v>
+      </c>
+      <c r="X172" s="7">
+        <v>0.57653231676838079</v>
+      </c>
+      <c r="Y172" s="7">
+        <v>0.60985056134056426</v>
+      </c>
+      <c r="Z172" s="7">
+        <v>2.0750066230334041</v>
+      </c>
+      <c r="AA172" s="7">
+        <v>0.54252647183098257</v>
+      </c>
+      <c r="AB172" s="7">
+        <v>0.53830914986944767</v>
+      </c>
+      <c r="AC172" s="7">
+        <v>2.1211691415452956</v>
+      </c>
+      <c r="AD172" s="26"/>
+      <c r="AE172" s="7"/>
+      <c r="AF172" s="7"/>
+      <c r="AG172" s="7"/>
+      <c r="AH172" s="26"/>
+      <c r="AI172" s="7"/>
+      <c r="AJ172" s="7"/>
+      <c r="AK172" s="7"/>
+      <c r="AL172" s="26"/>
+      <c r="AM172" s="7"/>
+      <c r="AN172" s="7"/>
+      <c r="AO172" s="7"/>
+      <c r="AP172" s="26"/>
+      <c r="AQ172" s="7"/>
+      <c r="AR172" s="7"/>
+      <c r="AS172" s="7"/>
+      <c r="AT172" s="26"/>
+      <c r="AU172" s="7"/>
+      <c r="AV172" s="7"/>
+      <c r="AW172" s="7"/>
+      <c r="AX172" s="26"/>
+      <c r="AY172" s="7"/>
+      <c r="AZ172" s="7"/>
+      <c r="BA172" s="7"/>
+    </row>
+    <row r="173" spans="1:53" ht="18">
+      <c r="A173" s="4">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="B173" s="38">
+        <v>67</v>
+      </c>
+      <c r="C173" s="7">
+        <v>0.63947094463484444</v>
+      </c>
+      <c r="D173" s="7">
+        <v>0.693656600891979</v>
+      </c>
+      <c r="E173" s="7">
+        <v>1.9404413412771135</v>
+      </c>
+      <c r="F173" s="7">
+        <v>0.58276524445977762</v>
+      </c>
+      <c r="G173" s="7">
+        <v>0.59134450151714479</v>
+      </c>
+      <c r="H173" s="7">
+        <v>1.982659513467486</v>
+      </c>
+      <c r="I173" s="7">
+        <v>0.59389084361626554</v>
+      </c>
+      <c r="J173" s="7">
+        <v>0.64797852663484223</v>
+      </c>
+      <c r="K173" s="7">
+        <v>2.0015612229282849</v>
+      </c>
+      <c r="L173" s="7">
+        <v>0.59274026878161945</v>
+      </c>
+      <c r="M173" s="7">
+        <v>0.59783815097695103</v>
+      </c>
+      <c r="N173" s="7">
+        <v>1.9413546234198775</v>
+      </c>
+      <c r="O173" s="7">
+        <v>0.58752252493065005</v>
+      </c>
+      <c r="P173" s="7">
+        <v>0.58655382905016551</v>
+      </c>
+      <c r="Q173" s="7">
+        <v>2.0093263187303561</v>
+      </c>
+      <c r="R173" s="7">
+        <v>0.60367572886906484</v>
+      </c>
+      <c r="S173" s="7">
+        <v>0.60572742062529217</v>
+      </c>
+      <c r="T173" s="7">
+        <v>2.0405745775629489</v>
+      </c>
+      <c r="U173" s="7">
+        <v>0.58008331773764332</v>
+      </c>
+      <c r="V173" s="7">
+        <v>0.61548297936547169</v>
+      </c>
+      <c r="W173" s="7">
+        <v>1.9530950058590508</v>
+      </c>
+      <c r="X173" s="7">
+        <v>0.60888268463925321</v>
+      </c>
+      <c r="Y173" s="7">
+        <v>0.63179322482917633</v>
+      </c>
+      <c r="Z173" s="7">
+        <v>1.9082790209685734</v>
+      </c>
+      <c r="AA173" s="7">
+        <v>0.58365154844742273</v>
+      </c>
+      <c r="AB173" s="7">
+        <v>0.57190726018336169</v>
+      </c>
+      <c r="AC173" s="7">
+        <v>1.9306103900362868</v>
+      </c>
+      <c r="AD173" s="26"/>
+      <c r="AE173" s="7"/>
+      <c r="AF173" s="7"/>
+      <c r="AG173" s="7"/>
+      <c r="AH173" s="26"/>
+      <c r="AI173" s="7"/>
+      <c r="AJ173" s="7"/>
+      <c r="AK173" s="7"/>
+      <c r="AL173" s="26"/>
+      <c r="AM173" s="7"/>
+      <c r="AN173" s="7"/>
+      <c r="AO173" s="7"/>
+      <c r="AP173" s="26"/>
+      <c r="AQ173" s="7"/>
+      <c r="AR173" s="7"/>
+      <c r="AS173" s="7"/>
+      <c r="AT173" s="26"/>
+      <c r="AU173" s="7"/>
+      <c r="AV173" s="7"/>
+      <c r="AW173" s="7"/>
+      <c r="AX173" s="26"/>
+      <c r="AY173" s="7"/>
+      <c r="AZ173" s="7"/>
+      <c r="BA173" s="7"/>
+    </row>
+    <row r="174" spans="1:53" ht="18">
+      <c r="A174" s="4">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="B174" s="38">
+        <v>56</v>
+      </c>
+      <c r="C174" s="7">
+        <v>0.60498189928866075</v>
+      </c>
+      <c r="D174" s="7">
+        <v>0.65536428289726334</v>
+      </c>
+      <c r="E174" s="7">
+        <v>2.026328590116091</v>
+      </c>
+      <c r="F174" s="7">
+        <v>0.55298023293899112</v>
+      </c>
+      <c r="G174" s="7">
+        <v>0.55001218724954781</v>
+      </c>
+      <c r="H174" s="7">
+        <v>1.9928923376809948</v>
+      </c>
+      <c r="I174" s="7">
+        <v>0.59196764562180981</v>
+      </c>
+      <c r="J174" s="7">
+        <v>0.63911432436700366</v>
+      </c>
+      <c r="K174" s="7">
+        <v>2.0017722657529942</v>
+      </c>
+      <c r="L174" s="7">
+        <v>0.57391309928555068</v>
+      </c>
+      <c r="M174" s="7">
+        <v>0.58607056251790746</v>
+      </c>
+      <c r="N174" s="7">
+        <v>1.9623274310684136</v>
+      </c>
+      <c r="O174" s="7">
+        <v>0.58218006655378818</v>
+      </c>
+      <c r="P174" s="7">
+        <v>0.58227467060646176</v>
+      </c>
+      <c r="Q174" s="7">
+        <v>2.0084419881903277</v>
+      </c>
+      <c r="R174" s="7">
+        <v>0.60808712251608044</v>
+      </c>
+      <c r="S174" s="7">
+        <v>0.62266473111888054</v>
+      </c>
+      <c r="T174" s="7">
+        <v>1.91303602773643</v>
+      </c>
+      <c r="U174" s="7">
+        <v>0.51811906162266785</v>
+      </c>
+      <c r="V174" s="7">
+        <v>0.55849831327642929</v>
+      </c>
+      <c r="W174" s="7">
+        <v>2.0436667603355749</v>
+      </c>
+      <c r="X174" s="7">
+        <v>0.57561988857562663</v>
+      </c>
+      <c r="Y174" s="7">
+        <v>0.59937107386669752</v>
+      </c>
+      <c r="Z174" s="7">
+        <v>1.9716147949070149</v>
+      </c>
+      <c r="AA174" s="7">
+        <v>0.54637117067668717</v>
+      </c>
+      <c r="AB174" s="7">
+        <v>0.5373314495608843</v>
+      </c>
+      <c r="AC174" s="7">
+        <v>1.9993519311047385</v>
+      </c>
+      <c r="AD174" s="26"/>
+      <c r="AE174" s="7"/>
+      <c r="AF174" s="7"/>
+      <c r="AG174" s="7"/>
+      <c r="AH174" s="26"/>
+      <c r="AI174" s="7"/>
+      <c r="AJ174" s="7"/>
+      <c r="AK174" s="7"/>
+      <c r="AL174" s="26"/>
+      <c r="AM174" s="7"/>
+      <c r="AN174" s="7"/>
+      <c r="AO174" s="7"/>
+      <c r="AP174" s="26"/>
+      <c r="AQ174" s="7"/>
+      <c r="AR174" s="7"/>
+      <c r="AS174" s="7"/>
+      <c r="AT174" s="26"/>
+      <c r="AU174" s="7"/>
+      <c r="AV174" s="7"/>
+      <c r="AW174" s="7"/>
+      <c r="AX174" s="26"/>
+      <c r="AY174" s="7"/>
+      <c r="AZ174" s="7"/>
+      <c r="BA174" s="7"/>
+    </row>
+    <row r="175" spans="1:53" ht="18">
+      <c r="A175" s="4">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="B175" s="38">
+        <v>54</v>
+      </c>
+      <c r="C175" s="7">
+        <v>0.60041683468343787</v>
+      </c>
+      <c r="D175" s="7">
+        <v>0.64861700167494829</v>
+      </c>
+      <c r="E175" s="7">
+        <v>2.0229329493314134</v>
+      </c>
+      <c r="F175" s="7">
+        <v>0.54612525729974659</v>
+      </c>
+      <c r="G175" s="7">
+        <v>0.54165688091648079</v>
+      </c>
+      <c r="H175" s="7">
+        <v>1.9927484053373792</v>
+      </c>
+      <c r="I175" s="7">
+        <v>0.58578904617943717</v>
+      </c>
+      <c r="J175" s="7">
+        <v>0.63736236180448114</v>
+      </c>
+      <c r="K175" s="7">
+        <v>1.9943460456423949</v>
+      </c>
+      <c r="L175" s="7">
+        <v>0.5756215689174693</v>
+      </c>
+      <c r="M175" s="7">
+        <v>0.58546146218496964</v>
+      </c>
+      <c r="N175" s="7">
+        <v>1.9607085174655563</v>
+      </c>
+      <c r="O175" s="7">
+        <v>0.57912834521903522</v>
+      </c>
+      <c r="P175" s="7">
+        <v>0.57680919478785853</v>
+      </c>
+      <c r="Q175" s="7">
+        <v>1.9942273996110651</v>
+      </c>
+      <c r="R175" s="7">
+        <v>0.59909141835549096</v>
+      </c>
+      <c r="S175" s="7">
+        <v>0.61284426515869239</v>
+      </c>
+      <c r="T175" s="7">
+        <v>1.9155450484519434</v>
+      </c>
+      <c r="U175" s="7">
+        <v>0.52769434116572922</v>
+      </c>
+      <c r="V175" s="7">
+        <v>0.55082771136873876</v>
+      </c>
+      <c r="W175" s="7">
+        <v>2.0428955435686267</v>
+      </c>
+      <c r="X175" s="7">
+        <v>0.58005279784414299</v>
+      </c>
+      <c r="Y175" s="7">
+        <v>0.59308423915619579</v>
+      </c>
+      <c r="Z175" s="7">
+        <v>1.9746253360142176</v>
+      </c>
+      <c r="AA175" s="7">
+        <v>0.55892735427542051</v>
+      </c>
+      <c r="AB175" s="7">
+        <v>0.55449971160890399</v>
+      </c>
+      <c r="AC175" s="7">
+        <v>2.0477278082048764</v>
+      </c>
+      <c r="AD175" s="26"/>
+      <c r="AE175" s="7"/>
+      <c r="AF175" s="7"/>
+      <c r="AG175" s="7"/>
+      <c r="AH175" s="26"/>
+      <c r="AI175" s="7"/>
+      <c r="AJ175" s="7"/>
+      <c r="AK175" s="7"/>
+      <c r="AL175" s="26"/>
+      <c r="AM175" s="7"/>
+      <c r="AN175" s="7"/>
+      <c r="AO175" s="7"/>
+      <c r="AP175" s="26"/>
+      <c r="AQ175" s="7"/>
+      <c r="AR175" s="7"/>
+      <c r="AS175" s="7"/>
+      <c r="AT175" s="26"/>
+      <c r="AU175" s="7"/>
+      <c r="AV175" s="7"/>
+      <c r="AW175" s="7"/>
+      <c r="AX175" s="26"/>
+      <c r="AY175" s="7"/>
+      <c r="AZ175" s="7"/>
+      <c r="BA175" s="7"/>
+    </row>
+    <row r="176" spans="1:53" ht="18">
+      <c r="A176" s="4">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="B176" s="38">
+        <v>53</v>
+      </c>
+      <c r="C176" s="7">
+        <v>0.5989439600440789</v>
+      </c>
+      <c r="D176" s="7">
+        <v>0.64651060049700593</v>
+      </c>
+      <c r="E176" s="7">
+        <v>2.0186768515049569</v>
+      </c>
+      <c r="F176" s="7">
+        <v>0.54647614471515982</v>
+      </c>
+      <c r="G176" s="7">
+        <v>0.54370882765452433</v>
+      </c>
+      <c r="H176" s="7">
+        <v>1.992284672852406</v>
+      </c>
+      <c r="I176" s="7">
+        <v>0.58227985036531305</v>
+      </c>
+      <c r="J176" s="7">
+        <v>0.63122846978419489</v>
+      </c>
+      <c r="K176" s="7">
+        <v>1.9948622987696081</v>
+      </c>
+      <c r="L176" s="7">
+        <v>0.57627556905382238</v>
+      </c>
+      <c r="M176" s="7">
+        <v>0.58702196315751853</v>
+      </c>
+      <c r="N176" s="7">
+        <v>1.9602960270016088</v>
+      </c>
+      <c r="O176" s="7">
+        <v>0.57973812027154359</v>
+      </c>
+      <c r="P176" s="7">
+        <v>0.57834833233701211</v>
+      </c>
+      <c r="Q176" s="7">
+        <v>1.9910784143978471</v>
+      </c>
+      <c r="R176" s="7">
+        <v>0.60001409490320634</v>
+      </c>
+      <c r="S176" s="7">
+        <v>0.61478866812937971</v>
+      </c>
+      <c r="T176" s="7">
+        <v>1.9152811133659395</v>
+      </c>
+      <c r="U176" s="7">
+        <v>0.53066158265176511</v>
+      </c>
+      <c r="V176" s="7">
+        <v>0.55431537116006235</v>
+      </c>
+      <c r="W176" s="7">
+        <v>2.0416963313715373</v>
+      </c>
+      <c r="X176" s="7">
+        <v>0.58298832600579176</v>
+      </c>
+      <c r="Y176" s="7">
+        <v>0.59819357699615439</v>
+      </c>
+      <c r="Z176" s="7">
+        <v>1.970660058706184</v>
+      </c>
+      <c r="AA176" s="7">
+        <v>0.56230890485206131</v>
+      </c>
+      <c r="AB176" s="7">
+        <v>0.56153062464561343</v>
+      </c>
+      <c r="AC176" s="7">
+        <v>2.0527356940422186</v>
+      </c>
+      <c r="AD176" s="26"/>
+      <c r="AE176" s="7"/>
+      <c r="AF176" s="7"/>
+      <c r="AG176" s="7"/>
+      <c r="AH176" s="26"/>
+      <c r="AI176" s="7"/>
+      <c r="AJ176" s="7"/>
+      <c r="AK176" s="7"/>
+      <c r="AL176" s="26"/>
+      <c r="AM176" s="7"/>
+      <c r="AN176" s="7"/>
+      <c r="AO176" s="7"/>
+      <c r="AP176" s="26"/>
+      <c r="AQ176" s="7"/>
+      <c r="AR176" s="7"/>
+      <c r="AS176" s="7"/>
+      <c r="AT176" s="26"/>
+      <c r="AU176" s="7"/>
+      <c r="AV176" s="7"/>
+      <c r="AW176" s="7"/>
+      <c r="AX176" s="26"/>
+      <c r="AY176" s="7"/>
+      <c r="AZ176" s="7"/>
+      <c r="BA176" s="7"/>
+    </row>
+    <row r="177" spans="1:53" ht="18">
+      <c r="A177" s="4">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="B177" s="38">
+        <v>47</v>
+      </c>
+      <c r="C177" s="7">
+        <v>0.54799694687729772</v>
+      </c>
+      <c r="D177" s="7">
+        <v>0.58592991998055577</v>
+      </c>
+      <c r="E177" s="7">
+        <v>2.0944494191334999</v>
+      </c>
+      <c r="F177" s="7">
+        <v>0.45661609625447763</v>
+      </c>
+      <c r="G177" s="7">
+        <v>0.41138413723395917</v>
+      </c>
+      <c r="H177" s="7">
+        <v>2.1457774974093935</v>
+      </c>
+      <c r="I177" s="7">
+        <v>0.48261345424273727</v>
+      </c>
+      <c r="J177" s="7">
+        <v>0.52683658689593771</v>
+      </c>
+      <c r="K177" s="7">
+        <v>2.22491268989284</v>
+      </c>
+      <c r="L177" s="7">
+        <v>0.47438163709776682</v>
+      </c>
+      <c r="M177" s="7">
+        <v>0.44375698466201785</v>
+      </c>
+      <c r="N177" s="7">
+        <v>2.1239440027425278</v>
+      </c>
+      <c r="O177" s="7">
+        <v>0.54256480506258609</v>
+      </c>
+      <c r="P177" s="7">
+        <v>0.53832266385318639</v>
+      </c>
+      <c r="Q177" s="7">
+        <v>2.1661829305410691</v>
+      </c>
+      <c r="R177" s="7">
+        <v>0.53884906656065001</v>
+      </c>
+      <c r="S177" s="7">
+        <v>0.55140792651907389</v>
+      </c>
+      <c r="T177" s="7">
+        <v>2.0897045996066002</v>
+      </c>
+      <c r="U177" s="7">
+        <v>0.47631045389580506</v>
+      </c>
+      <c r="V177" s="7">
+        <v>0.47402383658877645</v>
+      </c>
+      <c r="W177" s="7">
+        <v>2.1801536009991911</v>
+      </c>
+      <c r="X177" s="7">
+        <v>0.48749576675153544</v>
+      </c>
+      <c r="Y177" s="7">
+        <v>0.45716674078953351</v>
+      </c>
+      <c r="Z177" s="7">
+        <v>2.1366394667152431</v>
+      </c>
+      <c r="AA177" s="7">
+        <v>0.46535853950284245</v>
+      </c>
+      <c r="AB177" s="7">
+        <v>0.42291688421794948</v>
+      </c>
+      <c r="AC177" s="7">
+        <v>2.1116590085026461</v>
+      </c>
+      <c r="AD177" s="26"/>
+      <c r="AE177" s="7"/>
+      <c r="AF177" s="7"/>
+      <c r="AG177" s="7"/>
+      <c r="AH177" s="26"/>
+      <c r="AI177" s="7"/>
+      <c r="AJ177" s="7"/>
+      <c r="AK177" s="7"/>
+      <c r="AL177" s="26"/>
+      <c r="AM177" s="7"/>
+      <c r="AN177" s="7"/>
+      <c r="AO177" s="7"/>
+      <c r="AP177" s="26"/>
+      <c r="AQ177" s="7"/>
+      <c r="AR177" s="7"/>
+      <c r="AS177" s="7"/>
+      <c r="AT177" s="26"/>
+      <c r="AU177" s="7"/>
+      <c r="AV177" s="7"/>
+      <c r="AW177" s="7"/>
+      <c r="AX177" s="26"/>
+      <c r="AY177" s="7"/>
+      <c r="AZ177" s="7"/>
+      <c r="BA177" s="7"/>
+    </row>
+    <row r="178" spans="1:53" ht="18">
+      <c r="A178" s="4">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="B178" s="38">
+        <v>41</v>
+      </c>
+      <c r="C178" s="7">
+        <v>0.48063063636477599</v>
+      </c>
+      <c r="D178" s="7">
+        <v>0.49209755648183917</v>
+      </c>
+      <c r="E178" s="7">
+        <v>2.1472586609528332</v>
+      </c>
+      <c r="F178" s="7">
+        <v>0.45524317694815686</v>
+      </c>
+      <c r="G178" s="7">
+        <v>0.41031211113396299</v>
+      </c>
+      <c r="H178" s="7">
+        <v>2.1363250528317161</v>
+      </c>
+      <c r="I178" s="7">
+        <v>0.49099582925846097</v>
+      </c>
+      <c r="J178" s="7">
+        <v>0.53441979298064801</v>
+      </c>
+      <c r="K178" s="7">
+        <v>2.0862342868853974</v>
+      </c>
+      <c r="L178" s="7">
+        <v>0.47631552976269642</v>
+      </c>
+      <c r="M178" s="7">
+        <v>0.43020984017818975</v>
+      </c>
+      <c r="N178" s="7">
+        <v>2.1239692411062401</v>
+      </c>
+      <c r="O178" s="7">
+        <v>0.50779787876853344</v>
+      </c>
+      <c r="P178" s="7">
+        <v>0.50962365587172809</v>
+      </c>
+      <c r="Q178" s="7">
+        <v>2.3460540811008568</v>
+      </c>
+      <c r="R178" s="7">
+        <v>0.54570199084182769</v>
+      </c>
+      <c r="S178" s="7">
+        <v>0.54825726034430367</v>
+      </c>
+      <c r="T178" s="7">
+        <v>2.0950017041170286</v>
+      </c>
+      <c r="U178" s="7">
+        <v>0.44843215138804104</v>
+      </c>
+      <c r="V178" s="7">
+        <v>0.43270106717461576</v>
+      </c>
+      <c r="W178" s="7">
+        <v>2.2142044637772864</v>
+      </c>
+      <c r="X178" s="7">
+        <v>0.4686809530088521</v>
+      </c>
+      <c r="Y178" s="7">
+        <v>0.42019903596737784</v>
+      </c>
+      <c r="Z178" s="7">
+        <v>2.1562364707732726</v>
+      </c>
+      <c r="AA178" s="7">
+        <v>0.43656277612969729</v>
+      </c>
+      <c r="AB178" s="7">
+        <v>0.38144384379909946</v>
+      </c>
+      <c r="AC178" s="7">
+        <v>2.152609256881445</v>
+      </c>
+      <c r="AD178" s="26"/>
+      <c r="AE178" s="7"/>
+      <c r="AF178" s="7"/>
+      <c r="AG178" s="7"/>
+      <c r="AH178" s="26"/>
+      <c r="AI178" s="7"/>
+      <c r="AJ178" s="7"/>
+      <c r="AK178" s="7"/>
+      <c r="AL178" s="26"/>
+      <c r="AM178" s="7"/>
+      <c r="AN178" s="7"/>
+      <c r="AO178" s="7"/>
+      <c r="AP178" s="26"/>
+      <c r="AQ178" s="7"/>
+      <c r="AR178" s="7"/>
+      <c r="AS178" s="7"/>
+      <c r="AT178" s="26"/>
+      <c r="AU178" s="7"/>
+      <c r="AV178" s="7"/>
+      <c r="AW178" s="7"/>
+      <c r="AX178" s="26"/>
+      <c r="AY178" s="7"/>
+      <c r="AZ178" s="7"/>
+      <c r="BA178" s="7"/>
+    </row>
+    <row r="179" spans="1:53" ht="18">
+      <c r="A179" s="4">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="B179" s="38">
+        <v>40</v>
+      </c>
+      <c r="C179" s="7">
+        <v>0.50405037181565793</v>
+      </c>
+      <c r="D179" s="7">
+        <v>0.52748639102420825</v>
+      </c>
+      <c r="E179" s="7">
+        <v>2.1236546022017571</v>
+      </c>
+      <c r="F179" s="7">
+        <v>0.41906799493142144</v>
+      </c>
+      <c r="G179" s="7">
+        <v>0.34698148627073333</v>
+      </c>
+      <c r="H179" s="7">
+        <v>2.1648661080682077</v>
+      </c>
+      <c r="I179" s="7">
+        <v>0.47386969447124383</v>
+      </c>
+      <c r="J179" s="7">
+        <v>0.51289128858649291</v>
+      </c>
+      <c r="K179" s="7">
+        <v>2.1547258362061252</v>
+      </c>
+      <c r="L179" s="7">
+        <v>0.45414593234947259</v>
+      </c>
+      <c r="M179" s="7">
+        <v>0.40457541416847709</v>
+      </c>
+      <c r="N179" s="7">
+        <v>2.1412931475850336</v>
+      </c>
+      <c r="O179" s="7">
+        <v>0.50833874167452209</v>
+      </c>
+      <c r="P179" s="7">
+        <v>0.51206426515051218</v>
+      </c>
+      <c r="Q179" s="7">
+        <v>2.2943058264096545</v>
+      </c>
+      <c r="R179" s="7">
+        <v>0.54321731240010884</v>
+      </c>
+      <c r="S179" s="7">
+        <v>0.5467384257725727</v>
+      </c>
+      <c r="T179" s="7">
+        <v>2.0791222741156181</v>
+      </c>
+      <c r="U179" s="7">
+        <v>0.44243515700037328</v>
+      </c>
+      <c r="V179" s="7">
+        <v>0.43264930038779259</v>
+      </c>
+      <c r="W179" s="7">
+        <v>2.2109581074271403</v>
+      </c>
+      <c r="X179" s="7">
+        <v>0.44746897784563205</v>
+      </c>
+      <c r="Y179" s="7">
+        <v>0.41829793405138072</v>
+      </c>
+      <c r="Z179" s="7">
+        <v>2.1716882449599186</v>
+      </c>
+      <c r="AA179" s="7">
+        <v>0.39182488477249661</v>
+      </c>
+      <c r="AB179" s="7">
+        <v>0.35415538821613224</v>
+      </c>
+      <c r="AC179" s="7">
+        <v>2.1908397120006655</v>
+      </c>
+      <c r="AD179" s="26"/>
+      <c r="AE179" s="7"/>
+      <c r="AF179" s="7"/>
+      <c r="AG179" s="7"/>
+      <c r="AH179" s="26"/>
+      <c r="AI179" s="7"/>
+      <c r="AJ179" s="7"/>
+      <c r="AK179" s="7"/>
+      <c r="AL179" s="26"/>
+      <c r="AM179" s="7"/>
+      <c r="AN179" s="7"/>
+      <c r="AO179" s="7"/>
+      <c r="AP179" s="26"/>
+      <c r="AQ179" s="7"/>
+      <c r="AR179" s="7"/>
+      <c r="AS179" s="7"/>
+      <c r="AT179" s="26"/>
+      <c r="AU179" s="7"/>
+      <c r="AV179" s="7"/>
+      <c r="AW179" s="7"/>
+      <c r="AX179" s="26"/>
+      <c r="AY179" s="7"/>
+      <c r="AZ179" s="7"/>
+      <c r="BA179" s="7"/>
+    </row>
+    <row r="180" spans="1:53" ht="18">
+      <c r="A180" s="4">
+        <v>0.98</v>
+      </c>
+      <c r="B180" s="38">
+        <v>37</v>
+      </c>
+      <c r="C180" s="7">
+        <v>0.51769447562589821</v>
+      </c>
+      <c r="D180" s="7">
+        <v>0.54240760935693366</v>
+      </c>
+      <c r="E180" s="7">
+        <v>2.1145163525202726</v>
+      </c>
+      <c r="F180" s="7">
+        <v>0.41953519981479925</v>
+      </c>
+      <c r="G180" s="7">
+        <v>0.34813103714703236</v>
+      </c>
+      <c r="H180" s="7">
+        <v>2.1582468210632468</v>
+      </c>
+      <c r="I180" s="7">
+        <v>0.46375983356590555</v>
+      </c>
+      <c r="J180" s="7">
+        <v>0.50485087287230246</v>
+      </c>
+      <c r="K180" s="7">
+        <v>2.1389555051775413</v>
+      </c>
+      <c r="L180" s="7">
+        <v>0.44755894953539627</v>
+      </c>
+      <c r="M180" s="7">
+        <v>0.40361825947403407</v>
+      </c>
+      <c r="N180" s="7">
+        <v>2.1482794010479505</v>
+      </c>
+      <c r="O180" s="7">
+        <v>0.47011202731221352</v>
+      </c>
+      <c r="P180" s="7">
+        <v>0.47313670899802285</v>
+      </c>
+      <c r="Q180" s="7">
+        <v>2.4549007099738671</v>
+      </c>
+      <c r="R180" s="7">
+        <v>0.55571094351893879</v>
+      </c>
+      <c r="S180" s="7">
+        <v>0.56383232152988449</v>
+      </c>
+      <c r="T180" s="7">
+        <v>2.0431833125193219</v>
+      </c>
+      <c r="U180" s="7">
+        <v>0.42244156109268294</v>
+      </c>
+      <c r="V180" s="7">
+        <v>0.40518127971246348</v>
+      </c>
+      <c r="W180" s="7">
+        <v>2.224894428962318</v>
+      </c>
+      <c r="X180" s="7">
+        <v>0.44087624475191056</v>
+      </c>
+      <c r="Y180" s="7">
+        <v>0.39319194638117227</v>
+      </c>
+      <c r="Z180" s="7">
+        <v>2.1797651687321427</v>
+      </c>
+      <c r="AA180" s="7">
+        <v>0.38894128177657256</v>
+      </c>
+      <c r="AB180" s="7">
+        <v>0.3487764180778678</v>
+      </c>
+      <c r="AC180" s="7">
+        <v>2.2036913485108967</v>
+      </c>
+      <c r="AD180" s="26"/>
+      <c r="AE180" s="7"/>
+      <c r="AF180" s="7"/>
+      <c r="AG180" s="7"/>
+      <c r="AH180" s="26"/>
+      <c r="AI180" s="7"/>
+      <c r="AJ180" s="7"/>
+      <c r="AK180" s="7"/>
+      <c r="AL180" s="26"/>
+      <c r="AM180" s="7"/>
+      <c r="AN180" s="7"/>
+      <c r="AO180" s="7"/>
+      <c r="AP180" s="26"/>
+      <c r="AQ180" s="7"/>
+      <c r="AR180" s="7"/>
+      <c r="AS180" s="7"/>
+      <c r="AT180" s="26"/>
+      <c r="AU180" s="7"/>
+      <c r="AV180" s="7"/>
+      <c r="AW180" s="7"/>
+      <c r="AX180" s="26"/>
+      <c r="AY180" s="7"/>
+      <c r="AZ180" s="7"/>
+      <c r="BA180" s="7"/>
+    </row>
+    <row r="181" spans="1:53" ht="18">
+      <c r="A181" s="4">
+        <v>0.97</v>
+      </c>
+      <c r="B181" s="38">
+        <v>20</v>
+      </c>
+      <c r="C181" s="7">
+        <v>0.45959910283202066</v>
+      </c>
+      <c r="D181" s="7">
+        <v>0.52767413019949938</v>
+      </c>
+      <c r="E181" s="7">
+        <v>4.1941312506507114</v>
+      </c>
+      <c r="F181" s="7">
+        <v>0.55508425540059714</v>
+      </c>
+      <c r="G181" s="7">
+        <v>0.53985805082210803</v>
+      </c>
+      <c r="H181" s="7">
+        <v>2.0595561980405703</v>
+      </c>
+      <c r="I181" s="7">
+        <v>0.45424254026187338</v>
+      </c>
+      <c r="J181" s="7">
+        <v>0.49832612731035397</v>
+      </c>
+      <c r="K181" s="7">
+        <v>3.0179896667052541</v>
+      </c>
+      <c r="L181" s="7">
+        <v>0.58299013082753937</v>
+      </c>
+      <c r="M181" s="7">
+        <v>0.61108773758199897</v>
+      </c>
+      <c r="N181" s="7">
+        <v>2.1083381173890223</v>
+      </c>
+      <c r="O181" s="7">
+        <v>0.62277150109034884</v>
+      </c>
+      <c r="P181" s="7">
+        <v>0.61986863123791813</v>
+      </c>
+      <c r="Q181" s="7">
+        <v>2.2042917120494043</v>
+      </c>
+      <c r="R181" s="7">
+        <v>0.62664611212052979</v>
+      </c>
+      <c r="S181" s="7">
+        <v>0.62615121077776137</v>
+      </c>
+      <c r="T181" s="7">
+        <v>2.0309153002908071</v>
+      </c>
+      <c r="U181" s="7">
+        <v>0.54051075395131798</v>
+      </c>
+      <c r="V181" s="7">
+        <v>0.55499922272467683</v>
+      </c>
+      <c r="W181" s="7">
+        <v>2.3668805980937799</v>
+      </c>
+      <c r="X181" s="7">
+        <v>0.5966632196480719</v>
+      </c>
+      <c r="Y181" s="7">
+        <v>0.61453879260120847</v>
+      </c>
+      <c r="Z181" s="7">
+        <v>2.1454207355897812</v>
+      </c>
+      <c r="AA181" s="7">
+        <v>0.53580454476319894</v>
+      </c>
+      <c r="AB181" s="7">
+        <v>0.54976998869727445</v>
+      </c>
+      <c r="AC181" s="7">
+        <v>2.0144881113691833</v>
+      </c>
+      <c r="AD181" s="26"/>
+      <c r="AE181" s="7"/>
+      <c r="AF181" s="7"/>
+      <c r="AG181" s="7"/>
+      <c r="AH181" s="26"/>
+      <c r="AI181" s="7"/>
+      <c r="AJ181" s="7"/>
+      <c r="AK181" s="7"/>
+      <c r="AL181" s="26"/>
+      <c r="AM181" s="7"/>
+      <c r="AN181" s="7"/>
+      <c r="AO181" s="7"/>
+      <c r="AP181" s="26"/>
+      <c r="AQ181" s="7"/>
+      <c r="AR181" s="7"/>
+      <c r="AS181" s="7"/>
+      <c r="AT181" s="26"/>
+      <c r="AU181" s="7"/>
+      <c r="AV181" s="7"/>
+      <c r="AW181" s="7"/>
+      <c r="AX181" s="26"/>
+      <c r="AY181" s="7"/>
+      <c r="AZ181" s="7"/>
+      <c r="BA181" s="7"/>
+    </row>
+    <row r="182" spans="1:53" ht="18">
+      <c r="A182" s="4">
+        <v>0.96</v>
+      </c>
+      <c r="B182" s="38">
+        <v>15</v>
+      </c>
+      <c r="C182" s="7">
+        <v>0.4526513610309566</v>
+      </c>
+      <c r="D182" s="7">
+        <v>0.50399390827474533</v>
+      </c>
+      <c r="E182" s="7">
+        <v>3.5825833538467271</v>
+      </c>
+      <c r="F182" s="7">
+        <v>0.57724781549173787</v>
+      </c>
+      <c r="G182" s="7">
+        <v>0.5706692644842295</v>
+      </c>
+      <c r="H182" s="7">
+        <v>2.1106979847056868</v>
+      </c>
+      <c r="I182" s="7">
+        <v>0.46374834063116194</v>
+      </c>
+      <c r="J182" s="7">
+        <v>0.50649763675901494</v>
+      </c>
+      <c r="K182" s="7">
+        <v>2.7553856268896353</v>
+      </c>
+      <c r="L182" s="7">
+        <v>0.60147208345501102</v>
+      </c>
+      <c r="M182" s="7">
+        <v>0.63617114169335698</v>
+      </c>
+      <c r="N182" s="7">
+        <v>2.2792600614034941</v>
+      </c>
+      <c r="O182" s="7">
+        <v>0.61475615499721026</v>
+      </c>
+      <c r="P182" s="7">
+        <v>0.61660828150840175</v>
+      </c>
+      <c r="Q182" s="7">
+        <v>2.8585185842175989</v>
+      </c>
+      <c r="R182" s="7">
+        <v>0.65043072188494255</v>
+      </c>
+      <c r="S182" s="7">
+        <v>0.64650997721954018</v>
+      </c>
+      <c r="T182" s="7">
+        <v>2.1087295250209466</v>
+      </c>
+      <c r="U182" s="7">
+        <v>0.54681741985545718</v>
+      </c>
+      <c r="V182" s="7">
+        <v>0.56739597892783511</v>
+      </c>
+      <c r="W182" s="7">
+        <v>2.4093690483424313</v>
+      </c>
+      <c r="X182" s="7">
+        <v>0.58960767061853647</v>
+      </c>
+      <c r="Y182" s="7">
+        <v>0.62820669586781974</v>
+      </c>
+      <c r="Z182" s="7">
+        <v>2.1924746986482893</v>
+      </c>
+      <c r="AA182" s="7">
+        <v>0.52217808980195668</v>
+      </c>
+      <c r="AB182" s="7">
+        <v>0.53575618831594518</v>
+      </c>
+      <c r="AC182" s="7">
+        <v>2.258028279720619</v>
+      </c>
+      <c r="AD182" s="26"/>
+      <c r="AE182" s="7"/>
+      <c r="AF182" s="7"/>
+      <c r="AG182" s="7"/>
+      <c r="AH182" s="26"/>
+      <c r="AI182" s="7"/>
+      <c r="AJ182" s="7"/>
+      <c r="AK182" s="7"/>
+      <c r="AL182" s="26"/>
+      <c r="AM182" s="7"/>
+      <c r="AN182" s="7"/>
+      <c r="AO182" s="7"/>
+      <c r="AP182" s="26"/>
+      <c r="AQ182" s="7"/>
+      <c r="AR182" s="7"/>
+      <c r="AS182" s="7"/>
+      <c r="AT182" s="26"/>
+      <c r="AU182" s="7"/>
+      <c r="AV182" s="7"/>
+      <c r="AW182" s="7"/>
+      <c r="AX182" s="26"/>
+      <c r="AY182" s="7"/>
+      <c r="AZ182" s="7"/>
+      <c r="BA182" s="7"/>
+    </row>
+    <row r="183" spans="1:53" ht="18">
+      <c r="A183" s="4">
+        <v>0.95</v>
+      </c>
+      <c r="B183" s="38">
+        <v>7</v>
+      </c>
+      <c r="C183" s="7">
+        <v>-0.22636966272804621</v>
+      </c>
+      <c r="D183" s="7">
+        <v>-0.20256976091849593</v>
+      </c>
+      <c r="E183" s="7">
+        <v>11.313854846714234</v>
+      </c>
+      <c r="F183" s="7">
+        <v>-1.8350802194430551E-2</v>
+      </c>
+      <c r="G183" s="7">
+        <v>2.9599064339488883E-2</v>
+      </c>
+      <c r="H183" s="7">
+        <v>3.8014744858120628</v>
+      </c>
+      <c r="I183" s="7">
+        <v>0.52807853954914707</v>
+      </c>
+      <c r="J183" s="7">
+        <v>0.56398304854491155</v>
+      </c>
+      <c r="K183" s="7">
+        <v>2.6984755360769954</v>
+      </c>
+      <c r="L183" s="7">
+        <v>0.17369009248579256</v>
+      </c>
+      <c r="M183" s="7">
+        <v>6.5502608577156271E-2</v>
+      </c>
+      <c r="N183" s="7">
+        <v>3.6674604065061542</v>
+      </c>
+      <c r="O183" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="P183" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q183" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="R183" s="7">
+        <v>0.3413853733127919</v>
+      </c>
+      <c r="S183" s="7">
+        <v>0.3583797059986325</v>
+      </c>
+      <c r="T183" s="7">
+        <v>3.7781059560300934</v>
+      </c>
+      <c r="U183" s="7">
+        <v>9.3847870761935265E-2</v>
+      </c>
+      <c r="V183" s="7">
+        <v>4.4671692395719116E-2</v>
+      </c>
+      <c r="W183" s="7">
+        <v>3.6286267629434485</v>
+      </c>
+      <c r="X183" s="7">
+        <v>7.1038868919092044E-2</v>
+      </c>
+      <c r="Y183" s="7">
+        <v>0.12698719796829178</v>
+      </c>
+      <c r="Z183" s="7">
+        <v>3.6705920040722311</v>
+      </c>
+      <c r="AA183" s="7">
+        <v>0.18869644643495873</v>
+      </c>
+      <c r="AB183" s="7">
+        <v>-0.13579428466499305</v>
+      </c>
+      <c r="AC183" s="7">
+        <v>3.4498886323584301</v>
+      </c>
+      <c r="AD183" s="26"/>
+      <c r="AE183" s="7"/>
+      <c r="AF183" s="7"/>
+      <c r="AG183" s="7"/>
+      <c r="AH183" s="26"/>
+      <c r="AI183" s="7"/>
+      <c r="AJ183" s="7"/>
+      <c r="AK183" s="7"/>
+      <c r="AL183" s="26"/>
+      <c r="AM183" s="7"/>
+      <c r="AN183" s="7"/>
+      <c r="AO183" s="7"/>
+      <c r="AP183" s="26"/>
+      <c r="AQ183" s="7"/>
+      <c r="AR183" s="7"/>
+      <c r="AS183" s="7"/>
+      <c r="AT183" s="26"/>
+      <c r="AU183" s="7"/>
+      <c r="AV183" s="7"/>
+      <c r="AW183" s="7"/>
+      <c r="AX183" s="26"/>
+      <c r="AY183" s="7"/>
+      <c r="AZ183" s="7"/>
+      <c r="BA183" s="7"/>
+    </row>
+    <row r="184" spans="1:53" ht="18">
+      <c r="A184" s="4">
+        <v>0.94</v>
+      </c>
+      <c r="B184" s="39">
+        <v>3</v>
+      </c>
+      <c r="C184" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D184" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E184" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F184" s="16">
+        <v>-0.38904901851268131</v>
+      </c>
+      <c r="G184" s="16">
+        <v>-0.42121222359670918</v>
+      </c>
+      <c r="H184" s="16">
+        <v>3.7024112649298266</v>
+      </c>
+      <c r="I184" s="16">
+        <v>-0.2507144229816935</v>
+      </c>
+      <c r="J184" s="16">
+        <v>-0.27002719795056501</v>
+      </c>
+      <c r="K184" s="16">
+        <v>1.84894350040455E+16</v>
+      </c>
+      <c r="L184" s="16">
+        <v>-0.27262350334368524</v>
+      </c>
+      <c r="M184" s="16">
+        <v>-0.35312070627450415</v>
+      </c>
+      <c r="N184" s="16">
+        <v>3.6329110376208975</v>
+      </c>
+      <c r="O184" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="P184" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q184" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="R184" s="7">
+        <v>-0.14677728076382118</v>
+      </c>
+      <c r="S184" s="7">
+        <v>-8.7495572590087473E-2</v>
+      </c>
+      <c r="T184" s="7">
+        <v>3.7478644100140466</v>
+      </c>
+      <c r="U184" s="7">
+        <v>3.2966614016271593E-3</v>
+      </c>
+      <c r="V184" s="7">
+        <v>-8.5772613352181976E-2</v>
+      </c>
+      <c r="W184" s="7">
+        <v>3.6800332518942929</v>
+      </c>
+      <c r="X184" s="7">
+        <v>-4.8302561677468603E-2</v>
+      </c>
+      <c r="Y184" s="7">
+        <v>-0.18000245914586424</v>
+      </c>
+      <c r="Z184" s="7">
+        <v>3.6540451668337695</v>
+      </c>
+      <c r="AA184" s="7">
+        <v>-0.36864242919201889</v>
+      </c>
+      <c r="AB184" s="7">
+        <v>-0.21480634225248099</v>
+      </c>
+      <c r="AC184" s="7">
+        <v>3.7914119807301447</v>
+      </c>
+      <c r="AD184" s="26"/>
+      <c r="AE184" s="7"/>
+      <c r="AF184" s="7"/>
+      <c r="AG184" s="7"/>
+      <c r="AH184" s="26"/>
+      <c r="AI184" s="7"/>
+      <c r="AJ184" s="7"/>
+      <c r="AK184" s="7"/>
+      <c r="AL184" s="26"/>
+      <c r="AM184" s="7"/>
+      <c r="AN184" s="7"/>
+      <c r="AO184" s="7"/>
+      <c r="AP184" s="26"/>
+      <c r="AQ184" s="7"/>
+      <c r="AR184" s="7"/>
+      <c r="AS184" s="7"/>
+      <c r="AT184" s="26"/>
+      <c r="AU184" s="7"/>
+      <c r="AV184" s="7"/>
+      <c r="AW184" s="7"/>
+      <c r="AX184" s="26"/>
+      <c r="AY184" s="7"/>
+      <c r="AZ184" s="7"/>
+      <c r="BA184" s="7"/>
+    </row>
+    <row r="185" spans="1:53" ht="18">
+      <c r="A185" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="B185" s="38">
+        <v>2</v>
+      </c>
+      <c r="C185" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D185" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E185" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F185" s="7">
+        <v>-4.1836477789512897E-16</v>
+      </c>
+      <c r="G185" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H185" s="7">
+        <v>3.8068101594042725</v>
+      </c>
+      <c r="I185" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="J185" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K185" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="L185" s="7">
+        <v>-4.1836477789512897E-16</v>
+      </c>
+      <c r="M185" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="N185" s="7">
+        <v>3.8068101594042725</v>
+      </c>
+      <c r="O185" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="P185" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q185" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="R185" s="7">
+        <v>-4.1836477789512897E-16</v>
+      </c>
+      <c r="S185" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="T185" s="7">
+        <v>3.8068101594042725</v>
+      </c>
+      <c r="U185" s="7">
+        <v>-4.1836477789512897E-16</v>
+      </c>
+      <c r="V185" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="W185" s="7">
+        <v>3.8068101594042725</v>
+      </c>
+      <c r="X185" s="7">
+        <v>-4.1836477789512897E-16</v>
+      </c>
+      <c r="Y185" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z185" s="7">
+        <v>3.8068101594042725</v>
+      </c>
+      <c r="AA185" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB185" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC185" s="7">
+        <v>3.8079735169951916</v>
+      </c>
+      <c r="AD185" s="26"/>
+      <c r="AE185" s="7"/>
+      <c r="AF185" s="7"/>
+      <c r="AG185" s="7"/>
+      <c r="AH185" s="26"/>
+      <c r="AI185" s="7"/>
+      <c r="AJ185" s="7"/>
+      <c r="AK185" s="7"/>
+      <c r="AL185" s="26"/>
+      <c r="AM185" s="7"/>
+      <c r="AN185" s="7"/>
+      <c r="AO185" s="7"/>
+      <c r="AP185" s="26"/>
+      <c r="AQ185" s="7"/>
+      <c r="AR185" s="7"/>
+      <c r="AS185" s="7"/>
+      <c r="AT185" s="26"/>
+      <c r="AU185" s="7"/>
+      <c r="AV185" s="7"/>
+      <c r="AW185" s="7"/>
+      <c r="AX185" s="26"/>
+      <c r="AY185" s="7"/>
+      <c r="AZ185" s="7"/>
+      <c r="BA185" s="7"/>
+    </row>
+    <row r="186" spans="1:53" ht="18">
+      <c r="AE186" s="7"/>
+      <c r="AF186" s="7"/>
+      <c r="AG186" s="7"/>
+      <c r="AH186" s="26"/>
+      <c r="AI186" s="7"/>
+      <c r="AJ186" s="7"/>
+      <c r="AK186" s="7"/>
+      <c r="AL186" s="26"/>
+      <c r="AM186" s="7"/>
+      <c r="AN186" s="7"/>
+      <c r="AO186" s="7"/>
+      <c r="AP186" s="26"/>
+      <c r="AQ186" s="7"/>
+      <c r="AR186" s="7"/>
+      <c r="AS186" s="7"/>
+      <c r="AT186" s="26"/>
+      <c r="AU186" s="7"/>
+      <c r="AV186" s="7"/>
+      <c r="AW186" s="7"/>
+      <c r="AX186" s="26"/>
+      <c r="AY186" s="7"/>
+      <c r="AZ186" s="7"/>
+      <c r="BA186" s="7"/>
+    </row>
+    <row r="187" spans="1:53" ht="72" customHeight="1">
+      <c r="A187" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="B187" s="40"/>
+      <c r="C187" s="40"/>
+      <c r="D187" s="40"/>
+      <c r="E187" s="40"/>
+      <c r="F187" s="40"/>
+      <c r="G187" s="40"/>
+      <c r="H187" s="40"/>
+      <c r="I187" s="40"/>
+      <c r="J187" s="40"/>
+      <c r="K187" s="40"/>
+      <c r="L187" s="40"/>
+      <c r="M187" s="40"/>
+      <c r="N187" s="40"/>
+      <c r="O187" s="40"/>
+      <c r="P187" s="40"/>
+      <c r="Q187" s="40"/>
+      <c r="R187" s="40"/>
+      <c r="S187" s="40"/>
+      <c r="T187" s="40"/>
+      <c r="U187" s="40"/>
+      <c r="V187" s="40"/>
+      <c r="W187" s="40"/>
+      <c r="X187" s="40"/>
+      <c r="Y187" s="40"/>
+      <c r="Z187" s="40"/>
+      <c r="AA187" s="40"/>
+      <c r="AB187" s="40"/>
+      <c r="AC187" s="40"/>
+      <c r="AE187" s="7"/>
+      <c r="AF187" s="7"/>
+      <c r="AG187" s="7"/>
+      <c r="AH187" s="26"/>
+      <c r="AI187" s="7"/>
+      <c r="AJ187" s="7"/>
+      <c r="AK187" s="7"/>
+      <c r="AL187" s="26"/>
+      <c r="AM187" s="7"/>
+      <c r="AN187" s="7"/>
+      <c r="AO187" s="7"/>
+      <c r="AP187" s="26"/>
+      <c r="AQ187" s="7"/>
+      <c r="AR187" s="7"/>
+      <c r="AS187" s="7"/>
+      <c r="AT187" s="26"/>
+      <c r="AU187" s="7"/>
+      <c r="AV187" s="7"/>
+      <c r="AW187" s="7"/>
+    </row>
+    <row r="188" spans="1:53" ht="20.5">
+      <c r="A188" s="29"/>
+      <c r="B188" s="30"/>
+      <c r="C188" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="D188" s="42"/>
+      <c r="E188" s="42"/>
+      <c r="F188" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="G188" s="44"/>
+      <c r="H188" s="44"/>
+      <c r="I188" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="J188" s="42"/>
+      <c r="K188" s="42"/>
+      <c r="L188" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="M188" s="42"/>
+      <c r="N188" s="42"/>
+      <c r="O188" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="P188" s="42"/>
+      <c r="Q188" s="42"/>
+      <c r="R188" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="S188" s="44"/>
+      <c r="T188" s="44"/>
+      <c r="U188" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="V188" s="42"/>
+      <c r="W188" s="42"/>
+      <c r="X188" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y188" s="42"/>
+      <c r="Z188" s="42"/>
+      <c r="AA188" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB188" s="42"/>
+      <c r="AC188" s="45"/>
+      <c r="AE188" s="7"/>
+      <c r="AF188" s="7"/>
+      <c r="AG188" s="7"/>
+      <c r="AH188" s="26"/>
+      <c r="AI188" s="7"/>
+      <c r="AJ188" s="7"/>
+      <c r="AK188" s="7"/>
+      <c r="AL188" s="26"/>
+      <c r="AM188" s="7"/>
+      <c r="AN188" s="7"/>
+      <c r="AO188" s="7"/>
+      <c r="AP188" s="26"/>
+      <c r="AQ188" s="7"/>
+      <c r="AR188" s="7"/>
+      <c r="AS188" s="7"/>
+      <c r="AT188" s="26"/>
+      <c r="AU188" s="7"/>
+      <c r="AV188" s="7"/>
+      <c r="AW188" s="7"/>
+    </row>
+    <row r="189" spans="1:53" ht="61.5">
+      <c r="A189" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B189" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="C189" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="D189" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="E189" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="F189" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="G189" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="H189" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="I189" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="J189" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="K189" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="L189" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="M189" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="N189" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="O189" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="P189" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q189" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="R189" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="S189" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="T189" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="U189" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="V189" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="W189" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="X189" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y189" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z189" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA189" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB189" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC189" s="37" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="190" spans="1:53" ht="18">
+      <c r="A190" s="16">
+        <v>0.8</v>
+      </c>
+      <c r="B190" s="39">
+        <v>1103</v>
+      </c>
+      <c r="C190" s="16">
+        <v>0.64247428990239974</v>
+      </c>
+      <c r="D190" s="16">
+        <v>0.70646170739976422</v>
+      </c>
+      <c r="E190" s="16">
+        <v>1.8733417307239066</v>
+      </c>
+      <c r="F190" s="16">
+        <v>0.70891403614031723</v>
+      </c>
+      <c r="G190" s="16">
+        <v>0.69841392777826683</v>
+      </c>
+      <c r="H190" s="16">
+        <v>1.6956553993117354</v>
+      </c>
+      <c r="I190" s="16">
+        <v>0.59534896933814874</v>
+      </c>
+      <c r="J190" s="16">
+        <v>0.64724375434534065</v>
+      </c>
+      <c r="K190" s="16">
+        <v>1.9423181204183728</v>
+      </c>
+      <c r="L190" s="16">
+        <v>0.73782275646930251</v>
+      </c>
+      <c r="M190" s="16">
+        <v>0.74421435618757636</v>
+      </c>
+      <c r="N190" s="16">
+        <v>1.6650034119593067</v>
+      </c>
+      <c r="O190" s="16">
+        <v>0.65734702933492994</v>
+      </c>
+      <c r="P190" s="16">
+        <v>0.68738109526964142</v>
+      </c>
+      <c r="Q190" s="16">
+        <v>1.8643123880457497</v>
+      </c>
+      <c r="R190" s="16">
+        <v>0.68658667188858558</v>
+      </c>
+      <c r="S190" s="16">
+        <v>0.70375583561382304</v>
+      </c>
+      <c r="T190" s="16">
+        <v>1.7376024901834515</v>
+      </c>
+      <c r="U190" s="16">
+        <v>0.76910650515316337</v>
+      </c>
+      <c r="V190" s="16">
+        <v>0.75612406012010447</v>
+      </c>
+      <c r="W190" s="16">
+        <v>1.572338446220487</v>
+      </c>
+      <c r="X190" s="16">
+        <v>0.80052037944124399</v>
+      </c>
+      <c r="Y190" s="16">
+        <v>0.79395358486331602</v>
+      </c>
+      <c r="Z190" s="16">
+        <v>1.50532274618118</v>
+      </c>
+      <c r="AA190" s="16">
+        <v>0.80423478728128772</v>
+      </c>
+      <c r="AB190" s="16">
+        <v>0.8019104080912669</v>
+      </c>
+      <c r="AC190" s="16">
+        <v>1.4472083831871139</v>
+      </c>
+      <c r="AD190"/>
+      <c r="AE190"/>
+      <c r="AF190"/>
+      <c r="AG190"/>
+      <c r="AH190"/>
+      <c r="AI190"/>
+      <c r="AJ190"/>
+      <c r="AK190"/>
+      <c r="AL190"/>
+      <c r="AM190"/>
+      <c r="AN190"/>
+      <c r="AO190"/>
+      <c r="AP190"/>
+      <c r="AQ190"/>
+      <c r="AR190"/>
+      <c r="AS190"/>
+      <c r="AT190"/>
+      <c r="AU190"/>
+      <c r="AV190"/>
+      <c r="AW190"/>
+    </row>
+    <row r="191" spans="1:53" ht="18">
+      <c r="A191" s="7">
+        <v>0.94</v>
+      </c>
+      <c r="B191" s="38">
+        <v>1102</v>
+      </c>
+      <c r="C191" s="7">
+        <v>0.64238641148481956</v>
+      </c>
+      <c r="D191" s="7">
+        <v>0.70634517963579035</v>
+      </c>
+      <c r="E191" s="7">
+        <v>1.8736792289347644</v>
+      </c>
+      <c r="F191" s="7">
+        <v>0.70746714096746877</v>
+      </c>
+      <c r="G191" s="7">
+        <v>0.69512946327537273</v>
+      </c>
+      <c r="H191" s="7">
+        <v>1.6986358405717568</v>
+      </c>
+      <c r="I191" s="7">
+        <v>0.59519115675034784</v>
+      </c>
+      <c r="J191" s="7">
+        <v>0.64705844283179914</v>
+      </c>
+      <c r="K191" s="7">
+        <v>1.9427250883603098</v>
+      </c>
+      <c r="L191" s="7">
+        <v>0.73943429211420575</v>
+      </c>
+      <c r="M191" s="7">
+        <v>0.74374403718464888</v>
+      </c>
+      <c r="N191" s="7">
+        <v>1.6617775591222805</v>
+      </c>
+      <c r="O191" s="7">
+        <v>0.65747261944814361</v>
+      </c>
+      <c r="P191" s="7">
+        <v>0.68763923663566662</v>
+      </c>
+      <c r="Q191" s="7">
+        <v>1.8643907747924966</v>
+      </c>
+      <c r="R191" s="7">
+        <v>0.68796657635437208</v>
+      </c>
+      <c r="S191" s="7">
+        <v>0.70583294300665567</v>
+      </c>
+      <c r="T191" s="7">
+        <v>1.7347527338661302</v>
+      </c>
+      <c r="U191" s="7">
+        <v>0.77005639311210428</v>
+      </c>
+      <c r="V191" s="7">
+        <v>0.75600809881053888</v>
+      </c>
+      <c r="W191" s="7">
+        <v>1.5705801071714656</v>
+      </c>
+      <c r="X191" s="7">
+        <v>0.80028189578740505</v>
+      </c>
+      <c r="Y191" s="7">
+        <v>0.79442900195591704</v>
+      </c>
+      <c r="Z191" s="7">
+        <v>1.5056126729655801</v>
+      </c>
+      <c r="AA191" s="7">
+        <v>0.8071874021718719</v>
+      </c>
+      <c r="AB191" s="7">
+        <v>0.8019174483103404</v>
+      </c>
+      <c r="AC191" s="7">
+        <v>1.439227039269078</v>
+      </c>
+      <c r="AD191"/>
+      <c r="AE191"/>
+      <c r="AF191"/>
+      <c r="AG191"/>
+      <c r="AH191"/>
+      <c r="AI191"/>
+      <c r="AJ191"/>
+      <c r="AK191"/>
+      <c r="AL191"/>
+      <c r="AM191"/>
+      <c r="AN191"/>
+      <c r="AO191"/>
+      <c r="AP191"/>
+      <c r="AQ191"/>
+      <c r="AR191"/>
+      <c r="AS191"/>
+      <c r="AT191"/>
+      <c r="AU191"/>
+      <c r="AV191"/>
+      <c r="AW191"/>
+    </row>
+    <row r="192" spans="1:53" ht="18">
+      <c r="A192" s="7">
+        <v>0.95</v>
+      </c>
+      <c r="B192" s="38">
+        <v>1098</v>
+      </c>
+      <c r="C192" s="7">
+        <v>0.64135636634549431</v>
+      </c>
+      <c r="D192" s="7">
+        <v>0.70704030011671726</v>
+      </c>
+      <c r="E192" s="7">
+        <v>1.8756657979598554</v>
+      </c>
+      <c r="F192" s="7">
+        <v>0.71253168816531987</v>
+      </c>
+      <c r="G192" s="7">
+        <v>0.7035718188532144</v>
+      </c>
+      <c r="H192" s="7">
+        <v>1.6887955995146537</v>
+      </c>
+      <c r="I192" s="7">
+        <v>0.59365141079143402</v>
+      </c>
+      <c r="J192" s="7">
+        <v>0.6450175885210917</v>
+      </c>
+      <c r="K192" s="7">
+        <v>1.9444254687960121</v>
+      </c>
+      <c r="L192" s="7">
+        <v>0.73881487134745649</v>
+      </c>
+      <c r="M192" s="7">
+        <v>0.74397709271259638</v>
+      </c>
+      <c r="N192" s="7">
+        <v>1.6638687568434591</v>
+      </c>
+      <c r="O192" s="7">
+        <v>0.65742439067592517</v>
+      </c>
+      <c r="P192" s="7">
+        <v>0.68883283699581466</v>
+      </c>
+      <c r="Q192" s="7">
+        <v>1.8653834788013302</v>
+      </c>
+      <c r="R192" s="7">
+        <v>0.68899480941417801</v>
+      </c>
+      <c r="S192" s="7">
+        <v>0.70600328393940881</v>
+      </c>
+      <c r="T192" s="7">
+        <v>1.7326957537359831</v>
+      </c>
+      <c r="U192" s="7">
+        <v>0.77237679257475644</v>
+      </c>
+      <c r="V192" s="7">
+        <v>0.76049126176325488</v>
+      </c>
+      <c r="W192" s="7">
+        <v>1.5664085131772667</v>
+      </c>
+      <c r="X192" s="7">
+        <v>0.80205515347380996</v>
+      </c>
+      <c r="Y192" s="7">
+        <v>0.79673439047525696</v>
+      </c>
+      <c r="Z192" s="7">
+        <v>1.50182346337593</v>
+      </c>
+      <c r="AA192" s="7">
+        <v>0.80859266301238308</v>
+      </c>
+      <c r="AB192" s="7">
+        <v>0.80494846492659167</v>
+      </c>
+      <c r="AC192" s="7">
+        <v>1.4364357406286479</v>
+      </c>
+      <c r="AD192"/>
+      <c r="AE192"/>
+      <c r="AF192"/>
+      <c r="AG192"/>
+      <c r="AH192"/>
+      <c r="AI192"/>
+      <c r="AJ192"/>
+      <c r="AK192"/>
+      <c r="AL192"/>
+      <c r="AM192"/>
+      <c r="AN192"/>
+      <c r="AO192"/>
+      <c r="AP192"/>
+      <c r="AQ192"/>
+      <c r="AR192"/>
+      <c r="AS192"/>
+      <c r="AT192"/>
+      <c r="AU192"/>
+      <c r="AV192"/>
+      <c r="AW192"/>
+    </row>
+    <row r="193" spans="1:49" ht="18">
+      <c r="A193" s="7">
+        <v>0.96</v>
+      </c>
+      <c r="B193" s="38">
+        <v>1090</v>
+      </c>
+      <c r="C193" s="7">
+        <v>0.64083381853999655</v>
+      </c>
+      <c r="D193" s="7">
+        <v>0.70671013811879135</v>
+      </c>
+      <c r="E193" s="7">
+        <v>1.8781842647673765</v>
+      </c>
+      <c r="F193" s="7">
+        <v>0.71308535178488475</v>
+      </c>
+      <c r="G193" s="7">
+        <v>0.70489028194934256</v>
+      </c>
+      <c r="H193" s="7">
+        <v>1.6873366773441212</v>
+      </c>
+      <c r="I193" s="7">
+        <v>0.59292280172291545</v>
+      </c>
+      <c r="J193" s="7">
+        <v>0.64391623930742292</v>
+      </c>
+      <c r="K193" s="7">
+        <v>1.9470213952623197</v>
+      </c>
+      <c r="L193" s="7">
+        <v>0.73794956589499061</v>
+      </c>
+      <c r="M193" s="7">
+        <v>0.7441693635231531</v>
+      </c>
+      <c r="N193" s="7">
+        <v>1.6653522543325938</v>
+      </c>
+      <c r="O193" s="7">
+        <v>0.65736711154380345</v>
+      </c>
+      <c r="P193" s="7">
+        <v>0.68951096384449539</v>
+      </c>
+      <c r="Q193" s="7">
+        <v>1.8670800619146715</v>
+      </c>
+      <c r="R193" s="7">
+        <v>0.6896535915381663</v>
+      </c>
+      <c r="S193" s="7">
+        <v>0.7068061926020115</v>
+      </c>
+      <c r="T193" s="7">
+        <v>1.7311118469418267</v>
+      </c>
+      <c r="U193" s="7">
+        <v>0.77230199646120146</v>
+      </c>
+      <c r="V193" s="7">
+        <v>0.75961131530113624</v>
+      </c>
+      <c r="W193" s="7">
+        <v>1.5664089856774217</v>
+      </c>
+      <c r="X193" s="7">
+        <v>0.80160945893324398</v>
+      </c>
+      <c r="Y193" s="7">
+        <v>0.79543194994667499</v>
+      </c>
+      <c r="Z193" s="7">
+        <v>1.50175531047869</v>
+      </c>
+      <c r="AA193" s="7">
+        <v>0.80514819499709023</v>
+      </c>
+      <c r="AB193" s="7">
+        <v>0.8021028407459404</v>
+      </c>
+      <c r="AC193" s="7">
+        <v>1.4460470762423892</v>
+      </c>
+      <c r="AD193"/>
+      <c r="AE193"/>
+      <c r="AF193"/>
+      <c r="AG193"/>
+      <c r="AH193"/>
+      <c r="AI193"/>
+      <c r="AJ193"/>
+      <c r="AK193"/>
+      <c r="AL193"/>
+      <c r="AM193"/>
+      <c r="AN193"/>
+      <c r="AO193"/>
+      <c r="AP193"/>
+      <c r="AQ193"/>
+      <c r="AR193"/>
+      <c r="AS193"/>
+      <c r="AT193"/>
+      <c r="AU193"/>
+      <c r="AV193"/>
+      <c r="AW193"/>
+    </row>
+    <row r="194" spans="1:49" ht="18">
+      <c r="A194" s="7">
+        <v>0.97</v>
+      </c>
+      <c r="B194" s="38">
+        <v>1085</v>
+      </c>
+      <c r="C194" s="7">
+        <v>0.6405659909496686</v>
+      </c>
+      <c r="D194" s="7">
+        <v>0.70685417938259232</v>
+      </c>
+      <c r="E194" s="7">
+        <v>1.8788470616108097</v>
+      </c>
+      <c r="F194" s="7">
+        <v>0.71389636766970799</v>
+      </c>
+      <c r="G194" s="7">
+        <v>0.70657151863289758</v>
+      </c>
+      <c r="H194" s="7">
+        <v>1.6856655143360992</v>
+      </c>
+      <c r="I194" s="7">
+        <v>0.59226163439559021</v>
+      </c>
+      <c r="J194" s="7">
+        <v>0.64388710736642962</v>
+      </c>
+      <c r="K194" s="7">
+        <v>1.9481351647845027</v>
+      </c>
+      <c r="L194" s="7">
+        <v>0.73651225926772534</v>
+      </c>
+      <c r="M194" s="7">
+        <v>0.74047146822432697</v>
+      </c>
+      <c r="N194" s="7">
+        <v>1.6697250541421726</v>
+      </c>
+      <c r="O194" s="7">
+        <v>0.6572321426836909</v>
+      </c>
+      <c r="P194" s="7">
+        <v>0.69025949288391042</v>
+      </c>
+      <c r="Q194" s="7">
+        <v>1.8676072981540119</v>
+      </c>
+      <c r="R194" s="7">
+        <v>0.6879547094450198</v>
+      </c>
+      <c r="S194" s="7">
+        <v>0.70501134134858212</v>
+      </c>
+      <c r="T194" s="7">
+        <v>1.7351344496359364</v>
+      </c>
+      <c r="U194" s="7">
+        <v>0.7709859997961036</v>
+      </c>
+      <c r="V194" s="7">
+        <v>0.75839020144116109</v>
+      </c>
+      <c r="W194" s="7">
+        <v>1.5682904997317615</v>
+      </c>
+      <c r="X194" s="7">
+        <v>0.79992967997445596</v>
+      </c>
+      <c r="Y194" s="7">
+        <v>0.79339983521826596</v>
+      </c>
+      <c r="Z194" s="7">
+        <v>1.5043516538586299</v>
+      </c>
+      <c r="AA194" s="7">
+        <v>0.80545224284265449</v>
+      </c>
+      <c r="AB194" s="7">
+        <v>0.80102487800712452</v>
+      </c>
+      <c r="AC194" s="7">
+        <v>1.4449994229383336</v>
+      </c>
+      <c r="AD194"/>
+      <c r="AE194"/>
+      <c r="AF194"/>
+      <c r="AG194"/>
+      <c r="AH194"/>
+      <c r="AI194"/>
+      <c r="AJ194"/>
+      <c r="AK194"/>
+      <c r="AL194"/>
+      <c r="AM194"/>
+      <c r="AN194"/>
+      <c r="AO194"/>
+      <c r="AP194"/>
+      <c r="AQ194"/>
+      <c r="AR194"/>
+      <c r="AS194"/>
+      <c r="AT194"/>
+      <c r="AU194"/>
+      <c r="AV194"/>
+      <c r="AW194"/>
+    </row>
+    <row r="195" spans="1:49" ht="18">
+      <c r="A195" s="7">
+        <v>0.98</v>
+      </c>
+      <c r="B195" s="38">
+        <v>1068</v>
+      </c>
+      <c r="C195" s="7">
+        <v>0.6390364450478706</v>
+      </c>
+      <c r="D195" s="7">
+        <v>0.70423554157551493</v>
+      </c>
+      <c r="E195" s="7">
+        <v>1.8828915676217712</v>
+      </c>
+      <c r="F195" s="7">
+        <v>0.71135460323952737</v>
+      </c>
+      <c r="G195" s="7">
+        <v>0.70348960204196642</v>
+      </c>
+      <c r="H195" s="7">
+        <v>1.6947491039107476</v>
+      </c>
+      <c r="I195" s="7">
+        <v>0.58920159064083433</v>
+      </c>
+      <c r="J195" s="7">
+        <v>0.64255674872772883</v>
+      </c>
+      <c r="K195" s="7">
+        <v>1.9524491279277103</v>
+      </c>
+      <c r="L195" s="7">
+        <v>0.73824620533299989</v>
+      </c>
+      <c r="M195" s="7">
+        <v>0.74286781313721273</v>
+      </c>
+      <c r="N195" s="7">
+        <v>1.668977569904283</v>
+      </c>
+      <c r="O195" s="7">
+        <v>0.65599700605535649</v>
+      </c>
+      <c r="P195" s="7">
+        <v>0.6903897773977975</v>
+      </c>
+      <c r="Q195" s="7">
+        <v>1.8690951996134662</v>
+      </c>
+      <c r="R195" s="7">
+        <v>0.68839335259938939</v>
+      </c>
+      <c r="S195" s="7">
+        <v>0.70734505258833191</v>
+      </c>
+      <c r="T195" s="7">
+        <v>1.7343251502436701</v>
+      </c>
+      <c r="U195" s="7">
+        <v>0.76927594150591194</v>
+      </c>
+      <c r="V195" s="7">
+        <v>0.75685616198168137</v>
+      </c>
+      <c r="W195" s="7">
+        <v>1.5726787851695017</v>
+      </c>
+      <c r="X195" s="7">
+        <v>0.799403849872245</v>
+      </c>
+      <c r="Y195" s="7">
+        <v>0.79458712365786499</v>
+      </c>
+      <c r="Z195" s="7">
+        <v>1.5047427776706801</v>
+      </c>
+      <c r="AA195" s="7">
+        <v>0.80498355640632047</v>
+      </c>
+      <c r="AB195" s="7">
+        <v>0.80260908914275986</v>
+      </c>
+      <c r="AC195" s="7">
+        <v>1.4439240105390558</v>
+      </c>
+      <c r="AD195"/>
+      <c r="AE195"/>
+      <c r="AF195"/>
+      <c r="AG195"/>
+      <c r="AH195"/>
+      <c r="AI195"/>
+      <c r="AJ195"/>
+      <c r="AK195"/>
+      <c r="AL195"/>
+      <c r="AM195"/>
+      <c r="AN195"/>
+      <c r="AO195"/>
+      <c r="AP195"/>
+      <c r="AQ195"/>
+      <c r="AR195"/>
+      <c r="AS195"/>
+      <c r="AT195"/>
+      <c r="AU195"/>
+      <c r="AV195"/>
+      <c r="AW195"/>
+    </row>
+    <row r="196" spans="1:49" ht="18">
+      <c r="A196" s="7">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="B196" s="38">
+        <v>1065</v>
+      </c>
+      <c r="C196" s="7">
+        <v>0.63871215117656166</v>
+      </c>
+      <c r="D196" s="7">
+        <v>0.70378480571069979</v>
+      </c>
+      <c r="E196" s="7">
+        <v>1.8828249206818186</v>
+      </c>
+      <c r="F196" s="7">
+        <v>0.71115607610876874</v>
+      </c>
+      <c r="G196" s="7">
+        <v>0.70309834389001269</v>
+      </c>
+      <c r="H196" s="7">
+        <v>1.6950575186593659</v>
+      </c>
+      <c r="I196" s="7">
+        <v>0.58884978223302686</v>
+      </c>
+      <c r="J196" s="7">
+        <v>0.64166498764509616</v>
+      </c>
+      <c r="K196" s="7">
+        <v>1.9527127987117514</v>
+      </c>
+      <c r="L196" s="7">
+        <v>0.73986167728479013</v>
+      </c>
+      <c r="M196" s="7">
+        <v>0.74485226477327438</v>
+      </c>
+      <c r="N196" s="7">
+        <v>1.6649018180187354</v>
+      </c>
+      <c r="O196" s="7">
+        <v>0.65602512332636642</v>
+      </c>
+      <c r="P196" s="7">
+        <v>0.69055809527909318</v>
+      </c>
+      <c r="Q196" s="7">
+        <v>1.8691403390116057</v>
+      </c>
+      <c r="R196" s="7">
+        <v>0.68712366683685411</v>
+      </c>
+      <c r="S196" s="7">
+        <v>0.70490233933603164</v>
+      </c>
+      <c r="T196" s="7">
+        <v>1.735021791889364</v>
+      </c>
+      <c r="U196" s="7">
+        <v>0.76956162053225941</v>
+      </c>
+      <c r="V196" s="7">
+        <v>0.7560014632017571</v>
+      </c>
+      <c r="W196" s="7">
+        <v>1.5711097590074508</v>
+      </c>
+      <c r="X196" s="7">
+        <v>0.79909451526867203</v>
+      </c>
+      <c r="Y196" s="7">
+        <v>0.79415880320320298</v>
+      </c>
+      <c r="Z196" s="7">
+        <v>1.50381180944237</v>
+      </c>
+      <c r="AA196" s="7">
+        <v>0.80545310282172156</v>
+      </c>
+      <c r="AB196" s="7">
+        <v>0.8014656604587671</v>
+      </c>
+      <c r="AC196" s="7">
+        <v>1.4418924146576146</v>
+      </c>
+      <c r="AD196"/>
+      <c r="AE196"/>
+      <c r="AF196"/>
+      <c r="AG196"/>
+      <c r="AH196"/>
+      <c r="AI196"/>
+      <c r="AJ196"/>
+      <c r="AK196"/>
+      <c r="AL196"/>
+      <c r="AM196"/>
+      <c r="AN196"/>
+      <c r="AO196"/>
+      <c r="AP196"/>
+      <c r="AQ196"/>
+      <c r="AR196"/>
+      <c r="AS196"/>
+      <c r="AT196"/>
+      <c r="AU196"/>
+      <c r="AV196"/>
+      <c r="AW196"/>
+    </row>
+    <row r="197" spans="1:49" ht="18">
+      <c r="A197" s="7">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="B197" s="38">
+        <v>1064</v>
+      </c>
+      <c r="C197" s="7">
+        <v>0.63839041409995756</v>
+      </c>
+      <c r="D197" s="7">
+        <v>0.70377428584311885</v>
+      </c>
+      <c r="E197" s="7">
+        <v>1.8839668463733097</v>
+      </c>
+      <c r="F197" s="7">
+        <v>0.71028420279930615</v>
+      </c>
+      <c r="G197" s="7">
+        <v>0.70349105863901606</v>
+      </c>
+      <c r="H197" s="7">
+        <v>1.698063976182874</v>
+      </c>
+      <c r="I197" s="7">
+        <v>0.588639397033759</v>
+      </c>
+      <c r="J197" s="7">
+        <v>0.64177504164440469</v>
+      </c>
+      <c r="K197" s="7">
+        <v>1.9536605946089085</v>
+      </c>
+      <c r="L197" s="7">
+        <v>0.73865016534291106</v>
+      </c>
+      <c r="M197" s="7">
+        <v>0.74383151392968749</v>
+      </c>
+      <c r="N197" s="7">
+        <v>1.6695838799449443</v>
+      </c>
+      <c r="O197" s="7">
+        <v>0.65573064767306455</v>
+      </c>
+      <c r="P197" s="7">
+        <v>0.69012111616419147</v>
+      </c>
+      <c r="Q197" s="7">
+        <v>1.8698997683638485</v>
+      </c>
+      <c r="R197" s="7">
+        <v>0.68953034350650355</v>
+      </c>
+      <c r="S197" s="7">
+        <v>0.70867646321379074</v>
+      </c>
+      <c r="T197" s="7">
+        <v>1.7305000754778728</v>
+      </c>
+      <c r="U197" s="7">
+        <v>0.77078922062413857</v>
+      </c>
+      <c r="V197" s="7">
+        <v>0.7580127809611793</v>
+      </c>
+      <c r="W197" s="7">
+        <v>1.5694109410826476</v>
+      </c>
+      <c r="X197" s="7">
+        <v>0.79931114681881399</v>
+      </c>
+      <c r="Y197" s="7">
+        <v>0.79437421772243799</v>
+      </c>
+      <c r="Z197" s="7">
+        <v>1.5047471920156099</v>
+      </c>
+      <c r="AA197" s="7">
+        <v>0.80489860269661762</v>
+      </c>
+      <c r="AB197" s="7">
+        <v>0.80173148942033234</v>
+      </c>
+      <c r="AC197" s="7">
+        <v>1.4431076920079435</v>
+      </c>
+      <c r="AD197"/>
+      <c r="AE197"/>
+      <c r="AF197"/>
+      <c r="AG197"/>
+      <c r="AH197"/>
+      <c r="AI197"/>
+      <c r="AJ197"/>
+      <c r="AK197"/>
+      <c r="AL197"/>
+      <c r="AM197"/>
+      <c r="AN197"/>
+      <c r="AO197"/>
+      <c r="AP197"/>
+      <c r="AQ197"/>
+      <c r="AR197"/>
+      <c r="AS197"/>
+      <c r="AT197"/>
+      <c r="AU197"/>
+      <c r="AV197"/>
+      <c r="AW197"/>
+    </row>
+    <row r="198" spans="1:49" ht="18">
+      <c r="A198" s="7">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="B198" s="38">
+        <v>1058</v>
+      </c>
+      <c r="C198" s="7">
+        <v>0.63785243311114559</v>
+      </c>
+      <c r="D198" s="7">
+        <v>0.70272715440852107</v>
+      </c>
+      <c r="E198" s="7">
+        <v>1.8853317300794532</v>
+      </c>
+      <c r="F198" s="7">
+        <v>0.71423031269162729</v>
+      </c>
+      <c r="G198" s="7">
+        <v>0.70786619064388134</v>
+      </c>
+      <c r="H198" s="7">
+        <v>1.6916084119329902</v>
+      </c>
+      <c r="I198" s="7">
+        <v>0.58772519081750541</v>
+      </c>
+      <c r="J198" s="7">
+        <v>0.64016712034568346</v>
+      </c>
+      <c r="K198" s="7">
+        <v>1.9553983356348721</v>
+      </c>
+      <c r="L198" s="7">
+        <v>0.74308965407249183</v>
+      </c>
+      <c r="M198" s="7">
+        <v>0.75111377087952369</v>
+      </c>
+      <c r="N198" s="7">
+        <v>1.6619908484048593</v>
+      </c>
+      <c r="O198" s="7">
+        <v>0.65548001019380731</v>
+      </c>
+      <c r="P198" s="7">
+        <v>0.68958541213814528</v>
+      </c>
+      <c r="Q198" s="7">
+        <v>1.8706673046347291</v>
+      </c>
+      <c r="R198" s="7">
+        <v>0.68826335338833222</v>
+      </c>
+      <c r="S198" s="7">
+        <v>0.70702460123740407</v>
+      </c>
+      <c r="T198" s="7">
+        <v>1.7338050314839304</v>
+      </c>
+      <c r="U198" s="7">
+        <v>0.77275096092629103</v>
+      </c>
+      <c r="V198" s="7">
+        <v>0.76187883229718434</v>
+      </c>
+      <c r="W198" s="7">
+        <v>1.5658960944978866</v>
+      </c>
+      <c r="X198" s="7">
+        <v>0.802417082849601</v>
+      </c>
+      <c r="Y198" s="7">
+        <v>0.79766305201648102</v>
+      </c>
+      <c r="Z198" s="7">
+        <v>1.49960899936545</v>
+      </c>
+      <c r="AA198" s="7">
+        <v>0.80532225749474351</v>
+      </c>
+      <c r="AB198" s="7">
+        <v>0.80133553778899635</v>
+      </c>
+      <c r="AC198" s="7">
+        <v>1.443202671504779</v>
+      </c>
+      <c r="AD198"/>
+      <c r="AE198"/>
+      <c r="AF198"/>
+      <c r="AG198"/>
+      <c r="AH198"/>
+      <c r="AI198"/>
+      <c r="AJ198"/>
+      <c r="AK198"/>
+      <c r="AL198"/>
+      <c r="AM198"/>
+      <c r="AN198"/>
+      <c r="AO198"/>
+      <c r="AP198"/>
+      <c r="AQ198"/>
+      <c r="AR198"/>
+      <c r="AS198"/>
+      <c r="AT198"/>
+      <c r="AU198"/>
+      <c r="AV198"/>
+      <c r="AW198"/>
+    </row>
+    <row r="199" spans="1:49" ht="18">
+      <c r="A199" s="7">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="B199" s="38">
+        <v>1052</v>
+      </c>
+      <c r="C199" s="7">
+        <v>0.63837580471001931</v>
+      </c>
+      <c r="D199" s="7">
+        <v>0.70401947967981371</v>
+      </c>
+      <c r="E199" s="7">
+        <v>1.8828252143973701</v>
+      </c>
+      <c r="F199" s="7">
+        <v>0.71503041328675887</v>
+      </c>
+      <c r="G199" s="7">
+        <v>0.7076159796395709</v>
+      </c>
+      <c r="H199" s="7">
+        <v>1.6908981965258323</v>
+      </c>
+      <c r="I199" s="7">
+        <v>0.5889202667483141</v>
+      </c>
+      <c r="J199" s="7">
+        <v>0.64135262849999986</v>
+      </c>
+      <c r="K199" s="7">
+        <v>1.9545012277329357</v>
+      </c>
+      <c r="L199" s="7">
+        <v>0.7427570808238213</v>
+      </c>
+      <c r="M199" s="7">
+        <v>0.74860381139676346</v>
+      </c>
+      <c r="N199" s="7">
+        <v>1.6636384461770732</v>
+      </c>
+      <c r="O199" s="7">
+        <v>0.65534505549877486</v>
+      </c>
+      <c r="P199" s="7">
+        <v>0.68904647122976659</v>
+      </c>
+      <c r="Q199" s="7">
+        <v>1.8707909419054771</v>
+      </c>
+      <c r="R199" s="7">
+        <v>0.69059027885782798</v>
+      </c>
+      <c r="S199" s="7">
+        <v>0.709606905040298</v>
+      </c>
+      <c r="T199" s="7">
+        <v>1.7294512498454266</v>
+      </c>
+      <c r="U199" s="7">
+        <v>0.77240188672647037</v>
+      </c>
+      <c r="V199" s="7">
+        <v>0.76123509732328754</v>
+      </c>
+      <c r="W199" s="7">
+        <v>1.5670775514311526</v>
+      </c>
+      <c r="X199" s="7">
+        <v>0.80085508125925797</v>
+      </c>
+      <c r="Y199" s="7">
+        <v>0.79643724467712396</v>
+      </c>
+      <c r="Z199" s="7">
+        <v>1.50398378023557</v>
+      </c>
+      <c r="AA199" s="7">
+        <v>0.80356760153455764</v>
+      </c>
+      <c r="AB199" s="7">
+        <v>0.80073307306484021</v>
+      </c>
+      <c r="AC199" s="7">
+        <v>1.4488259447392255</v>
+      </c>
+      <c r="AD199"/>
+      <c r="AE199"/>
+      <c r="AF199"/>
+      <c r="AG199"/>
+      <c r="AH199"/>
+      <c r="AI199"/>
+      <c r="AJ199"/>
+      <c r="AK199"/>
+      <c r="AL199"/>
+      <c r="AM199"/>
+      <c r="AN199"/>
+      <c r="AO199"/>
+      <c r="AP199"/>
+      <c r="AQ199"/>
+      <c r="AR199"/>
+      <c r="AS199"/>
+      <c r="AT199"/>
+      <c r="AU199"/>
+      <c r="AV199"/>
+      <c r="AW199"/>
+    </row>
+    <row r="200" spans="1:49" ht="18">
+      <c r="A200" s="7">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="B200" s="38">
+        <v>1051</v>
+      </c>
+      <c r="C200" s="7">
+        <v>0.6382489655780208</v>
+      </c>
+      <c r="D200" s="7">
+        <v>0.70401057825339908</v>
+      </c>
+      <c r="E200" s="7">
+        <v>1.8834239130308634</v>
+      </c>
+      <c r="F200" s="7">
+        <v>0.71509547803909046</v>
+      </c>
+      <c r="G200" s="7">
+        <v>0.70713514076906248</v>
+      </c>
+      <c r="H200" s="7">
+        <v>1.6907366185437955</v>
+      </c>
+      <c r="I200" s="7">
+        <v>0.58874728905473528</v>
+      </c>
+      <c r="J200" s="7">
+        <v>0.6409763409288346</v>
+      </c>
+      <c r="K200" s="7">
+        <v>1.9551074633745078</v>
+      </c>
+      <c r="L200" s="7">
+        <v>0.74239448317957468</v>
+      </c>
+      <c r="M200" s="7">
+        <v>0.74908197983934754</v>
+      </c>
+      <c r="N200" s="7">
+        <v>1.6665029176946142</v>
+      </c>
+      <c r="O200" s="7">
+        <v>0.65516706552530235</v>
+      </c>
+      <c r="P200" s="7">
+        <v>0.6888741072455552</v>
+      </c>
+      <c r="Q200" s="7">
+        <v>1.8713256878062086</v>
+      </c>
+      <c r="R200" s="7">
+        <v>0.68932878349905191</v>
+      </c>
+      <c r="S200" s="7">
+        <v>0.70886638728465623</v>
+      </c>
+      <c r="T200" s="7">
+        <v>1.7320134834965288</v>
+      </c>
+      <c r="U200" s="7">
+        <v>0.77271119405255606</v>
+      </c>
+      <c r="V200" s="7">
+        <v>0.76235060789716136</v>
+      </c>
+      <c r="W200" s="7">
+        <v>1.5671368595949098</v>
+      </c>
+      <c r="X200" s="7">
+        <v>0.802642582519973</v>
+      </c>
+      <c r="Y200" s="7">
+        <v>0.79777901332604695</v>
+      </c>
+      <c r="Z200" s="7">
+        <v>1.5005194021669801</v>
+      </c>
+      <c r="AA200" s="7">
+        <v>0.80606761652362979</v>
+      </c>
+      <c r="AB200" s="7">
+        <v>0.80267746828203612</v>
+      </c>
+      <c r="AC200" s="7">
+        <v>1.4423745650410473</v>
+      </c>
+      <c r="AD200"/>
+      <c r="AE200"/>
+      <c r="AF200"/>
+      <c r="AG200"/>
+      <c r="AH200"/>
+      <c r="AI200"/>
+      <c r="AJ200"/>
+      <c r="AK200"/>
+      <c r="AL200"/>
+      <c r="AM200"/>
+      <c r="AN200"/>
+      <c r="AO200"/>
+      <c r="AP200"/>
+      <c r="AQ200"/>
+      <c r="AR200"/>
+      <c r="AS200"/>
+      <c r="AT200"/>
+      <c r="AU200"/>
+      <c r="AV200"/>
+      <c r="AW200"/>
+    </row>
+    <row r="201" spans="1:49" ht="18">
+      <c r="A201" s="7">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="B201" s="38">
+        <v>1049</v>
+      </c>
+      <c r="C201" s="7">
+        <v>0.63802783041076327</v>
+      </c>
+      <c r="D201" s="7">
+        <v>0.70303708589186809</v>
+      </c>
+      <c r="E201" s="7">
+        <v>1.8849006736265221</v>
+      </c>
+      <c r="F201" s="7">
+        <v>0.71534959084198002</v>
+      </c>
+      <c r="G201" s="7">
+        <v>0.70699498376406056</v>
+      </c>
+      <c r="H201" s="7">
+        <v>1.690947901623564</v>
+      </c>
+      <c r="I201" s="7">
+        <v>0.58832542219728545</v>
+      </c>
+      <c r="J201" s="7">
+        <v>0.64088166212060582</v>
+      </c>
+      <c r="K201" s="7">
+        <v>1.9565247283174778</v>
+      </c>
+      <c r="L201" s="7">
+        <v>0.74293554996131239</v>
+      </c>
+      <c r="M201" s="7">
+        <v>0.7495077107881436</v>
+      </c>
+      <c r="N201" s="7">
+        <v>1.6647467265215572</v>
+      </c>
+      <c r="O201" s="7">
+        <v>0.65526577307431055</v>
+      </c>
+      <c r="P201" s="7">
+        <v>0.68934911972786517</v>
+      </c>
+      <c r="Q201" s="7">
+        <v>1.8722354467096416</v>
+      </c>
+      <c r="R201" s="7">
+        <v>0.68914558249229041</v>
+      </c>
+      <c r="S201" s="7">
+        <v>0.70809884156153724</v>
+      </c>
+      <c r="T201" s="7">
+        <v>1.734257272855658</v>
+      </c>
+      <c r="U201" s="7">
+        <v>0.76845357444618001</v>
+      </c>
+      <c r="V201" s="7">
+        <v>0.75600227242234008</v>
+      </c>
+      <c r="W201" s="7">
+        <v>1.5790264439051678</v>
+      </c>
+      <c r="X201" s="7">
+        <v>0.80100765652320804</v>
+      </c>
+      <c r="Y201" s="7">
+        <v>0.79566362979963101</v>
+      </c>
+      <c r="Z201" s="7">
+        <v>1.50642093275773</v>
+      </c>
+      <c r="AA201" s="7">
+        <v>0.80302635770571718</v>
+      </c>
+      <c r="AB201" s="7">
+        <v>0.79981574061178018</v>
+      </c>
+      <c r="AC201" s="7">
+        <v>1.4507415255849609</v>
+      </c>
+      <c r="AD201"/>
+      <c r="AE201"/>
+      <c r="AF201"/>
+      <c r="AG201"/>
+      <c r="AH201"/>
+      <c r="AI201"/>
+      <c r="AJ201"/>
+      <c r="AK201"/>
+      <c r="AL201"/>
+      <c r="AM201"/>
+      <c r="AN201"/>
+      <c r="AO201"/>
+      <c r="AP201"/>
+      <c r="AQ201"/>
+      <c r="AR201"/>
+      <c r="AS201"/>
+      <c r="AT201"/>
+      <c r="AU201"/>
+      <c r="AV201"/>
+      <c r="AW201"/>
+    </row>
+    <row r="202" spans="1:49" ht="18">
+      <c r="A202" s="16">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="B202" s="39">
+        <v>1038</v>
+      </c>
+      <c r="C202" s="16">
+        <v>0.6380282211487619</v>
+      </c>
+      <c r="D202" s="16">
+        <v>0.70239294630767979</v>
+      </c>
+      <c r="E202" s="16">
+        <v>1.8878718392703715</v>
+      </c>
+      <c r="F202" s="16">
+        <v>0.7140167216582548</v>
+      </c>
+      <c r="G202" s="16">
+        <v>0.70481235400718523</v>
+      </c>
+      <c r="H202" s="16">
+        <v>1.6919069274163085</v>
+      </c>
+      <c r="I202" s="16">
+        <v>0.58777149832476105</v>
+      </c>
+      <c r="J202" s="16">
+        <v>0.64021729202183864</v>
+      </c>
+      <c r="K202" s="16">
+        <v>1.9600147114605417</v>
+      </c>
+      <c r="L202" s="16">
+        <v>0.74197963160588432</v>
+      </c>
+      <c r="M202" s="16">
+        <v>0.74789194004976545</v>
+      </c>
+      <c r="N202" s="16">
+        <v>1.6656324263418001</v>
+      </c>
+      <c r="O202" s="16">
+        <v>0.65588574340794359</v>
+      </c>
+      <c r="P202" s="16">
+        <v>0.68972702574019695</v>
+      </c>
+      <c r="Q202" s="16">
+        <v>1.8737613084828975</v>
+      </c>
+      <c r="R202" s="16">
+        <v>0.68699570078039129</v>
+      </c>
+      <c r="S202" s="16">
+        <v>0.70726008442710109</v>
+      </c>
+      <c r="T202" s="16">
+        <v>1.7379887441457433</v>
+      </c>
+      <c r="U202" s="16">
+        <v>0.76802410866123982</v>
+      </c>
+      <c r="V202" s="16">
+        <v>0.75534712743822097</v>
+      </c>
+      <c r="W202" s="16">
+        <v>1.5778851361184447</v>
+      </c>
+      <c r="X202" s="16">
+        <v>0.800230507573088</v>
+      </c>
+      <c r="Y202" s="16">
+        <v>0.79456891619474401</v>
+      </c>
+      <c r="Z202" s="16">
+        <v>1.5061042823919699</v>
+      </c>
+      <c r="AA202" s="16">
+        <v>0.80236398478093085</v>
+      </c>
+      <c r="AB202" s="16">
+        <v>0.7989564292745317</v>
+      </c>
+      <c r="AC202" s="16">
+        <v>1.4529933357746407</v>
+      </c>
+      <c r="AD202"/>
+      <c r="AE202"/>
+      <c r="AF202"/>
+      <c r="AG202"/>
+      <c r="AH202"/>
+      <c r="AI202"/>
+      <c r="AJ202"/>
+      <c r="AK202"/>
+      <c r="AL202"/>
+      <c r="AM202"/>
+      <c r="AN202"/>
+      <c r="AO202"/>
+      <c r="AP202"/>
+      <c r="AQ202"/>
+      <c r="AR202"/>
+      <c r="AS202"/>
+      <c r="AT202"/>
+      <c r="AU202"/>
+      <c r="AV202"/>
+      <c r="AW202"/>
+    </row>
+    <row r="203" spans="1:49" ht="18">
+      <c r="A203" s="7">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="B203" s="38">
+        <v>1022</v>
+      </c>
+      <c r="C203" s="7">
+        <v>0.6375343241175806</v>
+      </c>
+      <c r="D203" s="7">
+        <v>0.7021938780442244</v>
+      </c>
+      <c r="E203" s="7">
+        <v>1.8862203721216688</v>
+      </c>
+      <c r="F203" s="7">
+        <v>0.71451330834323323</v>
+      </c>
+      <c r="G203" s="7">
+        <v>0.70371302784497436</v>
+      </c>
+      <c r="H203" s="7">
+        <v>1.6904083589162073</v>
+      </c>
+      <c r="I203" s="7">
+        <v>0.58734829493630702</v>
+      </c>
+      <c r="J203" s="7">
+        <v>0.63906091580851576</v>
+      </c>
+      <c r="K203" s="7">
+        <v>1.960738224037851</v>
+      </c>
+      <c r="L203" s="7">
+        <v>0.74368573670061544</v>
+      </c>
+      <c r="M203" s="7">
+        <v>0.74960708307575441</v>
+      </c>
+      <c r="N203" s="7">
+        <v>1.657809156532291</v>
+      </c>
+      <c r="O203" s="7">
+        <v>0.65486297417395012</v>
+      </c>
+      <c r="P203" s="7">
+        <v>0.68948506878583449</v>
+      </c>
+      <c r="Q203" s="7">
+        <v>1.8745577788198529</v>
+      </c>
+      <c r="R203" s="7">
+        <v>0.68857625298643987</v>
+      </c>
+      <c r="S203" s="7">
+        <v>0.70804276257512488</v>
+      </c>
+      <c r="T203" s="7">
+        <v>1.7333408141623807</v>
+      </c>
+      <c r="U203" s="7">
+        <v>0.76467327538966534</v>
+      </c>
+      <c r="V203" s="7">
+        <v>0.75383817381681872</v>
+      </c>
+      <c r="W203" s="7">
+        <v>1.5822884766204428</v>
+      </c>
+      <c r="X203" s="7">
+        <v>0.79795778462029798</v>
+      </c>
+      <c r="Y203" s="7">
+        <v>0.793454943139978</v>
+      </c>
+      <c r="Z203" s="7">
+        <v>1.5078095513443699</v>
+      </c>
+      <c r="AA203" s="7">
+        <v>0.80398167574640333</v>
+      </c>
+      <c r="AB203" s="7">
+        <v>0.79946356781399275</v>
+      </c>
+      <c r="AC203" s="7">
+        <v>1.4462654336285179</v>
+      </c>
+      <c r="AD203"/>
+      <c r="AE203"/>
+      <c r="AF203"/>
+      <c r="AG203"/>
+      <c r="AH203"/>
+      <c r="AI203"/>
+      <c r="AJ203"/>
+      <c r="AK203"/>
+      <c r="AL203"/>
+      <c r="AM203"/>
+      <c r="AN203"/>
+      <c r="AO203"/>
+      <c r="AP203"/>
+      <c r="AQ203"/>
+      <c r="AR203"/>
+      <c r="AS203"/>
+      <c r="AT203"/>
+      <c r="AU203"/>
+      <c r="AV203"/>
+      <c r="AW203"/>
+    </row>
+    <row r="204" spans="1:49" ht="18">
+      <c r="A204" s="7">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="B204" s="38">
+        <v>1014</v>
+      </c>
+      <c r="C204" s="7">
+        <v>0.63660037815962867</v>
+      </c>
+      <c r="D204" s="7">
+        <v>0.70183215644355612</v>
+      </c>
+      <c r="E204" s="7">
+        <v>1.8880268010275951</v>
+      </c>
+      <c r="F204" s="7">
+        <v>0.70621666637926195</v>
+      </c>
+      <c r="G204" s="7">
+        <v>0.69612812239703969</v>
+      </c>
+      <c r="H204" s="7">
+        <v>1.7079063235391518</v>
+      </c>
+      <c r="I204" s="7">
+        <v>0.58659119237592183</v>
+      </c>
+      <c r="J204" s="7">
+        <v>0.63883918936873219</v>
+      </c>
+      <c r="K204" s="7">
+        <v>1.9641750920673124</v>
+      </c>
+      <c r="L204" s="7">
+        <v>0.73966394441136063</v>
+      </c>
+      <c r="M204" s="7">
+        <v>0.74526877060742236</v>
+      </c>
+      <c r="N204" s="7">
+        <v>1.6656167081320423</v>
+      </c>
+      <c r="O204" s="7">
+        <v>0.65477471682559496</v>
+      </c>
+      <c r="P204" s="7">
+        <v>0.69006204306162122</v>
+      </c>
+      <c r="Q204" s="7">
+        <v>1.877794654236109</v>
+      </c>
+      <c r="R204" s="7">
+        <v>0.68934687585000709</v>
+      </c>
+      <c r="S204" s="7">
+        <v>0.71043862195566077</v>
+      </c>
+      <c r="T204" s="7">
+        <v>1.7313596734026735</v>
+      </c>
+      <c r="U204" s="7">
+        <v>0.76405145720443213</v>
+      </c>
+      <c r="V204" s="7">
+        <v>0.7514544527450302</v>
+      </c>
+      <c r="W204" s="7">
+        <v>1.585057225408177</v>
+      </c>
+      <c r="X204" s="7">
+        <v>0.79748621544804998</v>
+      </c>
+      <c r="Y204" s="7">
+        <v>0.79308148784085397</v>
+      </c>
+      <c r="Z204" s="7">
+        <v>1.5115317968806099</v>
+      </c>
+      <c r="AA204" s="7">
+        <v>0.79806827299622385</v>
+      </c>
+      <c r="AB204" s="7">
+        <v>0.79514467663965616</v>
+      </c>
+      <c r="AC204" s="7">
+        <v>1.4613737037374073</v>
+      </c>
+      <c r="AD204"/>
+      <c r="AE204"/>
+      <c r="AF204"/>
+      <c r="AG204"/>
+      <c r="AH204"/>
+      <c r="AI204"/>
+      <c r="AJ204"/>
+      <c r="AK204"/>
+      <c r="AL204"/>
+      <c r="AM204"/>
+      <c r="AN204"/>
+      <c r="AO204"/>
+      <c r="AP204"/>
+      <c r="AQ204"/>
+      <c r="AR204"/>
+      <c r="AS204"/>
+      <c r="AT204"/>
+      <c r="AU204"/>
+      <c r="AV204"/>
+      <c r="AW204"/>
+    </row>
+    <row r="205" spans="1:49" ht="18">
+      <c r="A205" s="7">
+        <v>0.99</v>
+      </c>
+      <c r="B205" s="38">
+        <v>998</v>
+      </c>
+      <c r="C205" s="7">
+        <v>0.63730517333725689</v>
+      </c>
+      <c r="D205" s="7">
+        <v>0.70132882124083573</v>
+      </c>
+      <c r="E205" s="7">
+        <v>1.8845577622038179</v>
+      </c>
+      <c r="F205" s="7">
+        <v>0.71423680366434006</v>
+      </c>
+      <c r="G205" s="7">
+        <v>0.70692021178217757</v>
+      </c>
+      <c r="H205" s="7">
+        <v>1.6894519221706248</v>
+      </c>
+      <c r="I205" s="7">
+        <v>0.5870003795656461</v>
+      </c>
+      <c r="J205" s="7">
+        <v>0.63850902737080661</v>
+      </c>
+      <c r="K205" s="7">
+        <v>1.960387397385452</v>
+      </c>
+      <c r="L205" s="7">
+        <v>0.73828117286968231</v>
+      </c>
+      <c r="M205" s="7">
+        <v>0.74566965848431543</v>
+      </c>
+      <c r="N205" s="7">
+        <v>1.6674034651713203</v>
+      </c>
+      <c r="O205" s="7">
+        <v>0.65477495207956771</v>
+      </c>
+      <c r="P205" s="7">
+        <v>0.68863215029119318</v>
+      </c>
+      <c r="Q205" s="7">
+        <v>1.8720554475537026</v>
+      </c>
+      <c r="R205" s="7">
+        <v>0.68574255340211876</v>
+      </c>
+      <c r="S205" s="7">
+        <v>0.70766089138193577</v>
+      </c>
+      <c r="T205" s="7">
+        <v>1.7382311995611879</v>
+      </c>
+      <c r="U205" s="7">
+        <v>0.76440193150843216</v>
+      </c>
+      <c r="V205" s="7">
+        <v>0.75384011594621847</v>
+      </c>
+      <c r="W205" s="7">
+        <v>1.5841256659138745</v>
+      </c>
+      <c r="X205" s="7">
+        <v>0.796773546861551</v>
+      </c>
+      <c r="Y205" s="7">
+        <v>0.79230973417070305</v>
+      </c>
+      <c r="Z205" s="7">
+        <v>1.51021139905215</v>
+      </c>
+      <c r="AA205" s="7">
+        <v>0.79821469352289509</v>
+      </c>
+      <c r="AB205" s="7">
+        <v>0.79851629419935599</v>
+      </c>
+      <c r="AC205" s="7">
+        <v>1.460762924536789</v>
+      </c>
+      <c r="AD205"/>
+      <c r="AE205"/>
+      <c r="AF205"/>
+      <c r="AG205"/>
+      <c r="AH205"/>
+      <c r="AI205"/>
+      <c r="AJ205"/>
+      <c r="AK205"/>
+      <c r="AL205"/>
+      <c r="AM205"/>
+      <c r="AN205"/>
+      <c r="AO205"/>
+      <c r="AP205"/>
+      <c r="AQ205"/>
+      <c r="AR205"/>
+      <c r="AS205"/>
+      <c r="AT205"/>
+      <c r="AU205"/>
+      <c r="AV205"/>
+      <c r="AW205"/>
+    </row>
+    <row r="206" spans="1:49" ht="18">
+      <c r="A206" s="7">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="B206" s="38">
+        <v>974</v>
+      </c>
+      <c r="C206" s="7">
+        <v>0.63904124924350658</v>
+      </c>
+      <c r="D206" s="7">
+        <v>0.70406641447363649</v>
+      </c>
+      <c r="E206" s="7">
+        <v>1.8848929868409585</v>
+      </c>
+      <c r="F206" s="7">
+        <v>0.71018207054867655</v>
+      </c>
+      <c r="G206" s="7">
+        <v>0.70125841905010167</v>
+      </c>
+      <c r="H206" s="7">
+        <v>1.6991699565233926</v>
+      </c>
+      <c r="I206" s="7">
+        <v>0.58717345914012964</v>
+      </c>
+      <c r="J206" s="7">
+        <v>0.63967106812821151</v>
+      </c>
+      <c r="K206" s="7">
+        <v>1.9601000175060563</v>
+      </c>
+      <c r="L206" s="7">
+        <v>0.73685622378006044</v>
+      </c>
+      <c r="M206" s="7">
+        <v>0.74354205572709431</v>
+      </c>
+      <c r="N206" s="7">
+        <v>1.6705209023375924</v>
+      </c>
+      <c r="O206" s="7">
+        <v>0.65542824862920213</v>
+      </c>
+      <c r="P206" s="7">
+        <v>0.68911120887641875</v>
+      </c>
+      <c r="Q206" s="7">
+        <v>1.867547887411352</v>
+      </c>
+      <c r="R206" s="7">
+        <v>0.68424903255372516</v>
+      </c>
+      <c r="S206" s="7">
+        <v>0.70714873567485947</v>
+      </c>
+      <c r="T206" s="7">
+        <v>1.7409130826113437</v>
+      </c>
+      <c r="U206" s="7">
+        <v>0.76122026436803458</v>
+      </c>
+      <c r="V206" s="7">
+        <v>0.75320236920463701</v>
+      </c>
+      <c r="W206" s="7">
+        <v>1.5939481442890879</v>
+      </c>
+      <c r="X206" s="7">
+        <v>0.79537280963953905</v>
+      </c>
+      <c r="Y206" s="7">
+        <v>0.79268480791099305</v>
+      </c>
+      <c r="Z206" s="7">
+        <v>1.51590685096723</v>
+      </c>
+      <c r="AA206" s="7">
+        <v>0.79454190723006846</v>
+      </c>
+      <c r="AB206" s="7">
+        <v>0.79323891353447507</v>
+      </c>
+      <c r="AC206" s="7">
+        <v>1.4697528883272606</v>
+      </c>
+      <c r="AD206"/>
+      <c r="AE206"/>
+      <c r="AF206"/>
+      <c r="AG206"/>
+      <c r="AH206"/>
+      <c r="AI206"/>
+      <c r="AJ206"/>
+      <c r="AK206"/>
+      <c r="AL206"/>
+      <c r="AM206"/>
+      <c r="AN206"/>
+      <c r="AO206"/>
+      <c r="AP206"/>
+      <c r="AQ206"/>
+      <c r="AR206"/>
+      <c r="AS206"/>
+      <c r="AT206"/>
+      <c r="AU206"/>
+      <c r="AV206"/>
+      <c r="AW206"/>
+    </row>
+    <row r="207" spans="1:49" ht="18">
+      <c r="A207" s="7">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="B207" s="38">
+        <v>955</v>
+      </c>
+      <c r="C207" s="7">
+        <v>0.63811798787314877</v>
+      </c>
+      <c r="D207" s="7">
+        <v>0.70249005277765775</v>
+      </c>
+      <c r="E207" s="7">
+        <v>1.8891913721749565</v>
+      </c>
+      <c r="F207" s="7">
+        <v>0.70998171029325674</v>
+      </c>
+      <c r="G207" s="7">
+        <v>0.70358776049870242</v>
+      </c>
+      <c r="H207" s="7">
+        <v>1.6975688516536933</v>
+      </c>
+      <c r="I207" s="7">
+        <v>0.58539884998566882</v>
+      </c>
+      <c r="J207" s="7">
+        <v>0.63628609842889006</v>
+      </c>
+      <c r="K207" s="7">
+        <v>1.9644997916550149</v>
+      </c>
+      <c r="L207" s="7">
+        <v>0.7319224669651837</v>
+      </c>
+      <c r="M207" s="7">
+        <v>0.73754039035009489</v>
+      </c>
+      <c r="N207" s="7">
+        <v>1.6795293561144979</v>
+      </c>
+      <c r="O207" s="7">
+        <v>0.65528360496785953</v>
+      </c>
+      <c r="P207" s="7">
+        <v>0.68951096384449539</v>
+      </c>
+      <c r="Q207" s="7">
+        <v>1.8694153535548748</v>
+      </c>
+      <c r="R207" s="7">
+        <v>0.68099666121824665</v>
+      </c>
+      <c r="S207" s="7">
+        <v>0.70529942387618394</v>
+      </c>
+      <c r="T207" s="7">
+        <v>1.7457657623672964</v>
+      </c>
+      <c r="U207" s="7">
+        <v>0.76414195835325638</v>
+      </c>
+      <c r="V207" s="7">
+        <v>0.75681748123780657</v>
+      </c>
+      <c r="W207" s="7">
+        <v>1.5851308389934309</v>
+      </c>
+      <c r="X207" s="7">
+        <v>0.79677277378312605</v>
+      </c>
+      <c r="Y207" s="7">
+        <v>0.79351692943664798</v>
+      </c>
+      <c r="Z207" s="7">
+        <v>1.51418297191766</v>
+      </c>
+      <c r="AA207" s="7">
+        <v>0.79716496024871819</v>
+      </c>
+      <c r="AB207" s="7">
+        <v>0.79516539268658504</v>
+      </c>
+      <c r="AC207" s="7">
+        <v>1.4627086984711219</v>
+      </c>
+      <c r="AD207"/>
+      <c r="AE207"/>
+      <c r="AF207"/>
+      <c r="AG207"/>
+      <c r="AH207"/>
+      <c r="AI207"/>
+      <c r="AJ207"/>
+      <c r="AK207"/>
+      <c r="AL207"/>
+      <c r="AM207"/>
+      <c r="AN207"/>
+      <c r="AO207"/>
+      <c r="AP207"/>
+      <c r="AQ207"/>
+      <c r="AR207"/>
+      <c r="AS207"/>
+      <c r="AT207"/>
+      <c r="AU207"/>
+      <c r="AV207"/>
+      <c r="AW207"/>
+    </row>
+    <row r="208" spans="1:49" ht="18">
+      <c r="A208" s="7">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="B208" s="38">
+        <v>918</v>
+      </c>
+      <c r="C208" s="7">
+        <v>0.63919452533083365</v>
+      </c>
+      <c r="D208" s="7">
+        <v>0.70489991167428212</v>
+      </c>
+      <c r="E208" s="7">
+        <v>1.8823293193678492</v>
+      </c>
+      <c r="F208" s="7">
+        <v>0.7040805097484174</v>
+      </c>
+      <c r="G208" s="7">
+        <v>0.6968338436676057</v>
+      </c>
+      <c r="H208" s="7">
+        <v>1.7062210810040253</v>
+      </c>
+      <c r="I208" s="7">
+        <v>0.58646045164994376</v>
+      </c>
+      <c r="J208" s="7">
+        <v>0.63895167102979034</v>
+      </c>
+      <c r="K208" s="7">
+        <v>1.9611066921065547</v>
+      </c>
+      <c r="L208" s="7">
+        <v>0.73535007595617463</v>
+      </c>
+      <c r="M208" s="7">
+        <v>0.73960794894004633</v>
+      </c>
+      <c r="N208" s="7">
+        <v>1.6676851820164262</v>
+      </c>
+      <c r="O208" s="7">
+        <v>0.6550387288129238</v>
+      </c>
+      <c r="P208" s="7">
+        <v>0.68891618671587918</v>
+      </c>
+      <c r="Q208" s="7">
+        <v>1.867573032438854</v>
+      </c>
+      <c r="R208" s="7">
+        <v>0.67534500798902453</v>
+      </c>
+      <c r="S208" s="7">
+        <v>0.70196875287799165</v>
+      </c>
+      <c r="T208" s="7">
+        <v>1.7584308634016943</v>
+      </c>
+      <c r="U208" s="7">
+        <v>0.76177965395412683</v>
+      </c>
+      <c r="V208" s="7">
+        <v>0.75388551322093333</v>
+      </c>
+      <c r="W208" s="7">
+        <v>1.5902915892542602</v>
+      </c>
+      <c r="X208" s="7">
+        <v>0.79934315556293001</v>
+      </c>
+      <c r="Y208" s="7">
+        <v>0.79625994444735504</v>
+      </c>
+      <c r="Z208" s="7">
+        <v>1.5058553697108099</v>
+      </c>
+      <c r="AA208" s="7">
+        <v>0.79470467064310668</v>
+      </c>
+      <c r="AB208" s="7">
+        <v>0.79606257554712467</v>
+      </c>
+      <c r="AC208" s="7">
+        <v>1.4681411481900404</v>
+      </c>
+      <c r="AD208"/>
+      <c r="AE208"/>
+      <c r="AF208"/>
+      <c r="AG208"/>
+      <c r="AH208"/>
+      <c r="AI208"/>
+      <c r="AJ208"/>
+      <c r="AK208"/>
+      <c r="AL208"/>
+      <c r="AM208"/>
+      <c r="AN208"/>
+      <c r="AO208"/>
+      <c r="AP208"/>
+      <c r="AQ208"/>
+      <c r="AR208"/>
+      <c r="AS208"/>
+      <c r="AT208"/>
+      <c r="AU208"/>
+      <c r="AV208"/>
+      <c r="AW208"/>
+    </row>
+    <row r="209" spans="1:49" ht="18">
+      <c r="A209" s="7">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="B209" s="38">
+        <v>859</v>
+      </c>
+      <c r="C209" s="16">
+        <v>0.63397907850371993</v>
+      </c>
+      <c r="D209" s="16">
+        <v>0.6967890937693576</v>
+      </c>
+      <c r="E209" s="16">
+        <v>1.8876767177040423</v>
+      </c>
+      <c r="F209" s="16">
+        <v>0.7043669455384185</v>
+      </c>
+      <c r="G209" s="16">
+        <v>0.69935942110762084</v>
+      </c>
+      <c r="H209" s="16">
+        <v>1.7082268154630722</v>
+      </c>
+      <c r="I209" s="16">
+        <v>0.58196648620127456</v>
+      </c>
+      <c r="J209" s="16">
+        <v>0.6319211626033725</v>
+      </c>
+      <c r="K209" s="16">
+        <v>1.96249633847585</v>
+      </c>
+      <c r="L209" s="16">
+        <v>0.72673228525638989</v>
+      </c>
+      <c r="M209" s="16">
+        <v>0.72975601202841334</v>
+      </c>
+      <c r="N209" s="16">
+        <v>1.6786694300963607</v>
+      </c>
+      <c r="O209" s="16">
+        <v>0.65257395290799647</v>
+      </c>
+      <c r="P209" s="16">
+        <v>0.68523099618020855</v>
+      </c>
+      <c r="Q209" s="16">
+        <v>1.8720723040428342</v>
+      </c>
+      <c r="R209" s="16">
+        <v>0.67104676944896402</v>
+      </c>
+      <c r="S209" s="16">
+        <v>0.69516709203248916</v>
+      </c>
+      <c r="T209" s="16">
+        <v>1.7683089123287226</v>
+      </c>
+      <c r="U209" s="7">
+        <v>0.75794728150060342</v>
+      </c>
+      <c r="V209" s="7">
+        <v>0.75211267276736549</v>
+      </c>
+      <c r="W209" s="7">
+        <v>1.5991150602225992</v>
+      </c>
+      <c r="X209" s="7">
+        <v>0.78998640439381695</v>
+      </c>
+      <c r="Y209" s="7">
+        <v>0.79137330411188</v>
+      </c>
+      <c r="Z209" s="7">
+        <v>1.5300206379128201</v>
+      </c>
+      <c r="AA209" s="7">
+        <v>0.78570206032834533</v>
+      </c>
+      <c r="AB209" s="7">
+        <v>0.79017565764881614</v>
+      </c>
+      <c r="AC209" s="7">
+        <v>1.4914658497602009</v>
+      </c>
+      <c r="AD209"/>
+      <c r="AE209"/>
+      <c r="AF209"/>
+      <c r="AG209"/>
+      <c r="AH209"/>
+      <c r="AI209"/>
+      <c r="AJ209"/>
+      <c r="AK209"/>
+      <c r="AL209"/>
+      <c r="AM209"/>
+      <c r="AN209"/>
+      <c r="AO209"/>
+      <c r="AP209"/>
+      <c r="AQ209"/>
+      <c r="AR209"/>
+      <c r="AS209"/>
+      <c r="AT209"/>
+      <c r="AU209"/>
+      <c r="AV209"/>
+      <c r="AW209"/>
+    </row>
+    <row r="210" spans="1:49" ht="18">
+      <c r="A210" s="7">
+        <v>0.995</v>
+      </c>
+      <c r="B210" s="38">
+        <v>803</v>
+      </c>
+      <c r="C210" s="7">
+        <v>0.63040752089691054</v>
+      </c>
+      <c r="D210" s="7">
+        <v>0.68822187545553537</v>
+      </c>
+      <c r="E210" s="7">
+        <v>1.8918246747116616</v>
+      </c>
+      <c r="F210" s="7">
+        <v>0.70077525028737853</v>
+      </c>
+      <c r="G210" s="7">
+        <v>0.69645423829204955</v>
+      </c>
+      <c r="H210" s="7">
+        <v>1.7269207210425677</v>
+      </c>
+      <c r="I210" s="7">
+        <v>0.58036615634382283</v>
+      </c>
+      <c r="J210" s="7">
+        <v>0.6279681200546785</v>
+      </c>
+      <c r="K210" s="7">
+        <v>1.9651254297910925</v>
+      </c>
+      <c r="L210" s="7">
+        <v>0.73890166674189683</v>
+      </c>
+      <c r="M210" s="7">
+        <v>0.7338012248015281</v>
+      </c>
+      <c r="N210" s="7">
+        <v>1.6621973036755189</v>
+      </c>
+      <c r="O210" s="7">
+        <v>0.64371904523786128</v>
+      </c>
+      <c r="P210" s="7">
+        <v>0.67864798673627325</v>
+      </c>
+      <c r="Q210" s="7">
+        <v>1.8761755687160497</v>
+      </c>
+      <c r="R210" s="7">
+        <v>0.67041311255013569</v>
+      </c>
+      <c r="S210" s="7">
+        <v>0.68798275077321436</v>
+      </c>
+      <c r="T210" s="7">
+        <v>1.7696498640479699</v>
+      </c>
+      <c r="U210" s="7">
+        <v>0.74697112899968943</v>
+      </c>
+      <c r="V210" s="7">
+        <v>0.74337098649581612</v>
+      </c>
+      <c r="W210" s="7">
+        <v>1.6286514745906573</v>
+      </c>
+      <c r="X210" s="7">
+        <v>0.78210125750369697</v>
+      </c>
+      <c r="Y210" s="7">
+        <v>0.78265427601665905</v>
+      </c>
+      <c r="Z210" s="7">
+        <v>1.5534499790029901</v>
+      </c>
+      <c r="AA210" s="7">
+        <v>0.78360031205666225</v>
+      </c>
+      <c r="AB210" s="7">
+        <v>0.79013034129615978</v>
+      </c>
+      <c r="AC210" s="7">
+        <v>1.5014958638809293</v>
+      </c>
+      <c r="AD210"/>
+      <c r="AE210"/>
+      <c r="AF210"/>
+      <c r="AG210"/>
+      <c r="AH210"/>
+      <c r="AI210"/>
+      <c r="AJ210"/>
+      <c r="AK210"/>
+      <c r="AL210"/>
+      <c r="AM210"/>
+      <c r="AN210"/>
+      <c r="AO210"/>
+      <c r="AP210"/>
+      <c r="AQ210"/>
+      <c r="AR210"/>
+      <c r="AS210"/>
+      <c r="AT210"/>
+      <c r="AU210"/>
+      <c r="AV210"/>
+      <c r="AW210"/>
+    </row>
+    <row r="211" spans="1:49" ht="18">
+      <c r="A211" s="7">
+        <v>0.996</v>
+      </c>
+      <c r="B211" s="38">
+        <v>698</v>
+      </c>
+      <c r="C211" s="7">
+        <v>0.63252025203415663</v>
+      </c>
+      <c r="D211" s="7">
+        <v>0.69361452142165525</v>
+      </c>
+      <c r="E211" s="7">
+        <v>1.8916995968311643</v>
+      </c>
+      <c r="F211" s="7">
+        <v>0.71052384900986898</v>
+      </c>
+      <c r="G211" s="7">
+        <v>0.70372184834933071</v>
+      </c>
+      <c r="H211" s="7">
+        <v>1.7116277771711441</v>
+      </c>
+      <c r="I211" s="7">
+        <v>0.58294871234377754</v>
+      </c>
+      <c r="J211" s="7">
+        <v>0.63091772908026489</v>
+      </c>
+      <c r="K211" s="7">
+        <v>1.9674214248366657</v>
+      </c>
+      <c r="L211" s="7">
+        <v>0.74045526805578743</v>
+      </c>
+      <c r="M211" s="7">
+        <v>0.73653040214026388</v>
+      </c>
+      <c r="N211" s="7">
+        <v>1.6612896691912784</v>
+      </c>
+      <c r="O211" s="7">
+        <v>0.64433132432612983</v>
+      </c>
+      <c r="P211" s="7">
+        <v>0.67741878067046657</v>
+      </c>
+      <c r="Q211" s="7">
+        <v>1.8765648076059667</v>
+      </c>
+      <c r="R211" s="7">
+        <v>0.67449717155076905</v>
+      </c>
+      <c r="S211" s="7">
+        <v>0.68835644883851355</v>
+      </c>
+      <c r="T211" s="7">
+        <v>1.7584045814055227</v>
+      </c>
+      <c r="U211" s="7">
+        <v>0.74597077220243035</v>
+      </c>
+      <c r="V211" s="7">
+        <v>0.74048182624779124</v>
+      </c>
+      <c r="W211" s="7">
+        <v>1.6327374155928212</v>
+      </c>
+      <c r="X211" s="7">
+        <v>0.78115872233857397</v>
+      </c>
+      <c r="Y211" s="7">
+        <v>0.781977848531203</v>
+      </c>
+      <c r="Z211" s="7">
+        <v>1.55808319306072</v>
+      </c>
+      <c r="AA211" s="7">
+        <v>0.7830170940630049</v>
+      </c>
+      <c r="AB211" s="7">
+        <v>0.78679222546860261</v>
+      </c>
+      <c r="AC211" s="7">
+        <v>1.5051835414573858</v>
+      </c>
+      <c r="AD211"/>
+      <c r="AE211"/>
+      <c r="AF211"/>
+      <c r="AG211"/>
+      <c r="AH211"/>
+      <c r="AI211"/>
+      <c r="AJ211"/>
+      <c r="AK211"/>
+      <c r="AL211"/>
+      <c r="AM211"/>
+      <c r="AN211"/>
+      <c r="AO211"/>
+      <c r="AP211"/>
+      <c r="AQ211"/>
+      <c r="AR211"/>
+      <c r="AS211"/>
+      <c r="AT211"/>
+      <c r="AU211"/>
+      <c r="AV211"/>
+      <c r="AW211"/>
+    </row>
+    <row r="212" spans="1:49" ht="18">
+      <c r="A212" s="7">
+        <v>0.997</v>
+      </c>
+      <c r="B212" s="38">
+        <v>535</v>
+      </c>
+      <c r="C212" s="7">
+        <v>0.63610235449315955</v>
+      </c>
+      <c r="D212" s="7">
+        <v>0.70170591803258442</v>
+      </c>
+      <c r="E212" s="7">
+        <v>1.8692304232615204</v>
+      </c>
+      <c r="F212" s="7">
+        <v>0.70893397299509975</v>
+      </c>
+      <c r="G212" s="7">
+        <v>0.70597123880431611</v>
+      </c>
+      <c r="H212" s="7">
+        <v>1.7083463354403334</v>
+      </c>
+      <c r="I212" s="7">
+        <v>0.58654676968400676</v>
+      </c>
+      <c r="J212" s="7">
+        <v>0.63968482487812506</v>
+      </c>
+      <c r="K212" s="7">
+        <v>1.9525742036285618</v>
+      </c>
+      <c r="L212" s="7">
+        <v>0.72882451702177642</v>
+      </c>
+      <c r="M212" s="7">
+        <v>0.71994372692535502</v>
+      </c>
+      <c r="N212" s="7">
+        <v>1.6844056981547386</v>
+      </c>
+      <c r="O212" s="7">
+        <v>0.64609007183020239</v>
+      </c>
+      <c r="P212" s="7">
+        <v>0.67380156466378072</v>
+      </c>
+      <c r="Q212" s="7">
+        <v>1.8638059795778639</v>
+      </c>
+      <c r="R212" s="7">
+        <v>0.69103311090549135</v>
+      </c>
+      <c r="S212" s="7">
+        <v>0.6926022673941914</v>
+      </c>
+      <c r="T212" s="7">
+        <v>1.7262481004757517</v>
+      </c>
+      <c r="U212" s="7">
+        <v>0.74791388158667871</v>
+      </c>
+      <c r="V212" s="7">
+        <v>0.74663530140618994</v>
+      </c>
+      <c r="W212" s="7">
+        <v>1.6274180953215207</v>
+      </c>
+      <c r="X212" s="7">
+        <v>0.77940148432482903</v>
+      </c>
+      <c r="Y212" s="7">
+        <v>0.78120892713309298</v>
+      </c>
+      <c r="Z212" s="7">
+        <v>1.5608948155601601</v>
+      </c>
+      <c r="AA212" s="7">
+        <v>0.78398059484359695</v>
+      </c>
+      <c r="AB212" s="7">
+        <v>0.7883989244441808</v>
+      </c>
+      <c r="AC212" s="7">
+        <v>1.5045031473085677</v>
+      </c>
+      <c r="AD212"/>
+      <c r="AE212"/>
+      <c r="AF212"/>
+      <c r="AG212"/>
+      <c r="AH212"/>
+      <c r="AI212"/>
+      <c r="AJ212"/>
+      <c r="AK212"/>
+      <c r="AL212"/>
+      <c r="AM212"/>
+      <c r="AN212"/>
+      <c r="AO212"/>
+      <c r="AP212"/>
+      <c r="AQ212"/>
+      <c r="AR212"/>
+      <c r="AS212"/>
+      <c r="AT212"/>
+      <c r="AU212"/>
+      <c r="AV212"/>
+      <c r="AW212"/>
+    </row>
+    <row r="213" spans="1:49" ht="18">
+      <c r="A213" s="7">
+        <v>0.998</v>
+      </c>
+      <c r="B213" s="38">
+        <v>305</v>
+      </c>
+      <c r="C213" s="7">
+        <v>0.62637863508078873</v>
+      </c>
+      <c r="D213" s="7">
+        <v>0.68924877637555437</v>
+      </c>
+      <c r="E213" s="7">
+        <v>1.882147950237592</v>
+      </c>
+      <c r="F213" s="7">
+        <v>0.70404992413007872</v>
+      </c>
+      <c r="G213" s="7">
+        <v>0.70325411885226929</v>
+      </c>
+      <c r="H213" s="7">
+        <v>1.7193070126876431</v>
+      </c>
+      <c r="I213" s="7">
+        <v>0.57514717642570379</v>
+      </c>
+      <c r="J213" s="7">
+        <v>0.62813077339189216</v>
+      </c>
+      <c r="K213" s="7">
+        <v>1.9670990381208315</v>
+      </c>
+      <c r="L213" s="7">
+        <v>0.72240510564533122</v>
+      </c>
+      <c r="M213" s="7">
+        <v>0.72680624115871062</v>
+      </c>
+      <c r="N213" s="7">
+        <v>1.7082124285922802</v>
+      </c>
+      <c r="O213" s="7">
+        <v>0.62424843025978316</v>
+      </c>
+      <c r="P213" s="7">
+        <v>0.65630702487663439</v>
+      </c>
+      <c r="Q213" s="7">
+        <v>1.8882621885854074</v>
+      </c>
+      <c r="R213" s="7">
+        <v>0.66705413501219779</v>
+      </c>
+      <c r="S213" s="7">
+        <v>0.68173670078010318</v>
+      </c>
+      <c r="T213" s="7">
+        <v>1.7823109888426898</v>
+      </c>
+      <c r="U213" s="7">
+        <v>0.73593048579284714</v>
+      </c>
+      <c r="V213" s="7">
+        <v>0.72820247035287988</v>
+      </c>
+      <c r="W213" s="7">
+        <v>1.6483482090254404</v>
+      </c>
+      <c r="X213" s="7">
+        <v>0.76553874339497996</v>
+      </c>
+      <c r="Y213" s="7">
+        <v>0.774119345604105</v>
+      </c>
+      <c r="Z213" s="7">
+        <v>1.5960054012154701</v>
+      </c>
+      <c r="AA213" s="7">
+        <v>0.76457334091244744</v>
+      </c>
+      <c r="AB213" s="7">
+        <v>0.76881772745298682</v>
+      </c>
+      <c r="AC213" s="7">
+        <v>1.5638966764565518</v>
+      </c>
+      <c r="AD213"/>
+      <c r="AE213"/>
+      <c r="AF213"/>
+      <c r="AG213"/>
+      <c r="AH213"/>
+      <c r="AI213"/>
+      <c r="AJ213"/>
+      <c r="AK213"/>
+      <c r="AL213"/>
+      <c r="AM213"/>
+      <c r="AN213"/>
+      <c r="AO213"/>
+      <c r="AP213"/>
+      <c r="AQ213"/>
+      <c r="AR213"/>
+      <c r="AS213"/>
+      <c r="AT213"/>
+      <c r="AU213"/>
+      <c r="AV213"/>
+      <c r="AW213"/>
+    </row>
+    <row r="214" spans="1:49" ht="18">
+      <c r="A214" s="7">
+        <v>0.999</v>
+      </c>
+      <c r="B214" s="38">
+        <v>154</v>
+      </c>
+      <c r="C214" s="7">
+        <v>0.61420595279329437</v>
+      </c>
+      <c r="D214" s="7">
+        <v>0.68802361641266341</v>
+      </c>
+      <c r="E214" s="7">
+        <v>1.8847271032578163</v>
+      </c>
+      <c r="F214" s="7">
+        <v>0.65189740187712986</v>
+      </c>
+      <c r="G214" s="7">
+        <v>0.65777406087182932</v>
+      </c>
+      <c r="H214" s="7">
+        <v>1.8112861740663615</v>
+      </c>
+      <c r="I214" s="7">
+        <v>0.55441005345453787</v>
+      </c>
+      <c r="J214" s="7">
+        <v>0.60380641188294948</v>
+      </c>
+      <c r="K214" s="7">
+        <v>2.0067110993636925</v>
+      </c>
+      <c r="L214" s="7">
+        <v>0.66592002055534993</v>
+      </c>
+      <c r="M214" s="7">
+        <v>0.65893788191451741</v>
+      </c>
+      <c r="N214" s="7">
+        <v>1.7984494010404954</v>
+      </c>
+      <c r="O214" s="7">
+        <v>0.64474339481062248</v>
+      </c>
+      <c r="P214" s="7">
+        <v>0.6616041828139424</v>
+      </c>
+      <c r="Q214" s="7">
+        <v>1.8479880234269561</v>
+      </c>
+      <c r="R214" s="7">
+        <v>0.65838372888144159</v>
+      </c>
+      <c r="S214" s="7">
+        <v>0.69514734705026038</v>
+      </c>
+      <c r="T214" s="7">
+        <v>1.8141349805041425</v>
+      </c>
+      <c r="U214" s="7">
+        <v>0.66883969945247101</v>
+      </c>
+      <c r="V214" s="7">
+        <v>0.64594568360790783</v>
+      </c>
+      <c r="W214" s="7">
+        <v>1.7823909898887493</v>
+      </c>
+      <c r="X214" s="7">
+        <v>0.70201644414064501</v>
+      </c>
+      <c r="Y214" s="7">
+        <v>0.69466351406359395</v>
+      </c>
+      <c r="Z214" s="7">
+        <v>1.72972005835017</v>
+      </c>
+      <c r="AA214" s="7">
+        <v>0.68647971625256721</v>
+      </c>
+      <c r="AB214" s="7">
+        <v>0.68499616036697808</v>
+      </c>
+      <c r="AC214" s="7">
+        <v>1.7669377161623765</v>
+      </c>
+      <c r="AD214"/>
+      <c r="AE214"/>
+      <c r="AF214"/>
+      <c r="AG214"/>
+      <c r="AH214"/>
+      <c r="AI214"/>
+      <c r="AJ214"/>
+      <c r="AK214"/>
+      <c r="AL214"/>
+      <c r="AM214"/>
+      <c r="AN214"/>
+      <c r="AO214"/>
+      <c r="AP214"/>
+      <c r="AQ214"/>
+      <c r="AR214"/>
+      <c r="AS214"/>
+      <c r="AT214"/>
+      <c r="AU214"/>
+      <c r="AV214"/>
+      <c r="AW214"/>
+    </row>
   </sheetData>
-  <mergeCells count="70">
+  <mergeCells count="90">
     <mergeCell ref="AD12:AG12"/>
     <mergeCell ref="AH12:AK12"/>
     <mergeCell ref="AD47:AG47"/>
@@ -20780,8 +27097,6 @@
     <mergeCell ref="B82:E82"/>
     <mergeCell ref="F82:I82"/>
     <mergeCell ref="B77:E78"/>
-    <mergeCell ref="J84:M116"/>
-    <mergeCell ref="B84:E91"/>
     <mergeCell ref="AD120:AG120"/>
     <mergeCell ref="AH120:AK120"/>
     <mergeCell ref="AL120:AO120"/>
@@ -20792,6 +27107,13 @@
     <mergeCell ref="N120:Q120"/>
     <mergeCell ref="R120:U120"/>
     <mergeCell ref="V120:Y120"/>
+    <mergeCell ref="B157:AB157"/>
+    <mergeCell ref="AX12:BA12"/>
+    <mergeCell ref="AX47:BA47"/>
+    <mergeCell ref="AT82:AW82"/>
+    <mergeCell ref="AT120:AW120"/>
+    <mergeCell ref="AT12:AW12"/>
+    <mergeCell ref="AT47:AW47"/>
     <mergeCell ref="AP82:AS82"/>
     <mergeCell ref="AP120:AS120"/>
     <mergeCell ref="AL12:AO12"/>
@@ -20799,12 +27121,27 @@
     <mergeCell ref="AL47:AO47"/>
     <mergeCell ref="AP47:AS47"/>
     <mergeCell ref="AL82:AO82"/>
-    <mergeCell ref="AX12:BA12"/>
-    <mergeCell ref="AX47:BA47"/>
-    <mergeCell ref="AT82:AW82"/>
-    <mergeCell ref="AT120:AW120"/>
-    <mergeCell ref="AT12:AW12"/>
-    <mergeCell ref="AT47:AW47"/>
+    <mergeCell ref="J84:M116"/>
+    <mergeCell ref="B84:E91"/>
+    <mergeCell ref="X158:Z158"/>
+    <mergeCell ref="AA158:AC158"/>
+    <mergeCell ref="C158:E158"/>
+    <mergeCell ref="F158:H158"/>
+    <mergeCell ref="I158:K158"/>
+    <mergeCell ref="L158:N158"/>
+    <mergeCell ref="O158:Q158"/>
+    <mergeCell ref="R158:T158"/>
+    <mergeCell ref="U158:W158"/>
+    <mergeCell ref="A187:AC187"/>
+    <mergeCell ref="C188:E188"/>
+    <mergeCell ref="F188:H188"/>
+    <mergeCell ref="I188:K188"/>
+    <mergeCell ref="L188:N188"/>
+    <mergeCell ref="O188:Q188"/>
+    <mergeCell ref="R188:T188"/>
+    <mergeCell ref="U188:W188"/>
+    <mergeCell ref="X188:Z188"/>
+    <mergeCell ref="AA188:AC188"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
